--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="4"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="上涨下跌数量" sheetId="4" r:id="rId4"/>
     <sheet name="账户" sheetId="7" r:id="rId5"/>
     <sheet name="期货" sheetId="6" r:id="rId6"/>
+    <sheet name="重大资金动向" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>日期</t>
   </si>
@@ -64,6 +65,24 @@
   </si>
   <si>
     <t>结束资金</t>
+  </si>
+  <si>
+    <t>资金出入方向</t>
+  </si>
+  <si>
+    <t>资金量</t>
+  </si>
+  <si>
+    <t>操作理由</t>
+  </si>
+  <si>
+    <t>工商银行-&gt;信用账户</t>
+  </si>
+  <si>
+    <t>最近大幅下跌至2730后，昨日降准0.5%，股市应该会有一段赚钱行情</t>
+  </si>
+  <si>
+    <t>交通银行-&gt;信用账户</t>
   </si>
 </sst>
 </file>
@@ -689,10 +708,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1855,6 +1874,9 @@
                 <c:pt idx="14">
                   <c:v>7670</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>8914</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2704,6 +2726,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2820</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3864,6 +3889,9 @@
                 <c:pt idx="14">
                   <c:v>-63.1</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>210</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4695,6 +4723,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-5.39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4766,6 +4797,8 @@
         <c:axId val="692341428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="550"/>
+          <c:min val="-550"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4815,6 +4848,7 @@
         <c:crossAx val="886415666"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5770,6 +5804,9 @@
                 <c:pt idx="14">
                   <c:v>82</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>109</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6601,6 +6638,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6672,6 +6712,7 @@
         <c:axId val="770414264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6721,6 +6762,7 @@
         <c:crossAx val="868857955"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7676,6 +7718,9 @@
                 <c:pt idx="14">
                   <c:v>76.4</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>91.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7690,8 +7735,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="731866162"/>
-        <c:axId val="189661511"/>
+        <c:axId val="196316785"/>
+        <c:axId val="205461702"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8526,6 +8571,9 @@
                 <c:pt idx="14">
                   <c:v>4016</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>4885</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9361,6 +9409,9 @@
                 <c:pt idx="14">
                   <c:v>1237</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>427</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9376,11 +9427,11 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="820812308"/>
-        <c:axId val="810427627"/>
+        <c:axId val="707670720"/>
+        <c:axId val="73698713"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="820812308"/>
+        <c:axId val="196316785"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9421,7 +9472,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="810427627"/>
+        <c:crossAx val="205461702"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9429,7 +9480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="810427627"/>
+        <c:axId val="205461702"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9478,12 +9529,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="820812308"/>
+        <c:crossAx val="196316785"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="731866162"/>
+        <c:axId val="707670720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9511,17 +9563,16 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189661511"/>
+        <c:crossAx val="73698713"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="189661511"/>
+        <c:axId val="73698713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -9555,9 +9606,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="731866162"/>
+        <c:crossAx val="707670720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="275"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10471,6 +10523,9 @@
                 <c:pt idx="7">
                   <c:v>5788</c:v>
                 </c:pt>
+                <c:pt idx="8" c:formatCode="#,##0">
+                  <c:v>11050</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11279,6 +11334,9 @@
                 <c:pt idx="7">
                   <c:v>160802</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>166590</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12071,6 +12129,9 @@
                 </c:pt>
                 <c:pt idx="7" c:formatCode="#,##0">
                   <c:v>166590</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="#,##0">
+                  <c:v>327640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13218,6 +13279,9 @@
                 <c:pt idx="12">
                   <c:v>-6956</c:v>
                 </c:pt>
+                <c:pt idx="13" c:formatCode="#,##0">
+                  <c:v>-3976</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14056,6 +14120,9 @@
                 <c:pt idx="12">
                   <c:v>150168</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>141212</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14878,6 +14945,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>141212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>137236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18644,25 +18714,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>676910</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>576580</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:rowOff>52705</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3610610" y="188595"/>
-        <a:ext cx="70661530" cy="5008880"/>
+        <a:off x="4305300" y="187325"/>
+        <a:ext cx="76700380" cy="5008880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18998,7 +19068,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD16"/>
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -19171,20 +19241,26 @@
         <v>7042</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" spans="1:3">
+    <row r="16" s="1" customFormat="1" spans="1:3">
       <c r="A16" s="2">
         <v>45315</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>2820</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>7670</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" s="2">
         <v>45316</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2906</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8914</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -20385,7 +20461,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -20564,16 +20640,22 @@
       <c r="A16" s="2">
         <v>45315</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>-63.1</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>-5.39</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" s="2">
         <v>45316</v>
+      </c>
+      <c r="B17" s="1">
+        <v>210</v>
+      </c>
+      <c r="C17" s="1">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -21773,8 +21855,8 @@
   <sheetPr/>
   <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -21951,16 +22033,22 @@
       <c r="A16" s="2">
         <v>45315</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>82</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" s="2">
         <v>45316</v>
+      </c>
+      <c r="B17" s="1">
+        <v>109</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -23131,7 +23219,7 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD16"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -23349,23 +23437,32 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" spans="1:4">
+    <row r="16" s="1" customFormat="1" spans="1:4">
       <c r="A16" s="2">
         <v>45315</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>4016</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>1237</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>76.4</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" s="1" customFormat="1" spans="1:4">
       <c r="A17" s="2">
         <v>45316</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4885</v>
+      </c>
+      <c r="C17" s="1">
+        <v>427</v>
+      </c>
+      <c r="D17" s="1">
+        <v>91.9</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -24535,8 +24632,8 @@
   <sheetPr/>
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -24581,7 +24678,7 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
@@ -24595,7 +24692,7 @@
       <c r="B4" s="1">
         <v>186745</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>179605</v>
       </c>
       <c r="D4" s="1">
@@ -24609,7 +24706,7 @@
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
@@ -24623,7 +24720,7 @@
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
@@ -24637,7 +24734,7 @@
       <c r="B7" s="1">
         <v>172869</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>159060</v>
       </c>
       <c r="D7" s="1">
@@ -24651,30 +24748,39 @@
       <c r="B8" s="1">
         <v>159060</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>160802</v>
       </c>
       <c r="D8" s="1">
         <v>1742</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" spans="1:4">
+    <row r="9" s="1" customFormat="1" spans="1:4">
       <c r="A9" s="2">
         <v>45315</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>160802</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>166590</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>5788</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:1">
+    <row r="10" s="3" customFormat="1" spans="1:4">
       <c r="A10" s="2">
         <v>45316</v>
+      </c>
+      <c r="B10" s="3">
+        <v>166590</v>
+      </c>
+      <c r="C10" s="5">
+        <v>327640</v>
+      </c>
+      <c r="D10" s="5">
+        <v>11050</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:1">
@@ -25845,7 +25951,7 @@
   <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -26019,7 +26125,7 @@
       <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>13503</v>
       </c>
     </row>
@@ -26041,19 +26147,28 @@
       <c r="A14" s="2">
         <v>45315</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>150168</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>141212</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>-6956</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:1">
+    <row r="15" s="3" customFormat="1" spans="1:4">
       <c r="A15" s="2">
         <v>45316</v>
+      </c>
+      <c r="B15" s="3">
+        <v>141212</v>
+      </c>
+      <c r="C15" s="3">
+        <v>137236</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-3976</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:1">
@@ -27216,4 +27331,68 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="58.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="2"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>日期</t>
   </si>
@@ -83,6 +83,11 @@
   </si>
   <si>
     <t>交通银行-&gt;信用账户</t>
+  </si>
+  <si>
+    <t>最近大幅下跌至2730后，前天降准0.5%，前天，昨天大幅反弹，股市应该会有一段赚钱行情；
+今日股市有可能回调，但是昨晚美国超高涨幅30%，超导概念应该可以
+入场</t>
   </si>
 </sst>
 </file>
@@ -698,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,10 +714,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1877,6 +1879,9 @@
                 <c:pt idx="15">
                   <c:v>8914</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>8287</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2729,6 +2734,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2906</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3892,6 +3900,9 @@
                 <c:pt idx="15">
                   <c:v>210</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>-293.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4726,6 +4737,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5807,6 +5821,9 @@
                 <c:pt idx="15">
                   <c:v>109</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6641,6 +6658,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7721,6 +7741,9 @@
                 <c:pt idx="15">
                   <c:v>91.9</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8574,6 +8597,9 @@
                 <c:pt idx="15">
                   <c:v>4885</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2144</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9411,6 +9437,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10526,6 +10555,9 @@
                 <c:pt idx="8" c:formatCode="#,##0">
                   <c:v>11050</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2388</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11337,6 +11369,9 @@
                 <c:pt idx="8">
                   <c:v>166590</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>327640</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12132,6 +12167,9 @@
                 </c:pt>
                 <c:pt idx="8" c:formatCode="#,##0">
                   <c:v>327640</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="#,##0">
+                  <c:v>380028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13282,6 +13320,9 @@
                 <c:pt idx="13" c:formatCode="#,##0">
                   <c:v>-3976</c:v>
                 </c:pt>
+                <c:pt idx="14" c:formatCode="#,##0">
+                  <c:v>1778</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14123,6 +14164,9 @@
                 <c:pt idx="13">
                   <c:v>141212</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>137236</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14948,6 +14992,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>137236</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>139014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19068,7 +19115,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD17"/>
+      <selection activeCell="A18" sqref="A18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -19263,9 +19310,15 @@
         <v>8914</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>45317</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2910</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8287</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -20461,7 +20514,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD17"/>
+      <selection activeCell="A18" sqref="A18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -20538,7 +20591,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -20549,7 +20602,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -20658,9 +20711,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>45317</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-293.2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15.1</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -21855,8 +21914,8 @@
   <sheetPr/>
   <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -22051,9 +22110,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>45317</v>
+      </c>
+      <c r="B18" s="1">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -23219,7 +23284,7 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="A18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -23465,9 +23530,18 @@
         <v>91.9</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" s="1" customFormat="1" spans="1:4">
       <c r="A18" s="2">
         <v>45317</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2144</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3032</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41.4</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -24632,8 +24706,8 @@
   <sheetPr/>
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -24769,23 +24843,32 @@
         <v>5788</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:4">
+    <row r="10" s="1" customFormat="1" spans="1:4">
       <c r="A10" s="2">
         <v>45316</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>166590</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>327640</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>11050</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:1">
+    <row r="11" s="1" customFormat="1" spans="1:4">
       <c r="A11" s="2">
         <v>45317</v>
+      </c>
+      <c r="B11" s="1">
+        <v>327640</v>
+      </c>
+      <c r="C11" s="4">
+        <v>380028</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2388</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:1">
@@ -25951,7 +26034,7 @@
   <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -26157,23 +26240,32 @@
         <v>-6956</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:4">
+    <row r="15" s="1" customFormat="1" spans="1:4">
       <c r="A15" s="2">
         <v>45316</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>141212</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>137236</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>-3976</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:1">
+    <row r="16" s="1" customFormat="1" spans="1:4">
       <c r="A16" s="2">
         <v>45317</v>
+      </c>
+      <c r="B16" s="1">
+        <v>137236</v>
+      </c>
+      <c r="C16" s="1">
+        <v>139014</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1778</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:1">
@@ -27336,13 +27428,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
@@ -27391,6 +27483,20 @@
         <v>19</v>
       </c>
     </row>
+    <row r="4" ht="61" customHeight="1" spans="1:4">
+      <c r="A4" s="2">
+        <v>45317</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="4"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,6 +715,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1882,6 +1885,9 @@
                 <c:pt idx="16">
                   <c:v>8287</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>8052</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2737,6 +2743,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2910</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3903,6 +3912,9 @@
                 <c:pt idx="16">
                   <c:v>-293.2</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>-408.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4740,6 +4752,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5824,6 +5839,9 @@
                 <c:pt idx="16">
                   <c:v>65</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6661,6 +6679,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7744,6 +7765,9 @@
                 <c:pt idx="16">
                   <c:v>41.4</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8600,6 +8624,9 @@
                 <c:pt idx="16">
                   <c:v>2144</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>486</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9440,6 +9467,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3032</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10558,6 +10588,9 @@
                 <c:pt idx="9">
                   <c:v>2388</c:v>
                 </c:pt>
+                <c:pt idx="10" c:formatCode="#,##0">
+                  <c:v>-13287</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11372,6 +11405,9 @@
                 <c:pt idx="9">
                   <c:v>327640</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>380028</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12170,6 +12206,9 @@
                 </c:pt>
                 <c:pt idx="9" c:formatCode="#,##0">
                   <c:v>380028</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="#,##0">
+                  <c:v>366741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13323,6 +13362,9 @@
                 <c:pt idx="14" c:formatCode="#,##0">
                   <c:v>1778</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4475</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14167,6 +14209,9 @@
                 <c:pt idx="14">
                   <c:v>137236</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>139014</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14995,6 +15040,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>139014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19115,7 +19163,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -19321,9 +19369,15 @@
         <v>8287</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" s="4" customFormat="1" spans="1:3">
       <c r="A19" s="2">
         <v>45320</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2883</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8052</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -20514,7 +20568,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -20591,7 +20645,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -20602,7 +20656,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -20722,9 +20776,15 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="2">
         <v>45320</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-408.6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-5.9</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -21915,7 +21975,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -22121,9 +22181,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="2">
         <v>45320</v>
+      </c>
+      <c r="B19" s="1">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -23284,7 +23350,7 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="$A18:$XFD18"/>
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -23544,9 +23610,18 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" s="4" customFormat="1" spans="1:4">
       <c r="A19" s="2">
         <v>45320</v>
+      </c>
+      <c r="B19" s="4">
+        <v>486</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4822</v>
+      </c>
+      <c r="D19" s="4">
+        <v>9.2</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -24706,8 +24781,8 @@
   <sheetPr/>
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -24752,7 +24827,7 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
@@ -24766,7 +24841,7 @@
       <c r="B4" s="1">
         <v>186745</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>179605</v>
       </c>
       <c r="D4" s="1">
@@ -24780,7 +24855,7 @@
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
@@ -24794,7 +24869,7 @@
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
@@ -24808,7 +24883,7 @@
       <c r="B7" s="1">
         <v>172869</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>159060</v>
       </c>
       <c r="D7" s="1">
@@ -24822,7 +24897,7 @@
       <c r="B8" s="1">
         <v>159060</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>160802</v>
       </c>
       <c r="D8" s="1">
@@ -24836,7 +24911,7 @@
       <c r="B9" s="1">
         <v>160802</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>166590</v>
       </c>
       <c r="D9" s="1">
@@ -24850,10 +24925,10 @@
       <c r="B10" s="1">
         <v>166590</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>327640</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>11050</v>
       </c>
     </row>
@@ -24864,16 +24939,25 @@
       <c r="B11" s="1">
         <v>327640</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>380028</v>
       </c>
       <c r="D11" s="1">
         <v>2388</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:1">
+    <row r="12" s="1" customFormat="1" spans="1:4">
       <c r="A12" s="2">
         <v>45320</v>
+      </c>
+      <c r="B12" s="1">
+        <v>380028</v>
+      </c>
+      <c r="C12" s="5">
+        <v>366741</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-13287</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:1">
@@ -26033,8 +26117,8 @@
   <sheetPr/>
   <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -26208,7 +26292,7 @@
       <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>13503</v>
       </c>
     </row>
@@ -26250,7 +26334,7 @@
       <c r="C15" s="1">
         <v>137236</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>-3976</v>
       </c>
     </row>
@@ -26264,13 +26348,22 @@
       <c r="C16" s="1">
         <v>139014</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>1778</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:1">
+    <row r="17" s="4" customFormat="1" spans="1:4">
       <c r="A17" s="2">
         <v>45320</v>
+      </c>
+      <c r="B17" s="4">
+        <v>139014</v>
+      </c>
+      <c r="C17" s="4">
+        <v>134539</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-4475</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:1">

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="5"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -253,12 +253,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -579,7 +591,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,16 +615,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -621,89 +633,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,14 +728,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1888,6 +1927,9 @@
                 <c:pt idx="17">
                   <c:v>8052</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>6636</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2746,6 +2788,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2883</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3915,6 +3960,9 @@
                 <c:pt idx="17">
                   <c:v>-408.6</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>-306.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4755,6 +4803,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-5.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5842,6 +5893,9 @@
                 <c:pt idx="17">
                   <c:v>34</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6682,6 +6736,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7768,6 +7825,9 @@
                 <c:pt idx="17">
                   <c:v>9.2</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8627,6 +8687,9 @@
                 <c:pt idx="17">
                   <c:v>486</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>313</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9470,6 +9533,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4822</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10591,6 +10657,9 @@
                 <c:pt idx="10" c:formatCode="#,##0">
                   <c:v>-13287</c:v>
                 </c:pt>
+                <c:pt idx="11" c:formatCode="#,##0">
+                  <c:v>-17414</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11408,6 +11477,9 @@
                 <c:pt idx="10">
                   <c:v>380028</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>366741</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12209,6 +12281,9 @@
                 </c:pt>
                 <c:pt idx="10" c:formatCode="#,##0">
                   <c:v>366741</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="#,##0">
+                  <c:v>349327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13365,6 +13440,9 @@
                 <c:pt idx="15">
                   <c:v>-4475</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>-716</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14212,6 +14290,9 @@
                 <c:pt idx="15">
                   <c:v>139014</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>134539</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15043,6 +15124,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>134539</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>133823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18704,14 +18788,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>20320</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>169545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -18721,7 +18805,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3030220" y="512445"/>
+        <a:off x="5824220" y="512445"/>
         <a:ext cx="71315580" cy="4827905"/>
       </xdr:xfrm>
       <a:graphic>
@@ -19163,7 +19247,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -19369,20 +19453,26 @@
         <v>8287</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:3">
+    <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="2">
         <v>45320</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>2883</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>8052</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>45321</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2830</v>
+      </c>
+      <c r="C20" s="5">
+        <v>6636</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -20568,7 +20658,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -20645,7 +20735,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6">
+      <c r="A7" s="13">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -20656,7 +20746,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6">
+      <c r="A8" s="13">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -20721,14 +20811,14 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
+    <row r="14" s="12" customFormat="1" spans="1:3">
+      <c r="A14" s="14">
         <v>45313</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="15">
         <v>-499</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="15">
         <v>10.7</v>
       </c>
     </row>
@@ -20787,9 +20877,15 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2">
+    <row r="20" s="12" customFormat="1" spans="1:3">
+      <c r="A20" s="14">
         <v>45321</v>
+      </c>
+      <c r="B20" s="15">
+        <v>-306.4</v>
+      </c>
+      <c r="C20" s="15">
+        <v>17.4</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -21975,7 +22071,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -22192,9 +22288,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>45321</v>
+      </c>
+      <c r="B20" s="1">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -23350,7 +23452,7 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="B20" sqref="B20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -23610,23 +23712,32 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:4">
+    <row r="19" s="1" customFormat="1" spans="1:4">
       <c r="A19" s="2">
         <v>45320</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>486</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>4822</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <v>9.2</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>45321</v>
+      </c>
+      <c r="B20" s="1">
+        <v>313</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5007</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.9</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -24781,8 +24892,8 @@
   <sheetPr/>
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -24827,7 +24938,7 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
@@ -24841,7 +24952,7 @@
       <c r="B4" s="1">
         <v>186745</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>179605</v>
       </c>
       <c r="D4" s="1">
@@ -24855,7 +24966,7 @@
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
@@ -24869,24 +24980,24 @@
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
         <v>-3380</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+    <row r="7" s="6" customFormat="1" spans="1:4">
+      <c r="A7" s="8">
         <v>45313</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>172869</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="9">
         <v>159060</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>-13809</v>
       </c>
     </row>
@@ -24897,7 +25008,7 @@
       <c r="B8" s="1">
         <v>159060</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>160802</v>
       </c>
       <c r="D8" s="1">
@@ -24911,7 +25022,7 @@
       <c r="B9" s="1">
         <v>160802</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>166590</v>
       </c>
       <c r="D9" s="1">
@@ -24925,10 +25036,10 @@
       <c r="B10" s="1">
         <v>166590</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>327640</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>11050</v>
       </c>
     </row>
@@ -24939,30 +25050,39 @@
       <c r="B11" s="1">
         <v>327640</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>380028</v>
       </c>
       <c r="D11" s="1">
         <v>2388</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:4">
-      <c r="A12" s="2">
+    <row r="12" s="7" customFormat="1" spans="1:4">
+      <c r="A12" s="8">
         <v>45320</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>380028</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="9">
         <v>366741</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="9">
         <v>-13287</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:1">
-      <c r="A13" s="2">
+    <row r="13" s="6" customFormat="1" spans="1:4">
+      <c r="A13" s="8">
         <v>45321</v>
+      </c>
+      <c r="B13" s="10">
+        <v>366741</v>
+      </c>
+      <c r="C13" s="11">
+        <v>349327</v>
+      </c>
+      <c r="D13" s="11">
+        <v>-17414</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
@@ -26117,8 +26237,8 @@
   <sheetPr/>
   <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -26292,7 +26412,7 @@
       <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>13503</v>
       </c>
     </row>
@@ -26334,7 +26454,7 @@
       <c r="C15" s="1">
         <v>137236</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>-3976</v>
       </c>
     </row>
@@ -26348,27 +26468,36 @@
       <c r="C16" s="1">
         <v>139014</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>1778</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="1:4">
+    <row r="17" s="1" customFormat="1" spans="1:4">
       <c r="A17" s="2">
         <v>45320</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>139014</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>134539</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <v>-4475</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:1">
+    <row r="18" customFormat="1" spans="1:4">
       <c r="A18" s="2">
         <v>45321</v>
+      </c>
+      <c r="B18" s="5">
+        <v>134539</v>
+      </c>
+      <c r="C18" s="5">
+        <v>133823</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-716</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:1">

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="4"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="上涨下跌数量" sheetId="4" r:id="rId4"/>
     <sheet name="账户" sheetId="7" r:id="rId5"/>
     <sheet name="期货" sheetId="6" r:id="rId6"/>
-    <sheet name="重大资金动向" sheetId="8" r:id="rId7"/>
+    <sheet name="A复盘" sheetId="9" r:id="rId7"/>
+    <sheet name="重大资金动向" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -65,6 +66,32 @@
   </si>
   <si>
     <t>结束资金</t>
+  </si>
+  <si>
+    <t>盘前分析</t>
+  </si>
+  <si>
+    <t>盘后分析</t>
+  </si>
+  <si>
+    <t>今天开盘前对市场的判断：昨天已经大幅下跌，市场温度已是冰点，市场目前是
+涨太多了需要回调，市场风向并不高，甚至有机会盈利。</t>
+  </si>
+  <si>
+    <t>事后来看上周五1月26日，账户从盈利1W变成盈利2K+，那是一个转折点。那一天应该全部清仓。</t>
+  </si>
+  <si>
+    <t>从上一次2724底部暴力反弹至2924以来，今天是明面上下跌的第三个交易日；其实在周一的时候就
+认为市场会下跌，因为2724反弹到2924的速度太快了，需要调整，可惜这个观点只是在脑袋里面闪现了一小会儿，没有足够的重视，还沉浸在每天赚钱的感受里面出不来。</t>
+  </si>
+  <si>
+    <t>对市场的变化没有足够的感知，导致了本周截至今天为止亏损5W+。</t>
+  </si>
+  <si>
+    <t>市场环境不安全时，任何的买入操作都是错误的。</t>
+  </si>
+  <si>
+    <t>熊市的特点是反弹2-3天，跌9-10天。一定要小心。</t>
   </si>
   <si>
     <t>资金出入方向</t>
@@ -253,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,7 +295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,7 +630,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,16 +654,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -633,89 +672,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,10 +767,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -740,29 +788,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1930,6 +1993,9 @@
                 <c:pt idx="18">
                   <c:v>6636</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>7583</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2791,6 +2857,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3963,6 +4032,9 @@
                 <c:pt idx="18">
                   <c:v>-306.4</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>-329</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4806,6 +4878,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>17.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5896,6 +5971,9 @@
                 <c:pt idx="18">
                   <c:v>25</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6739,6 +6817,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7828,6 +7909,9 @@
                 <c:pt idx="18">
                   <c:v>5.9</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8690,6 +8774,9 @@
                 <c:pt idx="18">
                   <c:v>313</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>489</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9536,6 +9623,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10660,6 +10750,9 @@
                 <c:pt idx="11" c:formatCode="#,##0">
                   <c:v>-17414</c:v>
                 </c:pt>
+                <c:pt idx="12" c:formatCode="#,##0">
+                  <c:v>-18904</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11480,6 +11573,9 @@
                 <c:pt idx="11">
                   <c:v>366741</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>349327</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12284,6 +12380,9 @@
                 </c:pt>
                 <c:pt idx="11" c:formatCode="#,##0">
                   <c:v>349327</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="#,##0">
+                  <c:v>330423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13443,6 +13542,9 @@
                 <c:pt idx="16">
                   <c:v>-716</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2058</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14293,6 +14395,9 @@
                 <c:pt idx="16">
                   <c:v>134539</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>133823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15127,6 +15232,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>133823</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19247,7 +19355,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C20"/>
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -19468,16 +19576,22 @@
       <c r="A20" s="2">
         <v>45321</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="1">
         <v>2830</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="1">
         <v>6636</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>45322</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2788</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7583</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -20655,13 +20769,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -20735,7 +20849,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13">
+      <c r="A7" s="18">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -20746,7 +20860,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13">
+      <c r="A8" s="18">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -20811,14 +20925,14 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" spans="1:3">
-      <c r="A14" s="14">
+    <row r="14" s="17" customFormat="1" spans="1:3">
+      <c r="A14" s="19">
         <v>45313</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="20">
         <v>-499</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <v>10.7</v>
       </c>
     </row>
@@ -20877,21 +20991,28 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" s="12" customFormat="1" spans="1:3">
-      <c r="A20" s="14">
+    <row r="20" s="17" customFormat="1" spans="1:3">
+      <c r="A20" s="19">
         <v>45321</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="20">
         <v>-306.4</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="20">
         <v>17.4</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4">
+      <c r="A21" s="21">
         <v>45322</v>
       </c>
+      <c r="B21" s="22">
+        <v>-329</v>
+      </c>
+      <c r="C21" s="22">
+        <v>37</v>
+      </c>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2">
@@ -22071,7 +22192,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C20"/>
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -22299,9 +22420,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>45322</v>
+      </c>
+      <c r="B21" s="1">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -23452,7 +23579,7 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D20"/>
+      <selection activeCell="B21" sqref="B21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -23740,9 +23867,18 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>45322</v>
+      </c>
+      <c r="B21" s="1">
+        <v>489</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4815</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9.2</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -24892,8 +25028,8 @@
   <sheetPr/>
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -24938,7 +25074,7 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
@@ -24952,7 +25088,7 @@
       <c r="B4" s="1">
         <v>186745</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <v>179605</v>
       </c>
       <c r="D4" s="1">
@@ -24966,7 +25102,7 @@
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
@@ -24980,24 +25116,24 @@
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
         <v>-3380</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:4">
-      <c r="A7" s="8">
+    <row r="7" s="9" customFormat="1" spans="1:4">
+      <c r="A7" s="12">
         <v>45313</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>172869</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="13">
         <v>159060</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="10">
         <v>-13809</v>
       </c>
     </row>
@@ -25008,7 +25144,7 @@
       <c r="B8" s="1">
         <v>159060</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="8">
         <v>160802</v>
       </c>
       <c r="D8" s="1">
@@ -25022,7 +25158,7 @@
       <c r="B9" s="1">
         <v>160802</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="8">
         <v>166590</v>
       </c>
       <c r="D9" s="1">
@@ -25036,10 +25172,10 @@
       <c r="B10" s="1">
         <v>166590</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="8">
         <v>327640</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="8">
         <v>11050</v>
       </c>
     </row>
@@ -25050,44 +25186,53 @@
       <c r="B11" s="1">
         <v>327640</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8">
         <v>380028</v>
       </c>
       <c r="D11" s="1">
         <v>2388</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" spans="1:4">
-      <c r="A12" s="8">
+    <row r="12" s="10" customFormat="1" spans="1:4">
+      <c r="A12" s="12">
         <v>45320</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="10">
         <v>380028</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="13">
         <v>366741</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="13">
         <v>-13287</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" spans="1:4">
-      <c r="A13" s="8">
+    <row r="13" s="9" customFormat="1" spans="1:4">
+      <c r="A13" s="12">
         <v>45321</v>
       </c>
       <c r="B13" s="10">
         <v>366741</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>349327</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="13">
         <v>-17414</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="2">
+    <row r="14" s="11" customFormat="1" spans="1:4">
+      <c r="A14" s="14">
         <v>45322</v>
+      </c>
+      <c r="B14" s="15">
+        <v>349327</v>
+      </c>
+      <c r="C14" s="16">
+        <v>330423</v>
+      </c>
+      <c r="D14" s="16">
+        <v>-18904</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:1">
@@ -26238,7 +26383,7 @@
   <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -26412,7 +26557,7 @@
       <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="8">
         <v>13503</v>
       </c>
     </row>
@@ -26454,7 +26599,7 @@
       <c r="C15" s="1">
         <v>137236</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="8">
         <v>-3976</v>
       </c>
     </row>
@@ -26468,7 +26613,7 @@
       <c r="C16" s="1">
         <v>139014</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="8">
         <v>1778</v>
       </c>
     </row>
@@ -26490,19 +26635,28 @@
       <c r="A18" s="2">
         <v>45321</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="1">
         <v>134539</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="1">
         <v>133823</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="1">
         <v>-716</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:1">
+    <row r="19" s="7" customFormat="1" spans="1:4">
       <c r="A19" s="2">
         <v>45322</v>
+      </c>
+      <c r="B19" s="7">
+        <v>133823</v>
+      </c>
+      <c r="C19" s="7">
+        <v>135881</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2058</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:1">
@@ -27648,6 +27802,84 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="68.875" customWidth="1"/>
+    <col min="3" max="3" width="82.25" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4">
+        <v>45323</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D4"/>
@@ -27668,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -27682,13 +27914,13 @@
         <v>45316</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1">
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
@@ -27696,13 +27928,13 @@
         <v>45316</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>50000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="61" customHeight="1" spans="1:4">
@@ -27710,13 +27942,13 @@
         <v>45317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1">
         <v>50000</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="6"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>日期</t>
   </si>
@@ -91,7 +91,24 @@
     <t>市场环境不安全时，任何的买入操作都是错误的。</t>
   </si>
   <si>
-    <t>熊市的特点是反弹2-3天，跌9-10天。一定要小心。</t>
+    <t>熊市的特点是反弹2-3天，跌9-10天。一定要小心。
+今天外围市场普跌，大A已经连续大跌3天了，跌到27XX，上次救市的位置。临近
+年末，不知道政府是否会维稳，给个甜枣吃一下。
+唯一的疑点在于，北向资金这几天都是净流入的。</t>
+  </si>
+  <si>
+    <t>今天开启维稳状态，虽然最后还是下跌，但是盘中出现拉升，最高至2805点；主力资金流出减少，
+北向资金流入，连续三天。
+大A依旧脆弱，不过市场温度已经从极值状态有所回升。
+年前就剩下几个交易日了，会不会涨几天，给个枣吃？</t>
+  </si>
+  <si>
+    <t>昨天主力资金流出大幅减少，今天有可能开启过年红包行情</t>
+  </si>
+  <si>
+    <t xml:space="preserve">昨天主力净流出大幅减少，北向一直在净流入，原以为今天能小赚一点。开盘持有的票都红的，以为红包行情确实开启。没想到指数一路下滑，最低点跌到2666.33。账户最多的时候亏了4W多，截至收盘，亏3W。
+北向资金在某些时候有用，但是关键还是要看主力资金的流入情况。要把超大单，大单，中单，散户的各自流入情况都纳入监测中。只有主力净流入时，才跟随入场。
+</t>
   </si>
   <si>
     <t>资金出入方向</t>
@@ -280,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +313,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +665,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,16 +689,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -672,89 +707,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,55 +802,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -824,7 +844,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1996,6 +2043,12 @@
                 <c:pt idx="19">
                   <c:v>7583</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>7030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8057</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2860,6 +2913,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2788</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2770</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2730</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,6 +4094,12 @@
                 <c:pt idx="19">
                   <c:v>-329</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>-63.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-418</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4881,6 +4946,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5974,6 +6045,12 @@
                 <c:pt idx="19">
                   <c:v>30</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6820,6 +6897,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7912,6 +7995,12 @@
                 <c:pt idx="19">
                   <c:v>9.2</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8777,6 +8866,12 @@
                 <c:pt idx="19">
                   <c:v>489</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>389</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9626,6 +9721,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4163</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10753,6 +10854,12 @@
                 <c:pt idx="12" c:formatCode="#,##0">
                   <c:v>-18904</c:v>
                 </c:pt>
+                <c:pt idx="13" c:formatCode="#,##0">
+                  <c:v>-3746</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="#,##0">
+                  <c:v>-36618</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11576,6 +11683,12 @@
                 <c:pt idx="12">
                   <c:v>349327</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>330423</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>330423</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12383,6 +12496,12 @@
                 </c:pt>
                 <c:pt idx="12" c:formatCode="#,##0">
                   <c:v>330423</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="#,##0">
+                  <c:v>326596</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="#,##0">
+                  <c:v>297670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13545,6 +13664,9 @@
                 <c:pt idx="17">
                   <c:v>2058</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14398,6 +14520,9 @@
                 <c:pt idx="17">
                   <c:v>133823</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>135881</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15235,6 +15360,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>135881</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>136781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19354,8 +19482,8 @@
   <sheetPr/>
   <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -19587,21 +19715,33 @@
       <c r="A21" s="2">
         <v>45322</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="1">
         <v>2788</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="1">
         <v>7583</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>45323</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="1">
+        <v>2770</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>45324</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2730</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8057</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -20772,7 +20912,7 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -20849,7 +20989,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="18">
+      <c r="A7" s="22">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -20860,7 +21000,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="18">
+      <c r="A8" s="22">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -20925,14 +21065,14 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="14" s="17" customFormat="1" spans="1:3">
-      <c r="A14" s="19">
+    <row r="14" s="21" customFormat="1" spans="1:3">
+      <c r="A14" s="23">
         <v>45313</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="24">
         <v>-499</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="24">
         <v>10.7</v>
       </c>
     </row>
@@ -20991,37 +21131,49 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" s="17" customFormat="1" spans="1:3">
-      <c r="A20" s="19">
+    <row r="20" s="21" customFormat="1" spans="1:3">
+      <c r="A20" s="23">
         <v>45321</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="24">
         <v>-306.4</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="24">
         <v>17.4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="21">
+      <c r="A21" s="25">
         <v>45322</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="26">
         <v>-329</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="26">
         <v>37</v>
       </c>
-      <c r="D21" s="23"/>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="D21" s="27"/>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>45323</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="1">
+        <v>-63.5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>45324</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-418</v>
+      </c>
+      <c r="C23" s="1">
+        <v>23.6</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -22192,7 +22344,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+      <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -22431,14 +22583,26 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>45323</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="1">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>45324</v>
+      </c>
+      <c r="B23" s="1">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -23579,7 +23743,7 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -23811,17 +23975,17 @@
         <v>76.4</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:4">
-      <c r="A17" s="2">
+    <row r="17" s="19" customFormat="1" spans="1:4">
+      <c r="A17" s="20">
         <v>45316</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="19">
         <v>4885</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="19">
         <v>427</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="19">
         <v>91.9</v>
       </c>
     </row>
@@ -23881,14 +24045,32 @@
         <v>9.2</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>45323</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="1">
+        <v>1104</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4163</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:4">
       <c r="A23" s="2">
         <v>45324</v>
+      </c>
+      <c r="B23" s="1">
+        <v>389</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4926</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7.2</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -25028,8 +25210,8 @@
   <sheetPr/>
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -25082,16 +25264,16 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="11">
         <v>45308</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="12">
         <v>186745</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="13">
         <v>179605</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="12">
         <v>-7140</v>
       </c>
     </row>
@@ -25124,13 +25306,13 @@
       </c>
     </row>
     <row r="7" s="9" customFormat="1" spans="1:4">
-      <c r="A7" s="12">
+      <c r="A7" s="14">
         <v>45313</v>
       </c>
       <c r="B7" s="10">
         <v>172869</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="15">
         <v>159060</v>
       </c>
       <c r="D7" s="10">
@@ -25194,55 +25376,73 @@
       </c>
     </row>
     <row r="12" s="10" customFormat="1" spans="1:4">
-      <c r="A12" s="12">
+      <c r="A12" s="14">
         <v>45320</v>
       </c>
       <c r="B12" s="10">
         <v>380028</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="15">
         <v>366741</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="15">
         <v>-13287</v>
       </c>
     </row>
     <row r="13" s="9" customFormat="1" spans="1:4">
-      <c r="A13" s="12">
+      <c r="A13" s="14">
         <v>45321</v>
       </c>
       <c r="B13" s="10">
         <v>366741</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="15">
         <v>349327</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="15">
         <v>-17414</v>
       </c>
     </row>
-    <row r="14" s="11" customFormat="1" spans="1:4">
+    <row r="14" s="9" customFormat="1" spans="1:4">
       <c r="A14" s="14">
         <v>45322</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="10">
         <v>349327</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>330423</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>-18904</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:1">
+    <row r="15" customFormat="1" spans="1:4">
       <c r="A15" s="2">
         <v>45323</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:1">
-      <c r="A16" s="2">
+      <c r="B15" s="1">
+        <v>330423</v>
+      </c>
+      <c r="C15" s="8">
+        <v>326596</v>
+      </c>
+      <c r="D15" s="8">
+        <v>-3746</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:4">
+      <c r="A16" s="16">
         <v>45324</v>
+      </c>
+      <c r="B16" s="17">
+        <v>330423</v>
+      </c>
+      <c r="C16" s="18">
+        <v>297670</v>
+      </c>
+      <c r="D16" s="18">
+        <v>-36618</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:1">
@@ -25290,10 +25490,11 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:1">
+    <row r="26" customFormat="1" spans="1:4">
       <c r="A26" s="2">
         <v>45345</v>
       </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" customFormat="1" spans="1:1">
       <c r="A27" s="2">
@@ -26383,7 +26584,7 @@
   <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -26519,17 +26720,17 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+    <row r="10" s="5" customFormat="1" spans="1:4">
+      <c r="A10" s="6">
         <v>45309</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="7">
         <v>148686</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>137065</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>-11621</v>
       </c>
     </row>
@@ -26645,23 +26846,32 @@
         <v>-716</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" spans="1:4">
+    <row r="19" s="1" customFormat="1" spans="1:4">
       <c r="A19" s="2">
         <v>45322</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="1">
         <v>133823</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="1">
         <v>135881</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="1">
         <v>2058</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:1">
+    <row r="20" customFormat="1" spans="1:4">
       <c r="A20" s="2">
         <v>45323</v>
+      </c>
+      <c r="B20" s="1">
+        <v>135881</v>
+      </c>
+      <c r="C20" s="1">
+        <v>136781</v>
+      </c>
+      <c r="D20" s="1">
+        <v>900</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:1">
@@ -27804,13 +28014,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="68.875" customWidth="1"/>
@@ -27830,10 +28040,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>45322</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
@@ -27841,38 +28051,63 @@
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
         <v>45323</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" ht="39" customHeight="1" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" ht="81" spans="1:3">
+      <c r="A9" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -27900,13 +28135,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -27914,13 +28149,13 @@
         <v>45316</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1">
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
@@ -27928,13 +28163,13 @@
         <v>45316</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>50000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="61" customHeight="1" spans="1:4">
@@ -27942,13 +28177,13 @@
         <v>45317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>50000</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -11,7 +11,7 @@
     <sheet name="资金流向" sheetId="5" r:id="rId2"/>
     <sheet name="涨跌停数量" sheetId="3" r:id="rId3"/>
     <sheet name="上涨下跌数量" sheetId="4" r:id="rId4"/>
-    <sheet name="账户" sheetId="7" r:id="rId5"/>
+    <sheet name="A账户" sheetId="7" r:id="rId5"/>
     <sheet name="期货" sheetId="6" r:id="rId6"/>
     <sheet name="A复盘" sheetId="9" r:id="rId7"/>
     <sheet name="重大资金动向" sheetId="8" r:id="rId8"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>日期</t>
   </si>
@@ -53,13 +53,16 @@
     <t>温度</t>
   </si>
   <si>
-    <t>日初始资金</t>
+    <t>日初始资产</t>
   </si>
   <si>
-    <t>日收盘资金</t>
+    <t>日收盘资产</t>
   </si>
   <si>
     <t>盈亏</t>
+  </si>
+  <si>
+    <t>净值</t>
   </si>
   <si>
     <t>初始资金</t>
@@ -111,6 +114,12 @@
 </t>
   </si>
   <si>
+    <t>大A面临系统性风险，雪球敲入之后，下一个爆点是上市公司股权质押。市场已陷入恐慌，至于恐慌何时结束？能否指望国家救市，都很难说。</t>
+  </si>
+  <si>
+    <t>血泪，今天上证指数最低</t>
+  </si>
+  <si>
     <t>资金出入方向</t>
   </si>
   <si>
@@ -138,11 +147,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -312,13 +322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,6 +815,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -817,10 +833,25 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -832,13 +863,22 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -853,10 +893,10 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2049,6 +2089,9 @@
                 <c:pt idx="21">
                   <c:v>8057</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>8774</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2919,6 +2962,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4100,6 +4146,9 @@
                 <c:pt idx="21">
                   <c:v>-418</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>-302.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4952,6 +5001,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6051,6 +6103,9 @@
                 <c:pt idx="21">
                   <c:v>28</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6903,6 +6958,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6974,7 +7032,7 @@
         <c:axId val="770414264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="200"/>
+          <c:max val="1500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7024,7 +7082,7 @@
         <c:crossAx val="868857955"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8001,6 +8059,9 @@
                 <c:pt idx="21">
                   <c:v>7.2</c:v>
                 </c:pt>
+                <c:pt idx="22" c:formatCode="0.0_ ">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8872,6 +8933,9 @@
                 <c:pt idx="21">
                   <c:v>389</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>427</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9727,6 +9791,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4926</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10058,7 +10125,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>账户!$D$1</c:f>
+              <c:f>A账户!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10082,7 +10149,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>账户!$A$2:$A$241</c:f>
+              <c:f>A账户!$A$2:$A$241</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="240"/>
@@ -10811,7 +10878,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>账户!$D$2:$D$241</c:f>
+              <c:f>A账户!$D$2:$D$241</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="240"/>
@@ -10859,6 +10926,12 @@
                 </c:pt>
                 <c:pt idx="14" c:formatCode="#,##0">
                   <c:v>-36618</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="#,##0">
+                  <c:v>-52977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10885,11 +10958,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>账户!$B$1</c:f>
+              <c:f>A账户!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>日初始资金</c:v>
+                  <c:v>日初始资产</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10911,7 +10984,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>账户!$A$2:$A$241</c:f>
+              <c:f>A账户!$A$2:$A$241</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="240"/>
@@ -11640,7 +11713,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>账户!$B$2:$B$241</c:f>
+              <c:f>A账户!$B$2:$B$241</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="240"/>
@@ -11688,6 +11761,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>330423</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>297670</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>391860</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11699,11 +11778,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>账户!$C$1</c:f>
+              <c:f>A账户!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>日收盘资金</c:v>
+                  <c:v>日收盘资产</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11725,7 +11804,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>账户!$A$2:$A$241</c:f>
+              <c:f>A账户!$A$2:$A$241</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="240"/>
@@ -12454,7 +12533,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>账户!$C$2:$C$241</c:f>
+              <c:f>A账户!$C$2:$C$241</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="240"/>
@@ -12502,6 +12581,12 @@
                 </c:pt>
                 <c:pt idx="14" c:formatCode="#,##0">
                   <c:v>297670</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="#,##0">
+                  <c:v>244693</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>391860</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12667,8 +12752,8 @@
         <c:axId val="141713727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="35000"/>
-          <c:min val="-30000"/>
+          <c:max val="55000"/>
+          <c:min val="-55000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -13667,6 +13752,9 @@
                 <c:pt idx="18">
                   <c:v>900</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>4163</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14523,6 +14611,9 @@
                 <c:pt idx="18">
                   <c:v>135881</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>131781</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15363,6 +15454,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>136781</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>132944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19164,16 +19258,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>110</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>128905</xdr:rowOff>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>187325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>52705</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19181,8 +19275,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4514850" y="53975"/>
-        <a:ext cx="72005190" cy="5389880"/>
+        <a:off x="5419725" y="463550"/>
+        <a:ext cx="71958200" cy="8161655"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19482,8 +19576,8 @@
   <sheetPr/>
   <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -19744,9 +19838,15 @@
         <v>8057</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>45327</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2702</v>
+      </c>
+      <c r="C24" s="11">
+        <v>8774</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -20912,7 +21012,7 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B23"/>
+      <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -20989,7 +21089,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="22">
+      <c r="A7" s="5">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -21000,7 +21100,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="22">
+      <c r="A8" s="5">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -21065,14 +21165,14 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="14" s="21" customFormat="1" spans="1:3">
-      <c r="A14" s="23">
+    <row r="14" s="32" customFormat="1" spans="1:3">
+      <c r="A14" s="33">
         <v>45313</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="34">
         <v>-499</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="34">
         <v>10.7</v>
       </c>
     </row>
@@ -21131,28 +21231,28 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" s="21" customFormat="1" spans="1:3">
-      <c r="A20" s="23">
+    <row r="20" s="32" customFormat="1" spans="1:3">
+      <c r="A20" s="33">
         <v>45321</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="34">
         <v>-306.4</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="34">
         <v>17.4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="25">
+      <c r="A21" s="35">
         <v>45322</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="36">
         <v>-329</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="36">
         <v>37</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
@@ -21176,9 +21276,15 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>45327</v>
+      </c>
+      <c r="B24" s="11">
+        <v>-302.8</v>
+      </c>
+      <c r="C24" s="11">
+        <v>12.1</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -22344,7 +22450,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -22605,9 +22711,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>45327</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1368</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -23743,7 +23855,7 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -23975,17 +24087,17 @@
         <v>76.4</v>
       </c>
     </row>
-    <row r="17" s="19" customFormat="1" spans="1:4">
-      <c r="A17" s="20">
+    <row r="17" s="29" customFormat="1" spans="1:4">
+      <c r="A17" s="30">
         <v>45316</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="29">
         <v>4885</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="29">
         <v>427</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="29">
         <v>91.9</v>
       </c>
     </row>
@@ -24073,9 +24185,18 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>45327</v>
+      </c>
+      <c r="B24" s="11">
+        <v>427</v>
+      </c>
+      <c r="C24" s="11">
+        <v>4898</v>
+      </c>
+      <c r="D24" s="31">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -25208,20 +25329,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25233,6 +25354,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -25256,204 +25380,238 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
         <v>-2673</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11">
+    <row r="4" spans="1:5">
+      <c r="A4" s="15">
         <v>45308</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="16">
         <v>186745</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="17">
         <v>179605</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="16">
         <v>-7140</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>45309</v>
       </c>
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
         <v>-3356</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>45310</v>
       </c>
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
         <v>-3380</v>
       </c>
-    </row>
-    <row r="7" s="9" customFormat="1" spans="1:4">
-      <c r="A7" s="14">
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" s="12" customFormat="1" spans="1:5">
+      <c r="A7" s="18">
         <v>45313</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="19">
         <v>172869</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="20">
         <v>159060</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="19">
         <v>-13809</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:4">
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:5">
       <c r="A8" s="2">
         <v>45314</v>
       </c>
       <c r="B8" s="1">
         <v>159060</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <v>160802</v>
       </c>
       <c r="D8" s="1">
         <v>1742</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:4">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="2">
         <v>45315</v>
       </c>
       <c r="B9" s="1">
         <v>160802</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>166590</v>
       </c>
       <c r="D9" s="1">
         <v>5788</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:4">
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="2">
         <v>45316</v>
       </c>
       <c r="B10" s="1">
         <v>166590</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>327640</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="10">
         <v>11050</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:4">
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="2">
         <v>45317</v>
       </c>
       <c r="B11" s="1">
         <v>327640</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>380028</v>
       </c>
       <c r="D11" s="1">
         <v>2388</v>
       </c>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="1:4">
-      <c r="A12" s="14">
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" s="13" customFormat="1" spans="1:4">
+      <c r="A12" s="18">
         <v>45320</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="19">
         <v>380028</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="20">
         <v>366741</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="20">
         <v>-13287</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="1" spans="1:4">
-      <c r="A13" s="14">
+    <row r="13" s="12" customFormat="1" spans="1:5">
+      <c r="A13" s="18">
         <v>45321</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="19">
         <v>366741</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="20">
         <v>349327</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="20">
         <v>-17414</v>
       </c>
-    </row>
-    <row r="14" s="9" customFormat="1" spans="1:4">
-      <c r="A14" s="14">
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" s="12" customFormat="1" spans="1:5">
+      <c r="A14" s="18">
         <v>45322</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="19">
         <v>349327</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <v>330423</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="20">
         <v>-18904</v>
       </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:4">
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="2">
         <v>45323</v>
       </c>
       <c r="B15" s="1">
         <v>330423</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <v>326596</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="10">
         <v>-3746</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:4">
-      <c r="A16" s="16">
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" s="14" customFormat="1" spans="1:5">
+      <c r="A16" s="24">
         <v>45324</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="25">
         <v>330423</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="26">
         <v>297670</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="26">
         <v>-36618</v>
       </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:1">
-      <c r="A17" s="2">
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" s="12" customFormat="1" spans="1:5">
+      <c r="A17" s="24">
         <v>45327</v>
       </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:1">
+      <c r="B17" s="27">
+        <v>297670</v>
+      </c>
+      <c r="C17" s="28">
+        <v>244693</v>
+      </c>
+      <c r="D17" s="28">
+        <v>-52977</v>
+      </c>
+      <c r="E17" s="21">
+        <v>207260</v>
+      </c>
+    </row>
+    <row r="18" s="11" customFormat="1" spans="1:5">
       <c r="A18" s="2">
         <v>45328</v>
       </c>
+      <c r="B18" s="11">
+        <v>391860</v>
+      </c>
+      <c r="C18" s="11">
+        <v>391860</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" customFormat="1" spans="1:1">
       <c r="A19" s="2">
@@ -26584,7 +26742,7 @@
   <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -26598,10 +26756,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -26720,17 +26878,17 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" spans="1:4">
-      <c r="A10" s="6">
+    <row r="10" s="7" customFormat="1" spans="1:4">
+      <c r="A10" s="8">
         <v>45309</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>148686</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>137065</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>-11621</v>
       </c>
     </row>
@@ -26758,7 +26916,7 @@
       <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <v>13503</v>
       </c>
     </row>
@@ -26800,7 +26958,7 @@
       <c r="C15" s="1">
         <v>137236</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="10">
         <v>-3976</v>
       </c>
     </row>
@@ -26814,7 +26972,7 @@
       <c r="C16" s="1">
         <v>139014</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="10">
         <v>1778</v>
       </c>
     </row>
@@ -26874,9 +27032,18 @@
         <v>900</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:1">
+    <row r="21" customFormat="1" spans="1:4">
       <c r="A21" s="2">
         <v>45324</v>
+      </c>
+      <c r="B21" s="11">
+        <v>131781</v>
+      </c>
+      <c r="C21" s="11">
+        <v>132944</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4163</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:1">
@@ -28014,10 +28181,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -28033,10 +28200,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -28044,31 +28211,31 @@
         <v>45322</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -28076,10 +28243,10 @@
         <v>45323</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -28095,10 +28262,21 @@
         <v>45324</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:3">
+      <c r="A10" s="5">
+        <v>45327</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -28135,13 +28313,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -28149,13 +28327,13 @@
         <v>45316</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
@@ -28163,13 +28341,13 @@
         <v>45316</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1">
         <v>50000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="61" customHeight="1" spans="1:4">
@@ -28177,13 +28355,13 @@
         <v>45317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>50000</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="4"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>日期</t>
   </si>
@@ -53,16 +53,19 @@
     <t>温度</t>
   </si>
   <si>
-    <t>日初始资产</t>
+    <t>日初始净资产</t>
   </si>
   <si>
-    <t>日收盘资产</t>
+    <t>日收盘净值资产</t>
   </si>
   <si>
     <t>盈亏</t>
   </si>
   <si>
-    <t>净值</t>
+    <t>日初始总资产</t>
+  </si>
+  <si>
+    <t>日收盘总资产</t>
   </si>
   <si>
     <t>初始资金</t>
@@ -71,7 +74,10 @@
     <t>结束资金</t>
   </si>
   <si>
-    <t>盘前分析</t>
+    <t>出金</t>
+  </si>
+  <si>
+    <t>盘前分析/中证1000分析</t>
   </si>
   <si>
     <t>盘后分析</t>
@@ -117,7 +123,17 @@
     <t>大A面临系统性风险，雪球敲入之后，下一个爆点是上市公司股权质押。市场已陷入恐慌，至于恐慌何时结束？能否指望国家救市，都很难说。</t>
   </si>
   <si>
-    <t>血泪，今天上证指数最低</t>
+    <t>血泪，今天上证指数最低2635，亏损5.2W+。</t>
+  </si>
+  <si>
+    <t>证监会措辞严厉的发言，看看大A今天能否开始反弹。</t>
+  </si>
+  <si>
+    <t>年底的红包行情终于开始，今天开盘下跌至对滴2669，然后猛然拉升，至最高2802。创业板指数
+上涨6.7%，创业板个股涨幅巨大。主力资金净流入216亿，北向净流入126亿。
+中央汇金出手救市！
+反弹从今天开始，记录一下资金状况。
+中证1000经过5波 MACD 绿柱下跌，由2023-11-23 最高6237 下跌至2024-02-05 最低4081，一个多月的时间，下跌2150点(要是做空的话，一手能赚 2150*200 = 43W，OMG)。以后要对大盘环境做最基本的分析，判断自身的投资状态。</t>
   </si>
   <si>
     <t>资金出入方向</t>
@@ -140,7 +156,7 @@
   <si>
     <t>最近大幅下跌至2730后，前天降准0.5%，前天，昨天大幅反弹，股市应该会有一段赚钱行情；
 今日股市有可能回调，但是昨晚美国超高涨幅30%，超导概念应该可以
-入场</t>
+入场。</t>
   </si>
 </sst>
 </file>
@@ -316,6 +332,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,12 +357,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,36 +829,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -851,7 +846,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -863,15 +864,6 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,22 +873,28 @@
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2092,6 +2090,9 @@
                 <c:pt idx="22">
                   <c:v>8774</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>9263</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2965,6 +2966,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4149,6 +4153,9 @@
                 <c:pt idx="22">
                   <c:v>-302.8</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>216.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5004,6 +5011,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>126.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6106,6 +6116,9 @@
                 <c:pt idx="22">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>145</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6961,6 +6974,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8062,6 +8078,9 @@
                 <c:pt idx="22" c:formatCode="0.0_ ">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8936,6 +8955,9 @@
                 <c:pt idx="22">
                   <c:v>427</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>3829</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9794,6 +9816,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4898</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10931,7 +10956,7 @@
                   <c:v>-52977</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>11207.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10962,7 +10987,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>日初始资产</c:v>
+                  <c:v>日初始净资产</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11766,7 +11791,10 @@
                   <c:v>297670</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>391860</c:v>
+                  <c:v>207260</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>218441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11782,7 +11810,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>日收盘资产</c:v>
+                  <c:v>日收盘净值资产</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12586,7 +12614,7 @@
                   <c:v>244693</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>391860</c:v>
+                  <c:v>218427.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13755,6 +13783,9 @@
                 <c:pt idx="19">
                   <c:v>4163</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>1073</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14614,6 +14645,9 @@
                 <c:pt idx="19">
                   <c:v>131781</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>132944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15457,6 +15491,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>132944</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>132017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19275,7 +19312,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5419725" y="463550"/>
+        <a:off x="6972300" y="463550"/>
         <a:ext cx="71958200" cy="8161655"/>
       </xdr:xfrm>
       <a:graphic>
@@ -19577,7 +19614,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C24"/>
+      <selection activeCell="A25" sqref="A25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -19842,16 +19879,22 @@
       <c r="A24" s="2">
         <v>45327</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="1">
         <v>2702</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="1">
         <v>8774</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>45328</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2789</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9263</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -21012,7 +21055,7 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C24"/>
+      <selection activeCell="A25" sqref="$A25:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -21089,7 +21132,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="26">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -21100,7 +21143,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5">
+      <c r="A8" s="26">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -21165,14 +21208,14 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="14" s="32" customFormat="1" spans="1:3">
-      <c r="A14" s="33">
+    <row r="14" s="25" customFormat="1" spans="1:3">
+      <c r="A14" s="27">
         <v>45313</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="28">
         <v>-499</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="28">
         <v>10.7</v>
       </c>
     </row>
@@ -21231,28 +21274,28 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" s="32" customFormat="1" spans="1:3">
-      <c r="A20" s="33">
+    <row r="20" s="25" customFormat="1" spans="1:3">
+      <c r="A20" s="27">
         <v>45321</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="28">
         <v>-306.4</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="28">
         <v>17.4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="35">
+      <c r="A21" s="29">
         <v>45322</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="30">
         <v>-329</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="30">
         <v>37</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
@@ -21280,16 +21323,22 @@
       <c r="A24" s="2">
         <v>45327</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="1">
         <v>-302.8</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="1">
         <v>12.1</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" s="2">
         <v>45328</v>
+      </c>
+      <c r="B25" s="1">
+        <v>216.6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>126.1</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -22450,7 +22499,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -22722,9 +22771,15 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>45328</v>
+      </c>
+      <c r="B25" s="1">
+        <v>145</v>
+      </c>
+      <c r="C25" s="1">
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -23855,7 +23910,7 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B25" sqref="B25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -24087,17 +24142,17 @@
         <v>76.4</v>
       </c>
     </row>
-    <row r="17" s="29" customFormat="1" spans="1:4">
-      <c r="A17" s="30">
+    <row r="17" s="22" customFormat="1" spans="1:4">
+      <c r="A17" s="23">
         <v>45316</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="22">
         <v>4885</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="22">
         <v>427</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="22">
         <v>91.9</v>
       </c>
     </row>
@@ -24189,19 +24244,28 @@
       <c r="A24" s="2">
         <v>45327</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="1">
         <v>427</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="1">
         <v>4898</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>45328</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3829</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1465</v>
+      </c>
+      <c r="D25" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -25329,20 +25393,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25355,8 +25422,11 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -25388,19 +25458,19 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>45308</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>186745</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>179605</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>-7140</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
@@ -25415,7 +25485,7 @@
       <c r="D5" s="1">
         <v>-3356</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
@@ -25430,22 +25500,22 @@
       <c r="D6" s="1">
         <v>-3380</v>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" s="12" customFormat="1" spans="1:5">
-      <c r="A7" s="18">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" s="11" customFormat="1" spans="1:5">
+      <c r="A7" s="16">
         <v>45313</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>172869</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>159060</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <v>-13809</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
       <c r="A8" s="2">
@@ -25460,7 +25530,7 @@
       <c r="D8" s="1">
         <v>1742</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="2">
@@ -25475,7 +25545,7 @@
       <c r="D9" s="1">
         <v>5788</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="2">
@@ -25490,7 +25560,7 @@
       <c r="D10" s="10">
         <v>11050</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="2">
@@ -25505,51 +25575,51 @@
       <c r="D11" s="1">
         <v>2388</v>
       </c>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" s="13" customFormat="1" spans="1:4">
-      <c r="A12" s="18">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" s="12" customFormat="1" spans="1:4">
+      <c r="A12" s="16">
         <v>45320</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="17">
         <v>380028</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>366741</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="18">
         <v>-13287</v>
       </c>
     </row>
-    <row r="13" s="12" customFormat="1" spans="1:5">
-      <c r="A13" s="18">
+    <row r="13" s="11" customFormat="1" spans="1:5">
+      <c r="A13" s="16">
         <v>45321</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>366741</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="18">
         <v>349327</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="18">
         <v>-17414</v>
       </c>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" s="12" customFormat="1" spans="1:5">
-      <c r="A14" s="18">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" s="11" customFormat="1" spans="1:5">
+      <c r="A14" s="16">
         <v>45322</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>349327</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>330423</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="18">
         <v>-18904</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="2">
@@ -25564,59 +25634,69 @@
       <c r="D15" s="10">
         <v>-3746</v>
       </c>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" s="14" customFormat="1" spans="1:5">
-      <c r="A16" s="24">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" s="11" customFormat="1" spans="1:5">
+      <c r="A16" s="19">
         <v>45324</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="20">
         <v>330423</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="21">
         <v>297670</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="21">
         <v>-36618</v>
       </c>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" s="12" customFormat="1" spans="1:5">
-      <c r="A17" s="24">
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" s="11" customFormat="1" spans="1:5">
+      <c r="A17" s="19">
         <v>45327</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="20">
         <v>297670</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="21">
         <v>244693</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="21">
         <v>-52977</v>
       </c>
-      <c r="E17" s="21">
-        <v>207260</v>
-      </c>
-    </row>
-    <row r="18" s="11" customFormat="1" spans="1:5">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="2">
         <v>45328</v>
       </c>
-      <c r="B18" s="11">
-        <v>391860</v>
-      </c>
-      <c r="C18" s="11">
-        <v>391860</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" customFormat="1" spans="1:1">
+      <c r="B18" s="1">
+        <v>207260</v>
+      </c>
+      <c r="C18" s="1">
+        <v>218427.41</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11207.5</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="1">
+        <v>403062.61</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:6">
       <c r="A19" s="2">
         <v>45329</v>
       </c>
+      <c r="B19" s="1">
+        <v>218441</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>403062.61</v>
+      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" customFormat="1" spans="1:1">
       <c r="A20" s="2">
@@ -26751,18 +26831,21 @@
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -27036,19 +27119,31 @@
       <c r="A21" s="2">
         <v>45324</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="1">
         <v>131781</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="1">
         <v>132944</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="1">
         <v>4163</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:1">
+    <row r="22" customFormat="1" spans="1:5">
       <c r="A22" s="2">
         <v>45327</v>
+      </c>
+      <c r="B22" s="1">
+        <v>132944</v>
+      </c>
+      <c r="C22" s="1">
+        <v>132017</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1073</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:1">
@@ -28181,10 +28276,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -28196,14 +28291,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -28211,72 +28306,85 @@
         <v>45322</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
-      <c r="C4" t="s">
-        <v>21</v>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
-      <c r="C5" t="s">
-        <v>22</v>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>45323</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:3">
       <c r="A8" s="2"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" ht="81" spans="1:3">
       <c r="A9" s="2">
         <v>45324</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:3">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>45327</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="88" customHeight="1" spans="1:3">
+      <c r="A11" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -28298,7 +28406,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -28313,13 +28421,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -28327,13 +28435,13 @@
         <v>45316</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
@@ -28341,13 +28449,13 @@
         <v>45316</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1">
         <v>50000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="61" customHeight="1" spans="1:4">
@@ -28355,13 +28463,13 @@
         <v>45317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>50000</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>日期</t>
   </si>
@@ -136,6 +136,14 @@
 中证1000经过5波 MACD 绿柱下跌，由2023-11-23 最高6237 下跌至2024-02-05 最低4081，一个多月的时间，下跌2150点(要是做空的话，一手能赚 2150*200 = 43W，OMG)。以后要对大盘环境做最基本的分析，判断自身的投资状态。</t>
   </si>
   <si>
+    <t>反弹将继续，中证1000的逼仓已经结束；从YINN 上涨17%看，今天会有大幅反弹
+，宜入场做多。</t>
+  </si>
+  <si>
+    <t>今天犯错：①入金40000，开盘集合竞价的时候1.85 买入云内动力2W股。投资交易切记急切，应该
+看准了再行动。 ②昨天尾盘猛拉指数，以为今天开盘也会继续猛拉，其实今天弱势了一段时间。③全天主力资金净流出状态，大A的危险期依然没过去。 今天账户依然巨亏。</t>
+  </si>
+  <si>
     <t>资金出入方向</t>
   </si>
   <si>
@@ -145,10 +153,16 @@
     <t>操作理由</t>
   </si>
   <si>
+    <t>结果</t>
+  </si>
+  <si>
     <t>工商银行-&gt;信用账户</t>
   </si>
   <si>
     <t>最近大幅下跌至2730后，昨日降准0.5%，股市应该会有一段赚钱行情</t>
+  </si>
+  <si>
+    <t>26日是由盈利转变为亏损的转换日，对市场判断出现重大失误。</t>
   </si>
   <si>
     <t>交通银行-&gt;信用账户</t>
@@ -157,6 +171,12 @@
     <t>最近大幅下跌至2730后，前天降准0.5%，前天，昨天大幅反弹，股市应该会有一段赚钱行情；
 今日股市有可能回调，但是昨晚美国超高涨幅30%，超导概念应该可以
 入场。</t>
+  </si>
+  <si>
+    <t>国内的超导概念反应不大。</t>
+  </si>
+  <si>
+    <t>云内动力从3.9跌到了1.8，根据YINN 看，今天A股将继续大幅反弹。</t>
   </si>
 </sst>
 </file>
@@ -815,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,15 +846,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -847,6 +870,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -2970,6 +2996,9 @@
                 <c:pt idx="23">
                   <c:v>2789</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>2829</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4156,6 +4185,9 @@
                 <c:pt idx="23">
                   <c:v>216.6</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>-213.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5014,6 +5046,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>126.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6119,6 +6154,9 @@
                 <c:pt idx="23">
                   <c:v>145</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6977,6 +7015,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8081,6 +8122,9 @@
                 <c:pt idx="23">
                   <c:v>75</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8958,6 +9002,9 @@
                 <c:pt idx="23">
                   <c:v>3829</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>2210</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9819,6 +9866,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10958,6 +11008,9 @@
                 <c:pt idx="16">
                   <c:v>11207.5</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>-27154</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12615,6 +12668,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>218427.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>231227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13784,7 +13840,13 @@
                   <c:v>4163</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1073</c:v>
+                  <c:v>4904</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14646,7 +14708,13 @@
                   <c:v>131781</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>131040</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>132944</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>132017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15493,7 +15561,13 @@
                   <c:v>132944</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>132944</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>132017</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>133462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19614,7 +19688,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -19897,9 +19971,12 @@
         <v>9263</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>45329</v>
+      </c>
+      <c r="B26">
+        <v>2829</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -21055,7 +21132,7 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="$A25:$XFD25"/>
+      <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -21132,7 +21209,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26">
+      <c r="A7" s="28">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -21143,7 +21220,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="26">
+      <c r="A8" s="28">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -21208,14 +21285,14 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="14" s="25" customFormat="1" spans="1:3">
-      <c r="A14" s="27">
+    <row r="14" s="27" customFormat="1" spans="1:3">
+      <c r="A14" s="29">
         <v>45313</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="30">
         <v>-499</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="30">
         <v>10.7</v>
       </c>
     </row>
@@ -21274,28 +21351,28 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" s="25" customFormat="1" spans="1:3">
-      <c r="A20" s="27">
+    <row r="20" s="27" customFormat="1" spans="1:3">
+      <c r="A20" s="29">
         <v>45321</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="30">
         <v>-306.4</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="30">
         <v>17.4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="29">
+      <c r="A21" s="31">
         <v>45322</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="32">
         <v>-329</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="32">
         <v>37</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
@@ -21341,9 +21418,15 @@
         <v>126.1</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>45329</v>
+      </c>
+      <c r="B26" s="12">
+        <v>-213.4</v>
+      </c>
+      <c r="C26" s="12">
+        <v>16.8</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -22499,7 +22582,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -22782,9 +22865,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>45329</v>
+      </c>
+      <c r="B26" s="1">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1">
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -23910,7 +23999,7 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:D25"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -24142,17 +24231,17 @@
         <v>76.4</v>
       </c>
     </row>
-    <row r="17" s="22" customFormat="1" spans="1:4">
-      <c r="A17" s="23">
+    <row r="17" s="24" customFormat="1" spans="1:4">
+      <c r="A17" s="25">
         <v>45316</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="24">
         <v>4885</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="24">
         <v>427</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="24">
         <v>91.9</v>
       </c>
     </row>
@@ -24250,27 +24339,36 @@
       <c r="C24" s="1">
         <v>4898</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2">
+      <c r="A25" s="25">
         <v>45328</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="24">
         <v>3829</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="24">
         <v>1465</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="24">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>45329</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2210</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3089</v>
+      </c>
+      <c r="D26" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -25396,7 +25494,7 @@
   <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -25450,7 +25548,7 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
@@ -25458,16 +25556,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>45308</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="16">
         <v>186745</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="17">
         <v>179605</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="16">
         <v>-7140</v>
       </c>
       <c r="E4" s="1"/>
@@ -25479,7 +25577,7 @@
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
@@ -25494,7 +25592,7 @@
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
@@ -25502,20 +25600,20 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:5">
-      <c r="A7" s="16">
+    <row r="7" s="13" customFormat="1" spans="1:5">
+      <c r="A7" s="18">
         <v>45313</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="19">
         <v>172869</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="20">
         <v>159060</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="19">
         <v>-13809</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
       <c r="A8" s="2">
@@ -25524,13 +25622,13 @@
       <c r="B8" s="1">
         <v>159060</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>160802</v>
       </c>
       <c r="D8" s="1">
         <v>1742</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="2">
@@ -25539,13 +25637,13 @@
       <c r="B9" s="1">
         <v>160802</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>166590</v>
       </c>
       <c r="D9" s="1">
         <v>5788</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="2">
@@ -25554,13 +25652,13 @@
       <c r="B10" s="1">
         <v>166590</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>327640</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>11050</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="2">
@@ -25569,57 +25667,57 @@
       <c r="B11" s="1">
         <v>327640</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>380028</v>
       </c>
       <c r="D11" s="1">
         <v>2388</v>
       </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" s="12" customFormat="1" spans="1:4">
-      <c r="A12" s="16">
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" s="14" customFormat="1" spans="1:4">
+      <c r="A12" s="18">
         <v>45320</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="19">
         <v>380028</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="20">
         <v>366741</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="20">
         <v>-13287</v>
       </c>
     </row>
-    <row r="13" s="11" customFormat="1" spans="1:5">
-      <c r="A13" s="16">
+    <row r="13" s="13" customFormat="1" spans="1:5">
+      <c r="A13" s="18">
         <v>45321</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="19">
         <v>366741</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="20">
         <v>349327</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="20">
         <v>-17414</v>
       </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" s="11" customFormat="1" spans="1:5">
-      <c r="A14" s="16">
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" s="13" customFormat="1" spans="1:5">
+      <c r="A14" s="18">
         <v>45322</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="19">
         <v>349327</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="20">
         <v>330423</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="20">
         <v>-18904</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="2">
@@ -25628,43 +25726,43 @@
       <c r="B15" s="1">
         <v>330423</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="11">
         <v>326596</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <v>-3746</v>
       </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" s="11" customFormat="1" spans="1:5">
-      <c r="A16" s="19">
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" s="13" customFormat="1" spans="1:5">
+      <c r="A16" s="21">
         <v>45324</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="22">
         <v>330423</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="23">
         <v>297670</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="23">
         <v>-36618</v>
       </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" s="11" customFormat="1" spans="1:5">
-      <c r="A17" s="19">
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" s="13" customFormat="1" spans="1:5">
+      <c r="A17" s="21">
         <v>45327</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="22">
         <v>297670</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="23">
         <v>244693</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="23">
         <v>-52977</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="2">
@@ -25679,7 +25777,7 @@
       <c r="D18" s="1">
         <v>11207.5</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="1">
         <v>403062.61</v>
       </c>
@@ -25691,12 +25789,18 @@
       <c r="B19" s="1">
         <v>218441</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1">
+        <v>231227</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-27154</v>
+      </c>
       <c r="E19" s="1">
         <v>403062.61</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>415898</v>
+      </c>
     </row>
     <row r="20" customFormat="1" spans="1:1">
       <c r="A20" s="2">
@@ -26822,7 +26926,7 @@
   <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -26961,17 +27065,17 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:4">
-      <c r="A10" s="8">
+    <row r="10" s="8" customFormat="1" spans="1:4">
+      <c r="A10" s="9">
         <v>45309</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>148686</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>137065</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>-11621</v>
       </c>
     </row>
@@ -26999,7 +27103,7 @@
       <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>13503</v>
       </c>
     </row>
@@ -27041,7 +27145,7 @@
       <c r="C15" s="1">
         <v>137236</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <v>-3976</v>
       </c>
     </row>
@@ -27055,7 +27159,7 @@
       <c r="C16" s="1">
         <v>139014</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <v>1778</v>
       </c>
     </row>
@@ -27134,26 +27238,47 @@
         <v>45327</v>
       </c>
       <c r="B22" s="1">
+        <v>131040</v>
+      </c>
+      <c r="C22" s="1">
         <v>132944</v>
       </c>
-      <c r="C22" s="1">
-        <v>132017</v>
-      </c>
       <c r="D22" s="1">
-        <v>1073</v>
+        <v>4904</v>
       </c>
       <c r="E22" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:5">
       <c r="A23" s="2">
         <v>45328</v>
       </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:1">
+      <c r="B23" s="1">
+        <v>132944</v>
+      </c>
+      <c r="C23" s="1">
+        <v>132017</v>
+      </c>
+      <c r="D23" s="1">
+        <v>927</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:4">
       <c r="A24" s="2">
         <v>45329</v>
+      </c>
+      <c r="B24" s="12">
+        <v>132017</v>
+      </c>
+      <c r="C24" s="12">
+        <v>133462</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1445</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:1">
@@ -28276,9 +28401,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -28305,7 +28430,7 @@
       <c r="A2" s="2">
         <v>45322</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
@@ -28314,21 +28439,21 @@
     </row>
     <row r="3" ht="40.5" spans="1:3">
       <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
@@ -28337,22 +28462,22 @@
       <c r="A6" s="2">
         <v>45323</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" ht="81" spans="1:3">
       <c r="A9" s="2">
@@ -28361,7 +28486,7 @@
       <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -28369,14 +28494,14 @@
       <c r="A10" s="2">
         <v>45327</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="88" customHeight="1" spans="1:3">
+    <row r="11" ht="115" customHeight="1" spans="1:3">
       <c r="A11" s="2">
         <v>45328</v>
       </c>
@@ -28385,6 +28510,17 @@
       </c>
       <c r="C11" s="6" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="77" customHeight="1" spans="1:3">
+      <c r="A12" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -28403,76 +28539,104 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="58.375" customWidth="1"/>
+    <col min="5" max="5" width="47.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2">
         <v>45316</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1">
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="2">
         <v>45316</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1">
         <v>50000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="61" customHeight="1" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="61" customHeight="1" spans="1:5">
       <c r="A4" s="2">
         <v>45317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>50000</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="6"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>日期</t>
   </si>
@@ -176,7 +176,11 @@
     <t>国内的超导概念反应不大。</t>
   </si>
   <si>
-    <t>云内动力从3.9跌到了1.8，根据YINN 看，今天A股将继续大幅反弹。</t>
+    <t>大A 2800点，云内动力从3.9跌到了1.8，根据YINN 看，今天A股将
+继续大幅反弹。</t>
+  </si>
+  <si>
+    <t>2月7日，云内动力继续下跌，最低1.72。</t>
   </si>
 </sst>
 </file>
@@ -835,7 +839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,12 +856,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -870,9 +874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -21209,7 +21210,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -21220,7 +21221,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="28">
+      <c r="A8" s="27">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -21285,14 +21286,14 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="14" s="27" customFormat="1" spans="1:3">
-      <c r="A14" s="29">
+    <row r="14" s="26" customFormat="1" spans="1:3">
+      <c r="A14" s="28">
         <v>45313</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>-499</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <v>10.7</v>
       </c>
     </row>
@@ -21351,28 +21352,28 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" s="27" customFormat="1" spans="1:3">
-      <c r="A20" s="29">
+    <row r="20" s="26" customFormat="1" spans="1:3">
+      <c r="A20" s="28">
         <v>45321</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="29">
         <v>-306.4</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="29">
         <v>17.4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="31">
+      <c r="A21" s="30">
         <v>45322</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <v>-329</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>37</v>
       </c>
-      <c r="D21" s="33"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
@@ -21422,10 +21423,10 @@
       <c r="A26" s="2">
         <v>45329</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="1">
         <v>-213.4</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="1">
         <v>16.8</v>
       </c>
     </row>
@@ -24231,17 +24232,17 @@
         <v>76.4</v>
       </c>
     </row>
-    <row r="17" s="24" customFormat="1" spans="1:4">
-      <c r="A17" s="25">
+    <row r="17" s="23" customFormat="1" spans="1:4">
+      <c r="A17" s="24">
         <v>45316</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>4885</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>427</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>91.9</v>
       </c>
     </row>
@@ -24339,21 +24340,21 @@
       <c r="C24" s="1">
         <v>4898</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="25">
+      <c r="A25" s="24">
         <v>45328</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>3829</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>1465</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="23">
         <v>75</v>
       </c>
     </row>
@@ -25556,16 +25557,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>45308</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>186745</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>179605</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>-7140</v>
       </c>
       <c r="E4" s="1"/>
@@ -25600,20 +25601,20 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="13" customFormat="1" spans="1:5">
-      <c r="A7" s="18">
+    <row r="7" s="12" customFormat="1" spans="1:5">
+      <c r="A7" s="17">
         <v>45313</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>172869</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>159060</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>-13809</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
       <c r="A8" s="2">
@@ -25628,7 +25629,7 @@
       <c r="D8" s="1">
         <v>1742</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="2">
@@ -25643,7 +25644,7 @@
       <c r="D9" s="1">
         <v>5788</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="2">
@@ -25658,7 +25659,7 @@
       <c r="D10" s="11">
         <v>11050</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="2">
@@ -25673,51 +25674,51 @@
       <c r="D11" s="1">
         <v>2388</v>
       </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" s="14" customFormat="1" spans="1:4">
-      <c r="A12" s="18">
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" s="13" customFormat="1" spans="1:4">
+      <c r="A12" s="17">
         <v>45320</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>380028</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>366741</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>-13287</v>
       </c>
     </row>
-    <row r="13" s="13" customFormat="1" spans="1:5">
-      <c r="A13" s="18">
+    <row r="13" s="12" customFormat="1" spans="1:5">
+      <c r="A13" s="17">
         <v>45321</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>366741</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>349327</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>-17414</v>
       </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" s="13" customFormat="1" spans="1:5">
-      <c r="A14" s="18">
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" s="12" customFormat="1" spans="1:5">
+      <c r="A14" s="17">
         <v>45322</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>349327</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>330423</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>-18904</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="2">
@@ -25732,37 +25733,37 @@
       <c r="D15" s="11">
         <v>-3746</v>
       </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" s="13" customFormat="1" spans="1:5">
-      <c r="A16" s="21">
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" s="12" customFormat="1" spans="1:5">
+      <c r="A16" s="20">
         <v>45324</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>330423</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>297670</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>-36618</v>
       </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" s="13" customFormat="1" spans="1:5">
-      <c r="A17" s="21">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" s="12" customFormat="1" spans="1:5">
+      <c r="A17" s="20">
         <v>45327</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>297670</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>244693</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>-52977</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="2">
@@ -25777,7 +25778,7 @@
       <c r="D18" s="1">
         <v>11207.5</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="1">
         <v>403062.61</v>
       </c>
@@ -27271,13 +27272,13 @@
       <c r="A24" s="2">
         <v>45329</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="1">
         <v>132017</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="1">
         <v>133462</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="1">
         <v>1445</v>
       </c>
     </row>
@@ -28403,7 +28404,7 @@
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -28447,14 +28448,14 @@
     <row r="4" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -28471,19 +28472,19 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:3">
       <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" ht="81" spans="1:3">
       <c r="A9" s="2">
         <v>45324</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -28497,7 +28498,7 @@
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -28508,7 +28509,7 @@
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -28519,7 +28520,7 @@
       <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -28541,8 +28542,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -28619,7 +28620,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="36" customHeight="1" spans="1:5">
       <c r="A5" s="2">
         <v>45329</v>
       </c>
@@ -28629,8 +28630,11 @@
       <c r="C5" s="1">
         <v>40000</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -182,18 +182,49 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -207,11 +238,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,11 +268,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,32 +297,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,30 +323,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,28 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,7 +412,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +538,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,145 +562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +585,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -606,8 +615,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,6 +641,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,177 +685,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,9 +855,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -941,52 +938,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1183,7 +1180,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1192,7 +1189,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -2119,6 +2116,12 @@
                 <c:pt idx="23">
                   <c:v>9263</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>9370</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2998,6 +3001,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2829</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4188,6 +4194,9 @@
                 <c:pt idx="24">
                   <c:v>-213.4</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>-39.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5049,6 +5058,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6157,6 +6169,9 @@
                 <c:pt idx="24">
                   <c:v>100</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>517</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7018,6 +7033,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8125,6 +8143,9 @@
                 <c:pt idx="24">
                   <c:v>40</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>90.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9005,6 +9026,9 @@
                 <c:pt idx="24">
                   <c:v>2210</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>4803</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9869,6 +9893,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3089</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11011,6 +11038,9 @@
                 <c:pt idx="17">
                   <c:v>-27154</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>14225</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11849,6 +11879,9 @@
                 <c:pt idx="17">
                   <c:v>218441</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>231227</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12671,6 +12704,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>231227</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>245130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13848,6 +13884,9 @@
                 <c:pt idx="22">
                   <c:v>1445</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7495</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14716,6 +14755,9 @@
                 <c:pt idx="22">
                   <c:v>132017</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>133462</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15568,6 +15610,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>133462</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>125967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19246,8 +19291,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5824220" y="512445"/>
-        <a:ext cx="71315580" cy="4827905"/>
+        <a:off x="5344795" y="525145"/>
+        <a:ext cx="65371980" cy="5012055"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19281,8 +19326,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4305300" y="368300"/>
-        <a:ext cx="71319390" cy="4524375"/>
+        <a:off x="3946525" y="381000"/>
+        <a:ext cx="65379600" cy="4689475"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19316,8 +19361,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2847975" y="187325"/>
-        <a:ext cx="71347330" cy="5285740"/>
+        <a:off x="2610485" y="193675"/>
+        <a:ext cx="65403730" cy="5476240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19351,8 +19396,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4305300" y="187325"/>
-        <a:ext cx="76700380" cy="5008880"/>
+        <a:off x="3946525" y="193675"/>
+        <a:ext cx="70356730" cy="5193030"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19386,8 +19431,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6972300" y="463550"/>
-        <a:ext cx="71958200" cy="8161655"/>
+        <a:off x="6411595" y="476250"/>
+        <a:ext cx="65957450" cy="8466455"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19421,8 +19466,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3705860" y="235585"/>
-        <a:ext cx="71995030" cy="4876165"/>
+        <a:off x="3398520" y="241935"/>
+        <a:ext cx="65994280" cy="5053965"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19687,11 +19732,11 @@
   <sheetPr/>
   <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
@@ -19971,17 +20016,26 @@
         <v>9263</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>45329</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="11">
         <v>2829</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="C26" s="11">
+        <v>9370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>45330</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2856</v>
+      </c>
+      <c r="C27" s="11">
+        <v>10200</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -21131,15 +21185,15 @@
   <sheetPr/>
   <dimension ref="A1:D248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.375"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="10.3727272727273"/>
+    <col min="2" max="2" width="22.3727272727273" customWidth="1"/>
+    <col min="3" max="3" width="14.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -21209,7 +21263,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -21220,7 +21274,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="28">
+      <c r="A8" s="27">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -21285,14 +21339,14 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="14" s="27" customFormat="1" spans="1:3">
-      <c r="A14" s="29">
+    <row r="14" s="26" customFormat="1" spans="1:3">
+      <c r="A14" s="28">
         <v>45313</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>-499</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <v>10.7</v>
       </c>
     </row>
@@ -21351,28 +21405,28 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" s="27" customFormat="1" spans="1:3">
-      <c r="A20" s="29">
+    <row r="20" s="26" customFormat="1" spans="1:3">
+      <c r="A20" s="28">
         <v>45321</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="29">
         <v>-306.4</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="29">
         <v>17.4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="31">
+      <c r="A21" s="30">
         <v>45322</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <v>-329</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>37</v>
       </c>
-      <c r="D21" s="33"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
@@ -21422,16 +21476,22 @@
       <c r="A26" s="2">
         <v>45329</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="1">
         <v>-213.4</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="1">
         <v>16.8</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>45330</v>
+      </c>
+      <c r="B27" s="11">
+        <v>-39.2</v>
+      </c>
+      <c r="C27" s="11">
+        <v>5.83</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -22581,13 +22641,13 @@
   <sheetPr/>
   <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.375"/>
+    <col min="1" max="1" width="10.3727272727273"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -22876,9 +22936,15 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>45330</v>
+      </c>
+      <c r="B27" s="11">
+        <v>517</v>
+      </c>
+      <c r="C27" s="11">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -23998,11 +24064,11 @@
   <sheetPr/>
   <dimension ref="A1:D248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="$A27:$XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.5"/>
   </cols>
@@ -24231,17 +24297,17 @@
         <v>76.4</v>
       </c>
     </row>
-    <row r="17" s="24" customFormat="1" spans="1:4">
-      <c r="A17" s="25">
+    <row r="17" s="23" customFormat="1" spans="1:4">
+      <c r="A17" s="24">
         <v>45316</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>4885</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>427</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>91.9</v>
       </c>
     </row>
@@ -24339,21 +24405,21 @@
       <c r="C24" s="1">
         <v>4898</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="25">
+      <c r="A25" s="24">
         <v>45328</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>3829</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>1465</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="23">
         <v>75</v>
       </c>
     </row>
@@ -24371,9 +24437,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" s="11" customFormat="1" spans="1:4">
       <c r="A27" s="2">
         <v>45330</v>
+      </c>
+      <c r="B27" s="11">
+        <v>4803</v>
+      </c>
+      <c r="C27" s="11">
+        <v>508</v>
+      </c>
+      <c r="D27" s="11">
+        <v>90.4</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -25493,15 +25568,15 @@
   <sheetPr/>
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="15.7545454545455" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="14.1272727272727" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
@@ -25548,7 +25623,7 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
@@ -25556,16 +25631,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>45308</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>186745</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>179605</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>-7140</v>
       </c>
       <c r="E4" s="1"/>
@@ -25577,7 +25652,7 @@
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
@@ -25592,7 +25667,7 @@
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
@@ -25600,20 +25675,20 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="13" customFormat="1" spans="1:5">
-      <c r="A7" s="18">
+    <row r="7" s="12" customFormat="1" spans="1:5">
+      <c r="A7" s="17">
         <v>45313</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>172869</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>159060</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>-13809</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
       <c r="A8" s="2">
@@ -25622,13 +25697,13 @@
       <c r="B8" s="1">
         <v>159060</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>160802</v>
       </c>
       <c r="D8" s="1">
         <v>1742</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="2">
@@ -25637,13 +25712,13 @@
       <c r="B9" s="1">
         <v>160802</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>166590</v>
       </c>
       <c r="D9" s="1">
         <v>5788</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="2">
@@ -25652,13 +25727,13 @@
       <c r="B10" s="1">
         <v>166590</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>327640</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>11050</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="2">
@@ -25667,57 +25742,57 @@
       <c r="B11" s="1">
         <v>327640</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>380028</v>
       </c>
       <c r="D11" s="1">
         <v>2388</v>
       </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" s="14" customFormat="1" spans="1:4">
-      <c r="A12" s="18">
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" s="13" customFormat="1" spans="1:4">
+      <c r="A12" s="17">
         <v>45320</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>380028</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>366741</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>-13287</v>
       </c>
     </row>
-    <row r="13" s="13" customFormat="1" spans="1:5">
-      <c r="A13" s="18">
+    <row r="13" s="12" customFormat="1" spans="1:5">
+      <c r="A13" s="17">
         <v>45321</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>366741</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>349327</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>-17414</v>
       </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" s="13" customFormat="1" spans="1:5">
-      <c r="A14" s="18">
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" s="12" customFormat="1" spans="1:5">
+      <c r="A14" s="17">
         <v>45322</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>349327</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>330423</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>-18904</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="2">
@@ -25726,43 +25801,43 @@
       <c r="B15" s="1">
         <v>330423</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>326596</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>-3746</v>
       </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" s="13" customFormat="1" spans="1:5">
-      <c r="A16" s="21">
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" s="12" customFormat="1" spans="1:5">
+      <c r="A16" s="20">
         <v>45324</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>330423</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>297670</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>-36618</v>
       </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" s="13" customFormat="1" spans="1:5">
-      <c r="A17" s="21">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" s="12" customFormat="1" spans="1:5">
+      <c r="A17" s="20">
         <v>45327</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>297670</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>244693</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>-52977</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="2">
@@ -25777,7 +25852,7 @@
       <c r="D18" s="1">
         <v>11207.5</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="1">
         <v>403062.61</v>
       </c>
@@ -25802,9 +25877,24 @@
         <v>415898</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:1">
+    <row r="20" customFormat="1" spans="1:6">
       <c r="A20" s="2">
         <v>45330</v>
+      </c>
+      <c r="B20" s="11">
+        <v>231227</v>
+      </c>
+      <c r="C20" s="11">
+        <v>245130</v>
+      </c>
+      <c r="D20" s="11">
+        <v>14225</v>
+      </c>
+      <c r="E20" s="11">
+        <v>415898</v>
+      </c>
+      <c r="F20" s="11">
+        <v>275095</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:1">
@@ -26925,13 +27015,13 @@
   <sheetPr/>
   <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.375"/>
+    <col min="1" max="1" width="10.3727272727273"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27065,17 +27155,17 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:4">
-      <c r="A10" s="9">
+    <row r="10" s="7" customFormat="1" spans="1:4">
+      <c r="A10" s="8">
         <v>45309</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>148686</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>137065</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>-11621</v>
       </c>
     </row>
@@ -27103,7 +27193,7 @@
       <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>13503</v>
       </c>
     </row>
@@ -27145,7 +27235,7 @@
       <c r="C15" s="1">
         <v>137236</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>-3976</v>
       </c>
     </row>
@@ -27159,7 +27249,7 @@
       <c r="C16" s="1">
         <v>139014</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>1778</v>
       </c>
     </row>
@@ -27271,19 +27361,28 @@
       <c r="A24" s="2">
         <v>45329</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="1">
         <v>132017</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="1">
         <v>133462</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="1">
         <v>1445</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:1">
+    <row r="25" customFormat="1" spans="1:4">
       <c r="A25" s="2">
         <v>45330</v>
+      </c>
+      <c r="B25" s="11">
+        <v>133462</v>
+      </c>
+      <c r="C25" s="11">
+        <v>125967</v>
+      </c>
+      <c r="D25" s="11">
+        <v>-7495</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:1">
@@ -28403,15 +28502,15 @@
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="68.875" customWidth="1"/>
-    <col min="3" max="3" width="82.25" customWidth="1"/>
+    <col min="1" max="1" width="15.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="68.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="82.2545454545455" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28437,7 +28536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:3">
+    <row r="3" ht="56" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -28479,7 +28578,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" ht="81" spans="1:3">
+    <row r="9" ht="84" spans="1:3">
       <c r="A9" s="2">
         <v>45324</v>
       </c>
@@ -28490,7 +28589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:3">
+    <row r="10" ht="28" spans="1:3">
       <c r="A10" s="2">
         <v>45327</v>
       </c>
@@ -28519,7 +28618,7 @@
       <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -28545,12 +28644,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="58.375" customWidth="1"/>
-    <col min="5" max="5" width="47.125" customWidth="1"/>
+    <col min="1" max="1" width="13.7545454545455" customWidth="1"/>
+    <col min="2" max="2" width="20.8727272727273" customWidth="1"/>
+    <col min="4" max="4" width="58.3727272727273" customWidth="1"/>
+    <col min="5" max="5" width="47.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>日期</t>
   </si>
@@ -32,10 +32,22 @@
     <t>成交量</t>
   </si>
   <si>
-    <t>主力净流入(亿)</t>
+    <t>主力净流入</t>
   </si>
   <si>
-    <t>北向净流入(亿)</t>
+    <t>超大单</t>
+  </si>
+  <si>
+    <t>大单</t>
+  </si>
+  <si>
+    <t>中单</t>
+  </si>
+  <si>
+    <t>小单</t>
+  </si>
+  <si>
+    <t>北向净流入</t>
   </si>
   <si>
     <t>涨停数</t>
@@ -152,6 +164,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">大盘高开，冲高在2905，然后下午下跌至最低2867。下跌过程中伴随着创业板，A50，中证1000收绿，北向流出60亿，主力流出高达150亿，只有小单是流入的。场面一度危险，不过最终被强力拉回，最终达到了皆大欢喜的局面。  </t>
     </r>
     <r>
@@ -163,6 +182,27 @@
         <scheme val="minor"/>
       </rPr>
       <t>短期上涨过快，明天上午10点前应该将今天买入的6W股 巨轮智能清仓。交易就像指挥作战，应该出手必胜，观望也是交易状态的一种。</t>
+    </r>
+  </si>
+  <si>
+    <t>昨日大A指数在2900点徘徊，感觉上涨乏力，只是下午快速拉升至292X，使得指数
+脱离了震荡区间，其持续性存在疑问。市场昨天缩量至7960亿，反弹能量不足；
+市场1H MACD 钝化，有可能要调整。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">今天市场最高点达到了2992，反弹速度非常快。主力资金大幅流入，超过5100 个股上涨，95% 以上，有点人声鼎沸的感觉。虽然我踏空了，但是自己能掌控自己的账户，这一点还是比较好的。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这轮反弹的判断失误：每一轮较大幅度的反弹，都有一次人声鼎沸的机会，那一天是离场的机会。在那之前可以胆子大一些，做热门板块的龙头，博取最大利润。</t>
     </r>
   </si>
   <si>
@@ -870,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,6 +930,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -949,11 +992,11 @@
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2172,6 +2215,12 @@
                 <c:pt idx="26">
                   <c:v>9573</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>7894</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9803</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3054,6 +3103,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2910</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2922</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3395,7 +3450,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>主力净流入(亿)</c:v>
+                  <c:v>主力净流入</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4247,6 +4302,12 @@
                 <c:pt idx="26">
                   <c:v>-50.6</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>-40.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4256,11 +4317,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>资金流向!$C$1</c:f>
+              <c:f>资金流向!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>北向净流入(亿)</c:v>
+                  <c:v>北向净流入</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5027,7 +5088,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>资金流向!$C$2:$C$247</c:f>
+              <c:f>资金流向!$G$2:$G$247</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="246"/>
@@ -5111,6 +5172,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-63.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6222,6 +6289,12 @@
                 <c:pt idx="26">
                   <c:v>272</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>155</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7086,6 +7159,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8196,6 +8275,12 @@
                 <c:pt idx="26">
                   <c:v>80.4</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9079,6 +9164,12 @@
                 <c:pt idx="26">
                   <c:v>4258</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>3578</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4106</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9946,6 +10037,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11091,6 +11188,12 @@
                 <c:pt idx="19">
                   <c:v>3820</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>1377.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1622</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11932,6 +12035,12 @@
                 <c:pt idx="19">
                   <c:v>245130</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>248776</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>249910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12757,6 +12866,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>248776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>249910</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>251325.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13937,6 +14052,12 @@
                 <c:pt idx="24">
                   <c:v>4819</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10231</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4397</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14808,6 +14929,12 @@
                 <c:pt idx="24">
                   <c:v>125967</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>130786</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>120255</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15663,6 +15790,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>130786</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>120255</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>124652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19359,13 +19492,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>107</xdr:col>
+      <xdr:col>111</xdr:col>
       <xdr:colOff>681990</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
@@ -19376,7 +19509,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4305935" y="368300"/>
+        <a:off x="5715000" y="368300"/>
         <a:ext cx="71319390" cy="4352925"/>
       </xdr:xfrm>
       <a:graphic>
@@ -19782,8 +19915,8 @@
   <sheetPr/>
   <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -20088,25 +20221,37 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="28" s="14" customFormat="1" spans="1:3">
+    <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" s="2">
         <v>45341</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="1">
         <v>2910</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="1">
         <v>9573</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>45342</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="15">
+        <v>2922</v>
+      </c>
+      <c r="C29" s="15">
+        <v>7894</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>45343</v>
+      </c>
+      <c r="B30" s="15">
+        <v>2951</v>
+      </c>
+      <c r="C30" s="15">
+        <v>9803</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -21234,20 +21379,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D247"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="14.7583333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="6.125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21257,313 +21405,449 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>45295</v>
       </c>
       <c r="B2" s="1">
         <v>-233</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
         <v>-39</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>45296</v>
       </c>
       <c r="B3" s="1">
         <v>-327.7</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
         <v>19.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>45299</v>
       </c>
       <c r="B4" s="1">
         <v>-241.6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
         <v>-43.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>45300</v>
       </c>
       <c r="B5" s="1">
         <v>-113</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>45301</v>
       </c>
       <c r="B6" s="1">
         <v>-146</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>6.9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="32">
+    <row r="7" spans="1:7">
+      <c r="A7" s="33">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
         <v>95.8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>42.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="32">
+    <row r="8" spans="1:7">
+      <c r="A8" s="33">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
         <v>-221</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>-30.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>45306</v>
       </c>
       <c r="B9" s="1">
         <v>-76.5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>-3.55</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>45307</v>
       </c>
       <c r="B10" s="1">
         <v>-253</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
         <v>-41.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>45308</v>
       </c>
       <c r="B11" s="1">
         <v>-367</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
         <v>-130.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>45309</v>
       </c>
       <c r="B12" s="1">
         <v>-131.7</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
         <v>-7.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>45310</v>
       </c>
       <c r="B13" s="1">
         <v>-184</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
         <v>-52</v>
       </c>
     </row>
-    <row r="14" s="31" customFormat="1" spans="1:3">
-      <c r="A14" s="33">
+    <row r="14" s="32" customFormat="1" spans="1:7">
+      <c r="A14" s="34">
         <v>45313</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="35">
         <v>-499</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35">
         <v>10.7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>45314</v>
       </c>
       <c r="B15" s="1">
         <v>85</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
         <v>37.9</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>45315</v>
       </c>
       <c r="B16" s="1">
         <v>-63.1</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
         <v>-5.39</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
+    <row r="17" s="1" customFormat="1" spans="1:7">
       <c r="A17" s="2">
         <v>45316</v>
       </c>
       <c r="B17" s="1">
         <v>210</v>
       </c>
-      <c r="C17" s="1">
+      <c r="G17" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>45317</v>
       </c>
       <c r="B18" s="1">
         <v>-293.2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
         <v>15.1</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:3">
+    <row r="19" s="1" customFormat="1" spans="1:7">
       <c r="A19" s="2">
         <v>45320</v>
       </c>
       <c r="B19" s="1">
         <v>-408.6</v>
       </c>
-      <c r="C19" s="1">
+      <c r="G19" s="1">
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" s="31" customFormat="1" spans="1:3">
-      <c r="A20" s="33">
+    <row r="20" s="32" customFormat="1" spans="1:7">
+      <c r="A20" s="34">
         <v>45321</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="35">
         <v>-306.4</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35">
         <v>17.4</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="35">
+    <row r="21" spans="1:8">
+      <c r="A21" s="36">
         <v>45322</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="37">
         <v>-329</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37">
         <v>37</v>
       </c>
-      <c r="D21" s="37"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>45323</v>
       </c>
       <c r="B22" s="1">
         <v>-63.5</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
         <v>27.3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>45324</v>
       </c>
       <c r="B23" s="1">
         <v>-418</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
         <v>23.6</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>45327</v>
       </c>
       <c r="B24" s="1">
         <v>-302.8</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
         <v>12.1</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:3">
+    <row r="25" s="1" customFormat="1" spans="1:7">
       <c r="A25" s="2">
         <v>45328</v>
       </c>
       <c r="B25" s="1">
         <v>216.6</v>
       </c>
-      <c r="C25" s="1">
+      <c r="G25" s="1">
         <v>126.1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>45329</v>
       </c>
       <c r="B26" s="1">
         <v>-213.4</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
         <v>16.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>45330</v>
       </c>
       <c r="B27" s="1">
         <v>-39.2</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
         <v>5.83</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>45341</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="1">
         <v>-50.6</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
         <v>-63.7</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>45342</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="15">
+        <v>-40.9</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>45343</v>
+      </c>
+      <c r="B30" s="15">
+        <v>90.2</v>
+      </c>
+      <c r="C30" s="15">
+        <v>142.2</v>
+      </c>
+      <c r="D30" s="15">
+        <v>-52</v>
+      </c>
+      <c r="E30" s="15">
+        <v>-132.6</v>
+      </c>
+      <c r="F30" s="15">
+        <v>42.4</v>
+      </c>
+      <c r="G30" s="15">
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -22694,7 +22978,7 @@
   <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="$A28:$XFD28"/>
+      <selection activeCell="B30" sqref="B30:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -22707,10 +22991,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -23003,21 +23287,33 @@
       <c r="A28" s="2">
         <v>45341</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="1">
         <v>272</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>45342</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="15">
+        <v>155</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>45343</v>
+      </c>
+      <c r="B30" s="15">
+        <v>155</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -24118,7 +24414,7 @@
   <dimension ref="A1:D247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -24131,13 +24427,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -24350,17 +24646,17 @@
         <v>76.4</v>
       </c>
     </row>
-    <row r="17" s="28" customFormat="1" spans="1:4">
-      <c r="A17" s="29">
+    <row r="17" s="29" customFormat="1" spans="1:4">
+      <c r="A17" s="30">
         <v>45316</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="29">
         <v>4885</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="29">
         <v>427</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="29">
         <v>91.9</v>
       </c>
     </row>
@@ -24458,21 +24754,21 @@
       <c r="C24" s="1">
         <v>4898</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="29">
+      <c r="A25" s="30">
         <v>45328</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="29">
         <v>3829</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="29">
         <v>1465</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="29">
         <v>75</v>
       </c>
     </row>
@@ -24508,24 +24804,42 @@
       <c r="A28" s="2">
         <v>45341</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="1">
         <v>4258</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="1">
         <v>1037</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="1">
         <v>80.4</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>45342</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="15">
+        <v>3578</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1569</v>
+      </c>
+      <c r="D29" s="15">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>45343</v>
+      </c>
+      <c r="B30" s="15">
+        <v>4106</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1109</v>
+      </c>
+      <c r="D30" s="15">
+        <v>78.1</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -25626,7 +25940,7 @@
   <dimension ref="A1:G240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -25644,22 +25958,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -25683,7 +25997,7 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="14">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
@@ -25691,16 +26005,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>45308</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <v>186745</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="20">
         <v>179605</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="19">
         <v>-7140</v>
       </c>
       <c r="E4" s="1"/>
@@ -25712,7 +26026,7 @@
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
@@ -25727,7 +26041,7 @@
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
@@ -25735,20 +26049,20 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="15" customFormat="1" spans="1:5">
-      <c r="A7" s="20">
+    <row r="7" s="16" customFormat="1" spans="1:5">
+      <c r="A7" s="21">
         <v>45313</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="22">
         <v>172869</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="23">
         <v>159060</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>-13809</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
       <c r="A8" s="2">
@@ -25757,13 +26071,13 @@
       <c r="B8" s="1">
         <v>159060</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>160802</v>
       </c>
       <c r="D8" s="1">
         <v>1742</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="2">
@@ -25772,13 +26086,13 @@
       <c r="B9" s="1">
         <v>160802</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>166590</v>
       </c>
       <c r="D9" s="1">
         <v>5788</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="2">
@@ -25787,13 +26101,13 @@
       <c r="B10" s="1">
         <v>166590</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <v>327640</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>11050</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="2">
@@ -25802,57 +26116,57 @@
       <c r="B11" s="1">
         <v>327640</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>380028</v>
       </c>
       <c r="D11" s="1">
         <v>2388</v>
       </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" s="16" customFormat="1" spans="1:4">
-      <c r="A12" s="20">
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" s="17" customFormat="1" spans="1:4">
+      <c r="A12" s="21">
         <v>45320</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="22">
         <v>380028</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="23">
         <v>366741</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="23">
         <v>-13287</v>
       </c>
     </row>
-    <row r="13" s="15" customFormat="1" spans="1:5">
-      <c r="A13" s="20">
+    <row r="13" s="16" customFormat="1" spans="1:5">
+      <c r="A13" s="21">
         <v>45321</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="22">
         <v>366741</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="23">
         <v>349327</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="23">
         <v>-17414</v>
       </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" s="15" customFormat="1" spans="1:5">
-      <c r="A14" s="20">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" s="16" customFormat="1" spans="1:5">
+      <c r="A14" s="21">
         <v>45322</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="22">
         <v>349327</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="23">
         <v>330423</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="23">
         <v>-18904</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="2">
@@ -25861,43 +26175,43 @@
       <c r="B15" s="1">
         <v>330423</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="14">
         <v>326596</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <v>-3746</v>
       </c>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" s="15" customFormat="1" spans="1:5">
-      <c r="A16" s="23">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" s="16" customFormat="1" spans="1:5">
+      <c r="A16" s="24">
         <v>45324</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="25">
         <v>330423</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="26">
         <v>297670</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="26">
         <v>-36618</v>
       </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" s="15" customFormat="1" spans="1:5">
-      <c r="A17" s="23">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" s="16" customFormat="1" spans="1:5">
+      <c r="A17" s="24">
         <v>45327</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="25">
         <v>297670</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="26">
         <v>244693</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="26">
         <v>-52977</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="2">
@@ -25912,7 +26226,7 @@
       <c r="D18" s="1">
         <v>11207.5</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="1">
         <v>403062.61</v>
       </c>
@@ -25957,37 +26271,73 @@
         <v>275095</v>
       </c>
     </row>
-    <row r="21" s="14" customFormat="1" spans="1:7">
+    <row r="21" s="1" customFormat="1" spans="1:7">
       <c r="A21" s="2">
         <v>45341</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="1">
         <v>245130</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="1">
         <v>248776</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="1">
         <v>3820</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="1">
         <v>275095</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="14">
         <v>483454</v>
       </c>
       <c r="G21" s="27">
         <v>241972</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:1">
+    <row r="22" customFormat="1" spans="1:7">
       <c r="A22" s="2">
         <v>45342</v>
       </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:1">
+      <c r="B22" s="15">
+        <v>248776</v>
+      </c>
+      <c r="C22" s="15">
+        <v>249910</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1377.5</v>
+      </c>
+      <c r="E22" s="15">
+        <v>483454</v>
+      </c>
+      <c r="F22" s="15">
+        <v>478986</v>
+      </c>
+      <c r="G22" s="28">
+        <v>237504</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:7">
       <c r="A23" s="2">
         <v>45343</v>
+      </c>
+      <c r="B23" s="15">
+        <v>249910</v>
+      </c>
+      <c r="C23" s="15">
+        <v>251325.6</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1622</v>
+      </c>
+      <c r="E23" s="15">
+        <v>478986</v>
+      </c>
+      <c r="F23" s="15">
+        <v>345067</v>
+      </c>
+      <c r="G23" s="28">
+        <v>103586</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:1">
@@ -27088,8 +27438,8 @@
   <sheetPr/>
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -27103,16 +27453,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -27228,17 +27578,17 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="10" s="10" customFormat="1" spans="1:4">
-      <c r="A10" s="11">
+    <row r="10" s="11" customFormat="1" spans="1:4">
+      <c r="A10" s="12">
         <v>45309</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="13">
         <v>148686</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="13">
         <v>137065</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <v>-11621</v>
       </c>
     </row>
@@ -27266,7 +27616,7 @@
       <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <v>13503</v>
       </c>
     </row>
@@ -27308,7 +27658,7 @@
       <c r="C15" s="1">
         <v>137236</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <v>-3976</v>
       </c>
     </row>
@@ -27322,7 +27672,7 @@
       <c r="C16" s="1">
         <v>139014</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="14">
         <v>1778</v>
       </c>
     </row>
@@ -27462,24 +27812,42 @@
       <c r="A26" s="2">
         <v>45341</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="1">
         <v>125967</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="1">
         <v>130786</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="1">
         <v>4819</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:1">
+    <row r="27" customFormat="1" spans="1:4">
       <c r="A27" s="2">
         <v>45342</v>
       </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:1">
+      <c r="B27" s="15">
+        <v>130786</v>
+      </c>
+      <c r="C27" s="15">
+        <v>120255</v>
+      </c>
+      <c r="D27" s="15">
+        <v>-10231</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:4">
       <c r="A28" s="2">
         <v>45343</v>
+      </c>
+      <c r="B28" s="15">
+        <v>120255</v>
+      </c>
+      <c r="C28" s="15">
+        <v>124652</v>
+      </c>
+      <c r="D28" s="15">
+        <v>4397</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:1">
@@ -28577,10 +28945,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -28596,10 +28964,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -28607,31 +28975,31 @@
         <v>45322</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -28639,10 +29007,10 @@
         <v>45323</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -28660,10 +29028,10 @@
         <v>45324</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:3">
@@ -28671,10 +29039,10 @@
         <v>45327</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" ht="115" customHeight="1" spans="1:3">
@@ -28682,10 +29050,10 @@
         <v>45328</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" ht="77" customHeight="1" spans="1:3">
@@ -28693,21 +29061,32 @@
         <v>45329</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="78" customHeight="1" spans="1:3">
-      <c r="A13" s="7">
+      <c r="A13" s="2">
         <v>45341</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>37</v>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" ht="79" customHeight="1" spans="1:3">
+      <c r="A14" s="8">
+        <v>45343</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -28745,16 +29124,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -28762,16 +29141,16 @@
         <v>45316</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1">
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -28779,13 +29158,13 @@
         <v>45316</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1">
         <v>50000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -28794,16 +29173,16 @@
         <v>45317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1">
         <v>50000</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -28811,13 +29190,13 @@
         <v>45329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
         <v>40000</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="5"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
     <sheet name="资金流向" sheetId="5" r:id="rId2"/>
-    <sheet name="涨跌停数量" sheetId="3" r:id="rId3"/>
-    <sheet name="上涨下跌数量" sheetId="4" r:id="rId4"/>
+    <sheet name="上涨下跌数量" sheetId="4" r:id="rId3"/>
+    <sheet name="涨跌停数量" sheetId="3" r:id="rId4"/>
     <sheet name="A账户" sheetId="7" r:id="rId5"/>
     <sheet name="期货" sheetId="6" r:id="rId6"/>
     <sheet name="A复盘" sheetId="9" r:id="rId7"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>日期</t>
   </si>
@@ -50,12 +50,6 @@
     <t>北向净流入</t>
   </si>
   <si>
-    <t>涨停数</t>
-  </si>
-  <si>
-    <t>跌停数</t>
-  </si>
-  <si>
     <t>上涨数</t>
   </si>
   <si>
@@ -63,6 +57,12 @@
   </si>
   <si>
     <t>温度</t>
+  </si>
+  <si>
+    <t>涨停数</t>
+  </si>
+  <si>
+    <t>跌停数</t>
   </si>
   <si>
     <t>日初始净资产</t>
@@ -191,6 +191,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">今天市场最高点达到了2992，反弹速度非常快。主力资金大幅流入，超过5100 个股上涨，95% 以上，有点人声鼎沸的感觉。虽然我踏空了，但是自己能掌控自己的账户，这一点还是比较好的。
 </t>
     </r>
@@ -203,6 +210,46 @@
         <scheme val="minor"/>
       </rPr>
       <t>这轮反弹的判断失误：每一轮较大幅度的反弹，都有一次人声鼎沸的机会，那一天是离场的机会。在那之前可以胆子大一些，做热门板块的龙头，博取最大利润。</t>
+    </r>
+  </si>
+  <si>
+    <t>昨天大A指数从最高点2992快速跌落至2950，上涨个股从5100家回落至4100家，A50 指数下跌，总体感觉这次反弹有点在昨天退潮的迹象。
+对多头有利的情况是：①昨天主力资金，大单流入，北向资金流入都比较大。 ②外围市场都上涨。 ③国家发布了支持人工智能发展的消息。
+今天上午是关键点，看昨天的上涨究竟是顶峰还是中途歇息；最有利的方法是上午上涨一下，下午回调，明天继续回调，下周一开启另一波上涨。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>今天开盘股指下跌，但是随后大户资金净流入，散户资金流入反而小，说明市场是安全的。今天市场温度尚可，85度以上；所以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尾盘满仓了，分别持仓
+①1W 股拓尔思   ②1W 股银宝山新  ③1W 股冠昊生物
+股指今天到了2988点，观察明天有没有人声鼎沸的时候，那个时候卖出。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
   <si>
@@ -412,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,19 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +493,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,7 +839,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,16 +863,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -828,89 +881,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,19 +988,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -959,12 +1006,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,6 +1013,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -983,16 +1030,7 @@
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1001,23 +1039,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1025,7 +1066,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2221,6 +2268,15 @@
                 <c:pt idx="28">
                   <c:v>9803</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>8224</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9220</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9891</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3109,6 +3165,15 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2951</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2988</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4308,6 +4373,15 @@
                 <c:pt idx="28">
                   <c:v>90.2</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-36.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-193</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5178,6 +5252,15 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5429,1992 +5512,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>涨跌停数量!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>涨停数</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>涨跌停数量!$A$2:$A$247</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="246"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>45295</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>45296</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>45299</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>45300</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>45301</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>45302</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>45303</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>45306</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>45307</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>45308</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
-                  <c:v>45309</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
-                  <c:v>45310</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
-                  <c:v>45313</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
-                  <c:v>45314</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
-                  <c:v>45315</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
-                  <c:v>45316</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
-                  <c:v>45317</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
-                  <c:v>45320</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
-                  <c:v>45321</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
-                  <c:v>45322</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
-                  <c:v>45323</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
-                  <c:v>45324</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
-                  <c:v>45327</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
-                  <c:v>45328</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
-                  <c:v>45329</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
-                  <c:v>45330</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
-                  <c:v>45341</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
-                  <c:v>45342</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
-                  <c:v>45343</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
-                  <c:v>45344</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
-                  <c:v>45345</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="yyyy/m/d">
-                  <c:v>45348</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="yyyy/m/d">
-                  <c:v>45349</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="yyyy/m/d">
-                  <c:v>45350</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="yyyy/m/d">
-                  <c:v>45351</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="yyyy/m/d">
-                  <c:v>45352</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="yyyy/m/d">
-                  <c:v>45355</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="yyyy/m/d">
-                  <c:v>45356</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="yyyy/m/d">
-                  <c:v>45357</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="yyyy/m/d">
-                  <c:v>45358</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="yyyy/m/d">
-                  <c:v>45359</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="yyyy/m/d">
-                  <c:v>45362</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="yyyy/m/d">
-                  <c:v>45363</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="yyyy/m/d">
-                  <c:v>45364</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="yyyy/m/d">
-                  <c:v>45365</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="yyyy/m/d">
-                  <c:v>45366</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="yyyy/m/d">
-                  <c:v>45369</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="yyyy/m/d">
-                  <c:v>45370</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="yyyy/m/d">
-                  <c:v>45371</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="yyyy/m/d">
-                  <c:v>45372</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="yyyy/m/d">
-                  <c:v>45373</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="yyyy/m/d">
-                  <c:v>45376</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="yyyy/m/d">
-                  <c:v>45377</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="yyyy/m/d">
-                  <c:v>45378</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="yyyy/m/d">
-                  <c:v>45379</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="yyyy/m/d">
-                  <c:v>45380</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="yyyy/m/d">
-                  <c:v>45383</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="yyyy/m/d">
-                  <c:v>45384</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="yyyy/m/d">
-                  <c:v>45385</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="yyyy/m/d">
-                  <c:v>45386</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="yyyy/m/d">
-                  <c:v>45387</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="yyyy/m/d">
-                  <c:v>45390</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="yyyy/m/d">
-                  <c:v>45391</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="yyyy/m/d">
-                  <c:v>45392</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="yyyy/m/d">
-                  <c:v>45393</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="yyyy/m/d">
-                  <c:v>45394</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="yyyy/m/d">
-                  <c:v>45397</c:v>
-                </c:pt>
-                <c:pt idx="67" c:formatCode="yyyy/m/d">
-                  <c:v>45398</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="yyyy/m/d">
-                  <c:v>45399</c:v>
-                </c:pt>
-                <c:pt idx="69" c:formatCode="yyyy/m/d">
-                  <c:v>45400</c:v>
-                </c:pt>
-                <c:pt idx="70" c:formatCode="yyyy/m/d">
-                  <c:v>45401</c:v>
-                </c:pt>
-                <c:pt idx="71" c:formatCode="yyyy/m/d">
-                  <c:v>45404</c:v>
-                </c:pt>
-                <c:pt idx="72" c:formatCode="yyyy/m/d">
-                  <c:v>45405</c:v>
-                </c:pt>
-                <c:pt idx="73" c:formatCode="yyyy/m/d">
-                  <c:v>45406</c:v>
-                </c:pt>
-                <c:pt idx="74" c:formatCode="yyyy/m/d">
-                  <c:v>45407</c:v>
-                </c:pt>
-                <c:pt idx="75" c:formatCode="yyyy/m/d">
-                  <c:v>45408</c:v>
-                </c:pt>
-                <c:pt idx="76" c:formatCode="yyyy/m/d">
-                  <c:v>45411</c:v>
-                </c:pt>
-                <c:pt idx="77" c:formatCode="yyyy/m/d">
-                  <c:v>45412</c:v>
-                </c:pt>
-                <c:pt idx="78" c:formatCode="yyyy/m/d">
-                  <c:v>45413</c:v>
-                </c:pt>
-                <c:pt idx="79" c:formatCode="yyyy/m/d">
-                  <c:v>45414</c:v>
-                </c:pt>
-                <c:pt idx="80" c:formatCode="yyyy/m/d">
-                  <c:v>45415</c:v>
-                </c:pt>
-                <c:pt idx="81" c:formatCode="yyyy/m/d">
-                  <c:v>45418</c:v>
-                </c:pt>
-                <c:pt idx="82" c:formatCode="yyyy/m/d">
-                  <c:v>45419</c:v>
-                </c:pt>
-                <c:pt idx="83" c:formatCode="yyyy/m/d">
-                  <c:v>45420</c:v>
-                </c:pt>
-                <c:pt idx="84" c:formatCode="yyyy/m/d">
-                  <c:v>45421</c:v>
-                </c:pt>
-                <c:pt idx="85" c:formatCode="yyyy/m/d">
-                  <c:v>45422</c:v>
-                </c:pt>
-                <c:pt idx="86" c:formatCode="yyyy/m/d">
-                  <c:v>45425</c:v>
-                </c:pt>
-                <c:pt idx="87" c:formatCode="yyyy/m/d">
-                  <c:v>45426</c:v>
-                </c:pt>
-                <c:pt idx="88" c:formatCode="yyyy/m/d">
-                  <c:v>45427</c:v>
-                </c:pt>
-                <c:pt idx="89" c:formatCode="yyyy/m/d">
-                  <c:v>45428</c:v>
-                </c:pt>
-                <c:pt idx="90" c:formatCode="yyyy/m/d">
-                  <c:v>45429</c:v>
-                </c:pt>
-                <c:pt idx="91" c:formatCode="yyyy/m/d">
-                  <c:v>45432</c:v>
-                </c:pt>
-                <c:pt idx="92" c:formatCode="yyyy/m/d">
-                  <c:v>45433</c:v>
-                </c:pt>
-                <c:pt idx="93" c:formatCode="yyyy/m/d">
-                  <c:v>45434</c:v>
-                </c:pt>
-                <c:pt idx="94" c:formatCode="yyyy/m/d">
-                  <c:v>45435</c:v>
-                </c:pt>
-                <c:pt idx="95" c:formatCode="yyyy/m/d">
-                  <c:v>45436</c:v>
-                </c:pt>
-                <c:pt idx="96" c:formatCode="yyyy/m/d">
-                  <c:v>45439</c:v>
-                </c:pt>
-                <c:pt idx="97" c:formatCode="yyyy/m/d">
-                  <c:v>45440</c:v>
-                </c:pt>
-                <c:pt idx="98" c:formatCode="yyyy/m/d">
-                  <c:v>45441</c:v>
-                </c:pt>
-                <c:pt idx="99" c:formatCode="yyyy/m/d">
-                  <c:v>45442</c:v>
-                </c:pt>
-                <c:pt idx="100" c:formatCode="yyyy/m/d">
-                  <c:v>45443</c:v>
-                </c:pt>
-                <c:pt idx="101" c:formatCode="yyyy/m/d">
-                  <c:v>45446</c:v>
-                </c:pt>
-                <c:pt idx="102" c:formatCode="yyyy/m/d">
-                  <c:v>45447</c:v>
-                </c:pt>
-                <c:pt idx="103" c:formatCode="yyyy/m/d">
-                  <c:v>45448</c:v>
-                </c:pt>
-                <c:pt idx="104" c:formatCode="yyyy/m/d">
-                  <c:v>45449</c:v>
-                </c:pt>
-                <c:pt idx="105" c:formatCode="yyyy/m/d">
-                  <c:v>45450</c:v>
-                </c:pt>
-                <c:pt idx="106" c:formatCode="yyyy/m/d">
-                  <c:v>45453</c:v>
-                </c:pt>
-                <c:pt idx="107" c:formatCode="yyyy/m/d">
-                  <c:v>45454</c:v>
-                </c:pt>
-                <c:pt idx="108" c:formatCode="yyyy/m/d">
-                  <c:v>45455</c:v>
-                </c:pt>
-                <c:pt idx="109" c:formatCode="yyyy/m/d">
-                  <c:v>45456</c:v>
-                </c:pt>
-                <c:pt idx="110" c:formatCode="yyyy/m/d">
-                  <c:v>45457</c:v>
-                </c:pt>
-                <c:pt idx="111" c:formatCode="yyyy/m/d">
-                  <c:v>45460</c:v>
-                </c:pt>
-                <c:pt idx="112" c:formatCode="yyyy/m/d">
-                  <c:v>45461</c:v>
-                </c:pt>
-                <c:pt idx="113" c:formatCode="yyyy/m/d">
-                  <c:v>45462</c:v>
-                </c:pt>
-                <c:pt idx="114" c:formatCode="yyyy/m/d">
-                  <c:v>45463</c:v>
-                </c:pt>
-                <c:pt idx="115" c:formatCode="yyyy/m/d">
-                  <c:v>45464</c:v>
-                </c:pt>
-                <c:pt idx="116" c:formatCode="yyyy/m/d">
-                  <c:v>45467</c:v>
-                </c:pt>
-                <c:pt idx="117" c:formatCode="yyyy/m/d">
-                  <c:v>45468</c:v>
-                </c:pt>
-                <c:pt idx="118" c:formatCode="yyyy/m/d">
-                  <c:v>45469</c:v>
-                </c:pt>
-                <c:pt idx="119" c:formatCode="yyyy/m/d">
-                  <c:v>45470</c:v>
-                </c:pt>
-                <c:pt idx="120" c:formatCode="yyyy/m/d">
-                  <c:v>45471</c:v>
-                </c:pt>
-                <c:pt idx="121" c:formatCode="yyyy/m/d">
-                  <c:v>45474</c:v>
-                </c:pt>
-                <c:pt idx="122" c:formatCode="yyyy/m/d">
-                  <c:v>45475</c:v>
-                </c:pt>
-                <c:pt idx="123" c:formatCode="yyyy/m/d">
-                  <c:v>45476</c:v>
-                </c:pt>
-                <c:pt idx="124" c:formatCode="yyyy/m/d">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="125" c:formatCode="yyyy/m/d">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="126" c:formatCode="yyyy/m/d">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="127" c:formatCode="yyyy/m/d">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="128" c:formatCode="yyyy/m/d">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="129" c:formatCode="yyyy/m/d">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="130" c:formatCode="yyyy/m/d">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="131" c:formatCode="yyyy/m/d">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="132" c:formatCode="yyyy/m/d">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="133" c:formatCode="yyyy/m/d">
-                  <c:v>45490</c:v>
-                </c:pt>
-                <c:pt idx="134" c:formatCode="yyyy/m/d">
-                  <c:v>45491</c:v>
-                </c:pt>
-                <c:pt idx="135" c:formatCode="yyyy/m/d">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="136" c:formatCode="yyyy/m/d">
-                  <c:v>45495</c:v>
-                </c:pt>
-                <c:pt idx="137" c:formatCode="yyyy/m/d">
-                  <c:v>45496</c:v>
-                </c:pt>
-                <c:pt idx="138" c:formatCode="yyyy/m/d">
-                  <c:v>45497</c:v>
-                </c:pt>
-                <c:pt idx="139" c:formatCode="yyyy/m/d">
-                  <c:v>45498</c:v>
-                </c:pt>
-                <c:pt idx="140" c:formatCode="yyyy/m/d">
-                  <c:v>45499</c:v>
-                </c:pt>
-                <c:pt idx="141" c:formatCode="yyyy/m/d">
-                  <c:v>45502</c:v>
-                </c:pt>
-                <c:pt idx="142" c:formatCode="yyyy/m/d">
-                  <c:v>45503</c:v>
-                </c:pt>
-                <c:pt idx="143" c:formatCode="yyyy/m/d">
-                  <c:v>45504</c:v>
-                </c:pt>
-                <c:pt idx="144" c:formatCode="yyyy/m/d">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="145" c:formatCode="yyyy/m/d">
-                  <c:v>45506</c:v>
-                </c:pt>
-                <c:pt idx="146" c:formatCode="yyyy/m/d">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="147" c:formatCode="yyyy/m/d">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="148" c:formatCode="yyyy/m/d">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="149" c:formatCode="yyyy/m/d">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="150" c:formatCode="yyyy/m/d">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="151" c:formatCode="yyyy/m/d">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="152" c:formatCode="yyyy/m/d">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="153" c:formatCode="yyyy/m/d">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="154" c:formatCode="yyyy/m/d">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="155" c:formatCode="yyyy/m/d">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="156" c:formatCode="yyyy/m/d">
-                  <c:v>45523</c:v>
-                </c:pt>
-                <c:pt idx="157" c:formatCode="yyyy/m/d">
-                  <c:v>45524</c:v>
-                </c:pt>
-                <c:pt idx="158" c:formatCode="yyyy/m/d">
-                  <c:v>45525</c:v>
-                </c:pt>
-                <c:pt idx="159" c:formatCode="yyyy/m/d">
-                  <c:v>45526</c:v>
-                </c:pt>
-                <c:pt idx="160" c:formatCode="yyyy/m/d">
-                  <c:v>45527</c:v>
-                </c:pt>
-                <c:pt idx="161" c:formatCode="yyyy/m/d">
-                  <c:v>45530</c:v>
-                </c:pt>
-                <c:pt idx="162" c:formatCode="yyyy/m/d">
-                  <c:v>45531</c:v>
-                </c:pt>
-                <c:pt idx="163" c:formatCode="yyyy/m/d">
-                  <c:v>45532</c:v>
-                </c:pt>
-                <c:pt idx="164" c:formatCode="yyyy/m/d">
-                  <c:v>45533</c:v>
-                </c:pt>
-                <c:pt idx="165" c:formatCode="yyyy/m/d">
-                  <c:v>45534</c:v>
-                </c:pt>
-                <c:pt idx="166" c:formatCode="yyyy/m/d">
-                  <c:v>45537</c:v>
-                </c:pt>
-                <c:pt idx="167" c:formatCode="yyyy/m/d">
-                  <c:v>45538</c:v>
-                </c:pt>
-                <c:pt idx="168" c:formatCode="yyyy/m/d">
-                  <c:v>45539</c:v>
-                </c:pt>
-                <c:pt idx="169" c:formatCode="yyyy/m/d">
-                  <c:v>45540</c:v>
-                </c:pt>
-                <c:pt idx="170" c:formatCode="yyyy/m/d">
-                  <c:v>45541</c:v>
-                </c:pt>
-                <c:pt idx="171" c:formatCode="yyyy/m/d">
-                  <c:v>45544</c:v>
-                </c:pt>
-                <c:pt idx="172" c:formatCode="yyyy/m/d">
-                  <c:v>45545</c:v>
-                </c:pt>
-                <c:pt idx="173" c:formatCode="yyyy/m/d">
-                  <c:v>45546</c:v>
-                </c:pt>
-                <c:pt idx="174" c:formatCode="yyyy/m/d">
-                  <c:v>45547</c:v>
-                </c:pt>
-                <c:pt idx="175" c:formatCode="yyyy/m/d">
-                  <c:v>45548</c:v>
-                </c:pt>
-                <c:pt idx="176" c:formatCode="yyyy/m/d">
-                  <c:v>45551</c:v>
-                </c:pt>
-                <c:pt idx="177" c:formatCode="yyyy/m/d">
-                  <c:v>45552</c:v>
-                </c:pt>
-                <c:pt idx="178" c:formatCode="yyyy/m/d">
-                  <c:v>45553</c:v>
-                </c:pt>
-                <c:pt idx="179" c:formatCode="yyyy/m/d">
-                  <c:v>45554</c:v>
-                </c:pt>
-                <c:pt idx="180" c:formatCode="yyyy/m/d">
-                  <c:v>45555</c:v>
-                </c:pt>
-                <c:pt idx="181" c:formatCode="yyyy/m/d">
-                  <c:v>45558</c:v>
-                </c:pt>
-                <c:pt idx="182" c:formatCode="yyyy/m/d">
-                  <c:v>45559</c:v>
-                </c:pt>
-                <c:pt idx="183" c:formatCode="yyyy/m/d">
-                  <c:v>45560</c:v>
-                </c:pt>
-                <c:pt idx="184" c:formatCode="yyyy/m/d">
-                  <c:v>45561</c:v>
-                </c:pt>
-                <c:pt idx="185" c:formatCode="yyyy/m/d">
-                  <c:v>45562</c:v>
-                </c:pt>
-                <c:pt idx="186" c:formatCode="yyyy/m/d">
-                  <c:v>45572</c:v>
-                </c:pt>
-                <c:pt idx="187" c:formatCode="yyyy/m/d">
-                  <c:v>45573</c:v>
-                </c:pt>
-                <c:pt idx="188" c:formatCode="yyyy/m/d">
-                  <c:v>45574</c:v>
-                </c:pt>
-                <c:pt idx="189" c:formatCode="yyyy/m/d">
-                  <c:v>45575</c:v>
-                </c:pt>
-                <c:pt idx="190" c:formatCode="yyyy/m/d">
-                  <c:v>45576</c:v>
-                </c:pt>
-                <c:pt idx="191" c:formatCode="yyyy/m/d">
-                  <c:v>45579</c:v>
-                </c:pt>
-                <c:pt idx="192" c:formatCode="yyyy/m/d">
-                  <c:v>45580</c:v>
-                </c:pt>
-                <c:pt idx="193" c:formatCode="yyyy/m/d">
-                  <c:v>45581</c:v>
-                </c:pt>
-                <c:pt idx="194" c:formatCode="yyyy/m/d">
-                  <c:v>45582</c:v>
-                </c:pt>
-                <c:pt idx="195" c:formatCode="yyyy/m/d">
-                  <c:v>45583</c:v>
-                </c:pt>
-                <c:pt idx="196" c:formatCode="yyyy/m/d">
-                  <c:v>45586</c:v>
-                </c:pt>
-                <c:pt idx="197" c:formatCode="yyyy/m/d">
-                  <c:v>45587</c:v>
-                </c:pt>
-                <c:pt idx="198" c:formatCode="yyyy/m/d">
-                  <c:v>45588</c:v>
-                </c:pt>
-                <c:pt idx="199" c:formatCode="yyyy/m/d">
-                  <c:v>45589</c:v>
-                </c:pt>
-                <c:pt idx="200" c:formatCode="yyyy/m/d">
-                  <c:v>45590</c:v>
-                </c:pt>
-                <c:pt idx="201" c:formatCode="yyyy/m/d">
-                  <c:v>45593</c:v>
-                </c:pt>
-                <c:pt idx="202" c:formatCode="yyyy/m/d">
-                  <c:v>45594</c:v>
-                </c:pt>
-                <c:pt idx="203" c:formatCode="yyyy/m/d">
-                  <c:v>45595</c:v>
-                </c:pt>
-                <c:pt idx="204" c:formatCode="yyyy/m/d">
-                  <c:v>45596</c:v>
-                </c:pt>
-                <c:pt idx="205" c:formatCode="yyyy/m/d">
-                  <c:v>45597</c:v>
-                </c:pt>
-                <c:pt idx="206" c:formatCode="yyyy/m/d">
-                  <c:v>45600</c:v>
-                </c:pt>
-                <c:pt idx="207" c:formatCode="yyyy/m/d">
-                  <c:v>45601</c:v>
-                </c:pt>
-                <c:pt idx="208" c:formatCode="yyyy/m/d">
-                  <c:v>45602</c:v>
-                </c:pt>
-                <c:pt idx="209" c:formatCode="yyyy/m/d">
-                  <c:v>45603</c:v>
-                </c:pt>
-                <c:pt idx="210" c:formatCode="yyyy/m/d">
-                  <c:v>45604</c:v>
-                </c:pt>
-                <c:pt idx="211" c:formatCode="yyyy/m/d">
-                  <c:v>45607</c:v>
-                </c:pt>
-                <c:pt idx="212" c:formatCode="yyyy/m/d">
-                  <c:v>45608</c:v>
-                </c:pt>
-                <c:pt idx="213" c:formatCode="yyyy/m/d">
-                  <c:v>45609</c:v>
-                </c:pt>
-                <c:pt idx="214" c:formatCode="yyyy/m/d">
-                  <c:v>45610</c:v>
-                </c:pt>
-                <c:pt idx="215" c:formatCode="yyyy/m/d">
-                  <c:v>45611</c:v>
-                </c:pt>
-                <c:pt idx="216" c:formatCode="yyyy/m/d">
-                  <c:v>45614</c:v>
-                </c:pt>
-                <c:pt idx="217" c:formatCode="yyyy/m/d">
-                  <c:v>45615</c:v>
-                </c:pt>
-                <c:pt idx="218" c:formatCode="yyyy/m/d">
-                  <c:v>45616</c:v>
-                </c:pt>
-                <c:pt idx="219" c:formatCode="yyyy/m/d">
-                  <c:v>45617</c:v>
-                </c:pt>
-                <c:pt idx="220" c:formatCode="yyyy/m/d">
-                  <c:v>45618</c:v>
-                </c:pt>
-                <c:pt idx="221" c:formatCode="yyyy/m/d">
-                  <c:v>45621</c:v>
-                </c:pt>
-                <c:pt idx="222" c:formatCode="yyyy/m/d">
-                  <c:v>45622</c:v>
-                </c:pt>
-                <c:pt idx="223" c:formatCode="yyyy/m/d">
-                  <c:v>45623</c:v>
-                </c:pt>
-                <c:pt idx="224" c:formatCode="yyyy/m/d">
-                  <c:v>45624</c:v>
-                </c:pt>
-                <c:pt idx="225" c:formatCode="yyyy/m/d">
-                  <c:v>45625</c:v>
-                </c:pt>
-                <c:pt idx="226" c:formatCode="yyyy/m/d">
-                  <c:v>45628</c:v>
-                </c:pt>
-                <c:pt idx="227" c:formatCode="yyyy/m/d">
-                  <c:v>45629</c:v>
-                </c:pt>
-                <c:pt idx="228" c:formatCode="yyyy/m/d">
-                  <c:v>45630</c:v>
-                </c:pt>
-                <c:pt idx="229" c:formatCode="yyyy/m/d">
-                  <c:v>45631</c:v>
-                </c:pt>
-                <c:pt idx="230" c:formatCode="yyyy/m/d">
-                  <c:v>45632</c:v>
-                </c:pt>
-                <c:pt idx="231" c:formatCode="yyyy/m/d">
-                  <c:v>45635</c:v>
-                </c:pt>
-                <c:pt idx="232" c:formatCode="yyyy/m/d">
-                  <c:v>45636</c:v>
-                </c:pt>
-                <c:pt idx="233" c:formatCode="yyyy/m/d">
-                  <c:v>45637</c:v>
-                </c:pt>
-                <c:pt idx="234" c:formatCode="yyyy/m/d">
-                  <c:v>45638</c:v>
-                </c:pt>
-                <c:pt idx="235" c:formatCode="yyyy/m/d">
-                  <c:v>45639</c:v>
-                </c:pt>
-                <c:pt idx="236" c:formatCode="yyyy/m/d">
-                  <c:v>45642</c:v>
-                </c:pt>
-                <c:pt idx="237" c:formatCode="yyyy/m/d">
-                  <c:v>45643</c:v>
-                </c:pt>
-                <c:pt idx="238" c:formatCode="yyyy/m/d">
-                  <c:v>45644</c:v>
-                </c:pt>
-                <c:pt idx="239" c:formatCode="yyyy/m/d">
-                  <c:v>45645</c:v>
-                </c:pt>
-                <c:pt idx="240" c:formatCode="yyyy/m/d">
-                  <c:v>45646</c:v>
-                </c:pt>
-                <c:pt idx="241" c:formatCode="yyyy/m/d">
-                  <c:v>45649</c:v>
-                </c:pt>
-                <c:pt idx="242" c:formatCode="yyyy/m/d">
-                  <c:v>45650</c:v>
-                </c:pt>
-                <c:pt idx="243" c:formatCode="yyyy/m/d">
-                  <c:v>45651</c:v>
-                </c:pt>
-                <c:pt idx="244" c:formatCode="yyyy/m/d">
-                  <c:v>45652</c:v>
-                </c:pt>
-                <c:pt idx="245" c:formatCode="yyyy/m/d">
-                  <c:v>45653</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>涨跌停数量!$B$2:$B$247</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="246"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>517</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>155</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>涨跌停数量!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>跌停数</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>涨跌停数量!$A$2:$A$247</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="246"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>45295</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>45296</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>45299</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>45300</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>45301</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>45302</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>45303</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>45306</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>45307</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>45308</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
-                  <c:v>45309</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
-                  <c:v>45310</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/m/d">
-                  <c:v>45313</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/m/d">
-                  <c:v>45314</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/m/d">
-                  <c:v>45315</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/m/d">
-                  <c:v>45316</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/m/d">
-                  <c:v>45317</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/m/d">
-                  <c:v>45320</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/m/d">
-                  <c:v>45321</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/m/d">
-                  <c:v>45322</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/m/d">
-                  <c:v>45323</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/m/d">
-                  <c:v>45324</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/m/d">
-                  <c:v>45327</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/m/d">
-                  <c:v>45328</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/m/d">
-                  <c:v>45329</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/m/d">
-                  <c:v>45330</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/m/d">
-                  <c:v>45341</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/m/d">
-                  <c:v>45342</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/m/d">
-                  <c:v>45343</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/m/d">
-                  <c:v>45344</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/m/d">
-                  <c:v>45345</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="yyyy/m/d">
-                  <c:v>45348</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="yyyy/m/d">
-                  <c:v>45349</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="yyyy/m/d">
-                  <c:v>45350</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="yyyy/m/d">
-                  <c:v>45351</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="yyyy/m/d">
-                  <c:v>45352</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="yyyy/m/d">
-                  <c:v>45355</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="yyyy/m/d">
-                  <c:v>45356</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="yyyy/m/d">
-                  <c:v>45357</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="yyyy/m/d">
-                  <c:v>45358</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="yyyy/m/d">
-                  <c:v>45359</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="yyyy/m/d">
-                  <c:v>45362</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="yyyy/m/d">
-                  <c:v>45363</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="yyyy/m/d">
-                  <c:v>45364</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="yyyy/m/d">
-                  <c:v>45365</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="yyyy/m/d">
-                  <c:v>45366</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="yyyy/m/d">
-                  <c:v>45369</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="yyyy/m/d">
-                  <c:v>45370</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="yyyy/m/d">
-                  <c:v>45371</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="yyyy/m/d">
-                  <c:v>45372</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="yyyy/m/d">
-                  <c:v>45373</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="yyyy/m/d">
-                  <c:v>45376</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="yyyy/m/d">
-                  <c:v>45377</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="yyyy/m/d">
-                  <c:v>45378</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="yyyy/m/d">
-                  <c:v>45379</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="yyyy/m/d">
-                  <c:v>45380</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="yyyy/m/d">
-                  <c:v>45383</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="yyyy/m/d">
-                  <c:v>45384</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="yyyy/m/d">
-                  <c:v>45385</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="yyyy/m/d">
-                  <c:v>45386</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="yyyy/m/d">
-                  <c:v>45387</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="yyyy/m/d">
-                  <c:v>45390</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="yyyy/m/d">
-                  <c:v>45391</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="yyyy/m/d">
-                  <c:v>45392</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="yyyy/m/d">
-                  <c:v>45393</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="yyyy/m/d">
-                  <c:v>45394</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="yyyy/m/d">
-                  <c:v>45397</c:v>
-                </c:pt>
-                <c:pt idx="67" c:formatCode="yyyy/m/d">
-                  <c:v>45398</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="yyyy/m/d">
-                  <c:v>45399</c:v>
-                </c:pt>
-                <c:pt idx="69" c:formatCode="yyyy/m/d">
-                  <c:v>45400</c:v>
-                </c:pt>
-                <c:pt idx="70" c:formatCode="yyyy/m/d">
-                  <c:v>45401</c:v>
-                </c:pt>
-                <c:pt idx="71" c:formatCode="yyyy/m/d">
-                  <c:v>45404</c:v>
-                </c:pt>
-                <c:pt idx="72" c:formatCode="yyyy/m/d">
-                  <c:v>45405</c:v>
-                </c:pt>
-                <c:pt idx="73" c:formatCode="yyyy/m/d">
-                  <c:v>45406</c:v>
-                </c:pt>
-                <c:pt idx="74" c:formatCode="yyyy/m/d">
-                  <c:v>45407</c:v>
-                </c:pt>
-                <c:pt idx="75" c:formatCode="yyyy/m/d">
-                  <c:v>45408</c:v>
-                </c:pt>
-                <c:pt idx="76" c:formatCode="yyyy/m/d">
-                  <c:v>45411</c:v>
-                </c:pt>
-                <c:pt idx="77" c:formatCode="yyyy/m/d">
-                  <c:v>45412</c:v>
-                </c:pt>
-                <c:pt idx="78" c:formatCode="yyyy/m/d">
-                  <c:v>45413</c:v>
-                </c:pt>
-                <c:pt idx="79" c:formatCode="yyyy/m/d">
-                  <c:v>45414</c:v>
-                </c:pt>
-                <c:pt idx="80" c:formatCode="yyyy/m/d">
-                  <c:v>45415</c:v>
-                </c:pt>
-                <c:pt idx="81" c:formatCode="yyyy/m/d">
-                  <c:v>45418</c:v>
-                </c:pt>
-                <c:pt idx="82" c:formatCode="yyyy/m/d">
-                  <c:v>45419</c:v>
-                </c:pt>
-                <c:pt idx="83" c:formatCode="yyyy/m/d">
-                  <c:v>45420</c:v>
-                </c:pt>
-                <c:pt idx="84" c:formatCode="yyyy/m/d">
-                  <c:v>45421</c:v>
-                </c:pt>
-                <c:pt idx="85" c:formatCode="yyyy/m/d">
-                  <c:v>45422</c:v>
-                </c:pt>
-                <c:pt idx="86" c:formatCode="yyyy/m/d">
-                  <c:v>45425</c:v>
-                </c:pt>
-                <c:pt idx="87" c:formatCode="yyyy/m/d">
-                  <c:v>45426</c:v>
-                </c:pt>
-                <c:pt idx="88" c:formatCode="yyyy/m/d">
-                  <c:v>45427</c:v>
-                </c:pt>
-                <c:pt idx="89" c:formatCode="yyyy/m/d">
-                  <c:v>45428</c:v>
-                </c:pt>
-                <c:pt idx="90" c:formatCode="yyyy/m/d">
-                  <c:v>45429</c:v>
-                </c:pt>
-                <c:pt idx="91" c:formatCode="yyyy/m/d">
-                  <c:v>45432</c:v>
-                </c:pt>
-                <c:pt idx="92" c:formatCode="yyyy/m/d">
-                  <c:v>45433</c:v>
-                </c:pt>
-                <c:pt idx="93" c:formatCode="yyyy/m/d">
-                  <c:v>45434</c:v>
-                </c:pt>
-                <c:pt idx="94" c:formatCode="yyyy/m/d">
-                  <c:v>45435</c:v>
-                </c:pt>
-                <c:pt idx="95" c:formatCode="yyyy/m/d">
-                  <c:v>45436</c:v>
-                </c:pt>
-                <c:pt idx="96" c:formatCode="yyyy/m/d">
-                  <c:v>45439</c:v>
-                </c:pt>
-                <c:pt idx="97" c:formatCode="yyyy/m/d">
-                  <c:v>45440</c:v>
-                </c:pt>
-                <c:pt idx="98" c:formatCode="yyyy/m/d">
-                  <c:v>45441</c:v>
-                </c:pt>
-                <c:pt idx="99" c:formatCode="yyyy/m/d">
-                  <c:v>45442</c:v>
-                </c:pt>
-                <c:pt idx="100" c:formatCode="yyyy/m/d">
-                  <c:v>45443</c:v>
-                </c:pt>
-                <c:pt idx="101" c:formatCode="yyyy/m/d">
-                  <c:v>45446</c:v>
-                </c:pt>
-                <c:pt idx="102" c:formatCode="yyyy/m/d">
-                  <c:v>45447</c:v>
-                </c:pt>
-                <c:pt idx="103" c:formatCode="yyyy/m/d">
-                  <c:v>45448</c:v>
-                </c:pt>
-                <c:pt idx="104" c:formatCode="yyyy/m/d">
-                  <c:v>45449</c:v>
-                </c:pt>
-                <c:pt idx="105" c:formatCode="yyyy/m/d">
-                  <c:v>45450</c:v>
-                </c:pt>
-                <c:pt idx="106" c:formatCode="yyyy/m/d">
-                  <c:v>45453</c:v>
-                </c:pt>
-                <c:pt idx="107" c:formatCode="yyyy/m/d">
-                  <c:v>45454</c:v>
-                </c:pt>
-                <c:pt idx="108" c:formatCode="yyyy/m/d">
-                  <c:v>45455</c:v>
-                </c:pt>
-                <c:pt idx="109" c:formatCode="yyyy/m/d">
-                  <c:v>45456</c:v>
-                </c:pt>
-                <c:pt idx="110" c:formatCode="yyyy/m/d">
-                  <c:v>45457</c:v>
-                </c:pt>
-                <c:pt idx="111" c:formatCode="yyyy/m/d">
-                  <c:v>45460</c:v>
-                </c:pt>
-                <c:pt idx="112" c:formatCode="yyyy/m/d">
-                  <c:v>45461</c:v>
-                </c:pt>
-                <c:pt idx="113" c:formatCode="yyyy/m/d">
-                  <c:v>45462</c:v>
-                </c:pt>
-                <c:pt idx="114" c:formatCode="yyyy/m/d">
-                  <c:v>45463</c:v>
-                </c:pt>
-                <c:pt idx="115" c:formatCode="yyyy/m/d">
-                  <c:v>45464</c:v>
-                </c:pt>
-                <c:pt idx="116" c:formatCode="yyyy/m/d">
-                  <c:v>45467</c:v>
-                </c:pt>
-                <c:pt idx="117" c:formatCode="yyyy/m/d">
-                  <c:v>45468</c:v>
-                </c:pt>
-                <c:pt idx="118" c:formatCode="yyyy/m/d">
-                  <c:v>45469</c:v>
-                </c:pt>
-                <c:pt idx="119" c:formatCode="yyyy/m/d">
-                  <c:v>45470</c:v>
-                </c:pt>
-                <c:pt idx="120" c:formatCode="yyyy/m/d">
-                  <c:v>45471</c:v>
-                </c:pt>
-                <c:pt idx="121" c:formatCode="yyyy/m/d">
-                  <c:v>45474</c:v>
-                </c:pt>
-                <c:pt idx="122" c:formatCode="yyyy/m/d">
-                  <c:v>45475</c:v>
-                </c:pt>
-                <c:pt idx="123" c:formatCode="yyyy/m/d">
-                  <c:v>45476</c:v>
-                </c:pt>
-                <c:pt idx="124" c:formatCode="yyyy/m/d">
-                  <c:v>45477</c:v>
-                </c:pt>
-                <c:pt idx="125" c:formatCode="yyyy/m/d">
-                  <c:v>45478</c:v>
-                </c:pt>
-                <c:pt idx="126" c:formatCode="yyyy/m/d">
-                  <c:v>45481</c:v>
-                </c:pt>
-                <c:pt idx="127" c:formatCode="yyyy/m/d">
-                  <c:v>45482</c:v>
-                </c:pt>
-                <c:pt idx="128" c:formatCode="yyyy/m/d">
-                  <c:v>45483</c:v>
-                </c:pt>
-                <c:pt idx="129" c:formatCode="yyyy/m/d">
-                  <c:v>45484</c:v>
-                </c:pt>
-                <c:pt idx="130" c:formatCode="yyyy/m/d">
-                  <c:v>45485</c:v>
-                </c:pt>
-                <c:pt idx="131" c:formatCode="yyyy/m/d">
-                  <c:v>45488</c:v>
-                </c:pt>
-                <c:pt idx="132" c:formatCode="yyyy/m/d">
-                  <c:v>45489</c:v>
-                </c:pt>
-                <c:pt idx="133" c:formatCode="yyyy/m/d">
-                  <c:v>45490</c:v>
-                </c:pt>
-                <c:pt idx="134" c:formatCode="yyyy/m/d">
-                  <c:v>45491</c:v>
-                </c:pt>
-                <c:pt idx="135" c:formatCode="yyyy/m/d">
-                  <c:v>45492</c:v>
-                </c:pt>
-                <c:pt idx="136" c:formatCode="yyyy/m/d">
-                  <c:v>45495</c:v>
-                </c:pt>
-                <c:pt idx="137" c:formatCode="yyyy/m/d">
-                  <c:v>45496</c:v>
-                </c:pt>
-                <c:pt idx="138" c:formatCode="yyyy/m/d">
-                  <c:v>45497</c:v>
-                </c:pt>
-                <c:pt idx="139" c:formatCode="yyyy/m/d">
-                  <c:v>45498</c:v>
-                </c:pt>
-                <c:pt idx="140" c:formatCode="yyyy/m/d">
-                  <c:v>45499</c:v>
-                </c:pt>
-                <c:pt idx="141" c:formatCode="yyyy/m/d">
-                  <c:v>45502</c:v>
-                </c:pt>
-                <c:pt idx="142" c:formatCode="yyyy/m/d">
-                  <c:v>45503</c:v>
-                </c:pt>
-                <c:pt idx="143" c:formatCode="yyyy/m/d">
-                  <c:v>45504</c:v>
-                </c:pt>
-                <c:pt idx="144" c:formatCode="yyyy/m/d">
-                  <c:v>45505</c:v>
-                </c:pt>
-                <c:pt idx="145" c:formatCode="yyyy/m/d">
-                  <c:v>45506</c:v>
-                </c:pt>
-                <c:pt idx="146" c:formatCode="yyyy/m/d">
-                  <c:v>45509</c:v>
-                </c:pt>
-                <c:pt idx="147" c:formatCode="yyyy/m/d">
-                  <c:v>45510</c:v>
-                </c:pt>
-                <c:pt idx="148" c:formatCode="yyyy/m/d">
-                  <c:v>45511</c:v>
-                </c:pt>
-                <c:pt idx="149" c:formatCode="yyyy/m/d">
-                  <c:v>45512</c:v>
-                </c:pt>
-                <c:pt idx="150" c:formatCode="yyyy/m/d">
-                  <c:v>45513</c:v>
-                </c:pt>
-                <c:pt idx="151" c:formatCode="yyyy/m/d">
-                  <c:v>45516</c:v>
-                </c:pt>
-                <c:pt idx="152" c:formatCode="yyyy/m/d">
-                  <c:v>45517</c:v>
-                </c:pt>
-                <c:pt idx="153" c:formatCode="yyyy/m/d">
-                  <c:v>45518</c:v>
-                </c:pt>
-                <c:pt idx="154" c:formatCode="yyyy/m/d">
-                  <c:v>45519</c:v>
-                </c:pt>
-                <c:pt idx="155" c:formatCode="yyyy/m/d">
-                  <c:v>45520</c:v>
-                </c:pt>
-                <c:pt idx="156" c:formatCode="yyyy/m/d">
-                  <c:v>45523</c:v>
-                </c:pt>
-                <c:pt idx="157" c:formatCode="yyyy/m/d">
-                  <c:v>45524</c:v>
-                </c:pt>
-                <c:pt idx="158" c:formatCode="yyyy/m/d">
-                  <c:v>45525</c:v>
-                </c:pt>
-                <c:pt idx="159" c:formatCode="yyyy/m/d">
-                  <c:v>45526</c:v>
-                </c:pt>
-                <c:pt idx="160" c:formatCode="yyyy/m/d">
-                  <c:v>45527</c:v>
-                </c:pt>
-                <c:pt idx="161" c:formatCode="yyyy/m/d">
-                  <c:v>45530</c:v>
-                </c:pt>
-                <c:pt idx="162" c:formatCode="yyyy/m/d">
-                  <c:v>45531</c:v>
-                </c:pt>
-                <c:pt idx="163" c:formatCode="yyyy/m/d">
-                  <c:v>45532</c:v>
-                </c:pt>
-                <c:pt idx="164" c:formatCode="yyyy/m/d">
-                  <c:v>45533</c:v>
-                </c:pt>
-                <c:pt idx="165" c:formatCode="yyyy/m/d">
-                  <c:v>45534</c:v>
-                </c:pt>
-                <c:pt idx="166" c:formatCode="yyyy/m/d">
-                  <c:v>45537</c:v>
-                </c:pt>
-                <c:pt idx="167" c:formatCode="yyyy/m/d">
-                  <c:v>45538</c:v>
-                </c:pt>
-                <c:pt idx="168" c:formatCode="yyyy/m/d">
-                  <c:v>45539</c:v>
-                </c:pt>
-                <c:pt idx="169" c:formatCode="yyyy/m/d">
-                  <c:v>45540</c:v>
-                </c:pt>
-                <c:pt idx="170" c:formatCode="yyyy/m/d">
-                  <c:v>45541</c:v>
-                </c:pt>
-                <c:pt idx="171" c:formatCode="yyyy/m/d">
-                  <c:v>45544</c:v>
-                </c:pt>
-                <c:pt idx="172" c:formatCode="yyyy/m/d">
-                  <c:v>45545</c:v>
-                </c:pt>
-                <c:pt idx="173" c:formatCode="yyyy/m/d">
-                  <c:v>45546</c:v>
-                </c:pt>
-                <c:pt idx="174" c:formatCode="yyyy/m/d">
-                  <c:v>45547</c:v>
-                </c:pt>
-                <c:pt idx="175" c:formatCode="yyyy/m/d">
-                  <c:v>45548</c:v>
-                </c:pt>
-                <c:pt idx="176" c:formatCode="yyyy/m/d">
-                  <c:v>45551</c:v>
-                </c:pt>
-                <c:pt idx="177" c:formatCode="yyyy/m/d">
-                  <c:v>45552</c:v>
-                </c:pt>
-                <c:pt idx="178" c:formatCode="yyyy/m/d">
-                  <c:v>45553</c:v>
-                </c:pt>
-                <c:pt idx="179" c:formatCode="yyyy/m/d">
-                  <c:v>45554</c:v>
-                </c:pt>
-                <c:pt idx="180" c:formatCode="yyyy/m/d">
-                  <c:v>45555</c:v>
-                </c:pt>
-                <c:pt idx="181" c:formatCode="yyyy/m/d">
-                  <c:v>45558</c:v>
-                </c:pt>
-                <c:pt idx="182" c:formatCode="yyyy/m/d">
-                  <c:v>45559</c:v>
-                </c:pt>
-                <c:pt idx="183" c:formatCode="yyyy/m/d">
-                  <c:v>45560</c:v>
-                </c:pt>
-                <c:pt idx="184" c:formatCode="yyyy/m/d">
-                  <c:v>45561</c:v>
-                </c:pt>
-                <c:pt idx="185" c:formatCode="yyyy/m/d">
-                  <c:v>45562</c:v>
-                </c:pt>
-                <c:pt idx="186" c:formatCode="yyyy/m/d">
-                  <c:v>45572</c:v>
-                </c:pt>
-                <c:pt idx="187" c:formatCode="yyyy/m/d">
-                  <c:v>45573</c:v>
-                </c:pt>
-                <c:pt idx="188" c:formatCode="yyyy/m/d">
-                  <c:v>45574</c:v>
-                </c:pt>
-                <c:pt idx="189" c:formatCode="yyyy/m/d">
-                  <c:v>45575</c:v>
-                </c:pt>
-                <c:pt idx="190" c:formatCode="yyyy/m/d">
-                  <c:v>45576</c:v>
-                </c:pt>
-                <c:pt idx="191" c:formatCode="yyyy/m/d">
-                  <c:v>45579</c:v>
-                </c:pt>
-                <c:pt idx="192" c:formatCode="yyyy/m/d">
-                  <c:v>45580</c:v>
-                </c:pt>
-                <c:pt idx="193" c:formatCode="yyyy/m/d">
-                  <c:v>45581</c:v>
-                </c:pt>
-                <c:pt idx="194" c:formatCode="yyyy/m/d">
-                  <c:v>45582</c:v>
-                </c:pt>
-                <c:pt idx="195" c:formatCode="yyyy/m/d">
-                  <c:v>45583</c:v>
-                </c:pt>
-                <c:pt idx="196" c:formatCode="yyyy/m/d">
-                  <c:v>45586</c:v>
-                </c:pt>
-                <c:pt idx="197" c:formatCode="yyyy/m/d">
-                  <c:v>45587</c:v>
-                </c:pt>
-                <c:pt idx="198" c:formatCode="yyyy/m/d">
-                  <c:v>45588</c:v>
-                </c:pt>
-                <c:pt idx="199" c:formatCode="yyyy/m/d">
-                  <c:v>45589</c:v>
-                </c:pt>
-                <c:pt idx="200" c:formatCode="yyyy/m/d">
-                  <c:v>45590</c:v>
-                </c:pt>
-                <c:pt idx="201" c:formatCode="yyyy/m/d">
-                  <c:v>45593</c:v>
-                </c:pt>
-                <c:pt idx="202" c:formatCode="yyyy/m/d">
-                  <c:v>45594</c:v>
-                </c:pt>
-                <c:pt idx="203" c:formatCode="yyyy/m/d">
-                  <c:v>45595</c:v>
-                </c:pt>
-                <c:pt idx="204" c:formatCode="yyyy/m/d">
-                  <c:v>45596</c:v>
-                </c:pt>
-                <c:pt idx="205" c:formatCode="yyyy/m/d">
-                  <c:v>45597</c:v>
-                </c:pt>
-                <c:pt idx="206" c:formatCode="yyyy/m/d">
-                  <c:v>45600</c:v>
-                </c:pt>
-                <c:pt idx="207" c:formatCode="yyyy/m/d">
-                  <c:v>45601</c:v>
-                </c:pt>
-                <c:pt idx="208" c:formatCode="yyyy/m/d">
-                  <c:v>45602</c:v>
-                </c:pt>
-                <c:pt idx="209" c:formatCode="yyyy/m/d">
-                  <c:v>45603</c:v>
-                </c:pt>
-                <c:pt idx="210" c:formatCode="yyyy/m/d">
-                  <c:v>45604</c:v>
-                </c:pt>
-                <c:pt idx="211" c:formatCode="yyyy/m/d">
-                  <c:v>45607</c:v>
-                </c:pt>
-                <c:pt idx="212" c:formatCode="yyyy/m/d">
-                  <c:v>45608</c:v>
-                </c:pt>
-                <c:pt idx="213" c:formatCode="yyyy/m/d">
-                  <c:v>45609</c:v>
-                </c:pt>
-                <c:pt idx="214" c:formatCode="yyyy/m/d">
-                  <c:v>45610</c:v>
-                </c:pt>
-                <c:pt idx="215" c:formatCode="yyyy/m/d">
-                  <c:v>45611</c:v>
-                </c:pt>
-                <c:pt idx="216" c:formatCode="yyyy/m/d">
-                  <c:v>45614</c:v>
-                </c:pt>
-                <c:pt idx="217" c:formatCode="yyyy/m/d">
-                  <c:v>45615</c:v>
-                </c:pt>
-                <c:pt idx="218" c:formatCode="yyyy/m/d">
-                  <c:v>45616</c:v>
-                </c:pt>
-                <c:pt idx="219" c:formatCode="yyyy/m/d">
-                  <c:v>45617</c:v>
-                </c:pt>
-                <c:pt idx="220" c:formatCode="yyyy/m/d">
-                  <c:v>45618</c:v>
-                </c:pt>
-                <c:pt idx="221" c:formatCode="yyyy/m/d">
-                  <c:v>45621</c:v>
-                </c:pt>
-                <c:pt idx="222" c:formatCode="yyyy/m/d">
-                  <c:v>45622</c:v>
-                </c:pt>
-                <c:pt idx="223" c:formatCode="yyyy/m/d">
-                  <c:v>45623</c:v>
-                </c:pt>
-                <c:pt idx="224" c:formatCode="yyyy/m/d">
-                  <c:v>45624</c:v>
-                </c:pt>
-                <c:pt idx="225" c:formatCode="yyyy/m/d">
-                  <c:v>45625</c:v>
-                </c:pt>
-                <c:pt idx="226" c:formatCode="yyyy/m/d">
-                  <c:v>45628</c:v>
-                </c:pt>
-                <c:pt idx="227" c:formatCode="yyyy/m/d">
-                  <c:v>45629</c:v>
-                </c:pt>
-                <c:pt idx="228" c:formatCode="yyyy/m/d">
-                  <c:v>45630</c:v>
-                </c:pt>
-                <c:pt idx="229" c:formatCode="yyyy/m/d">
-                  <c:v>45631</c:v>
-                </c:pt>
-                <c:pt idx="230" c:formatCode="yyyy/m/d">
-                  <c:v>45632</c:v>
-                </c:pt>
-                <c:pt idx="231" c:formatCode="yyyy/m/d">
-                  <c:v>45635</c:v>
-                </c:pt>
-                <c:pt idx="232" c:formatCode="yyyy/m/d">
-                  <c:v>45636</c:v>
-                </c:pt>
-                <c:pt idx="233" c:formatCode="yyyy/m/d">
-                  <c:v>45637</c:v>
-                </c:pt>
-                <c:pt idx="234" c:formatCode="yyyy/m/d">
-                  <c:v>45638</c:v>
-                </c:pt>
-                <c:pt idx="235" c:formatCode="yyyy/m/d">
-                  <c:v>45639</c:v>
-                </c:pt>
-                <c:pt idx="236" c:formatCode="yyyy/m/d">
-                  <c:v>45642</c:v>
-                </c:pt>
-                <c:pt idx="237" c:formatCode="yyyy/m/d">
-                  <c:v>45643</c:v>
-                </c:pt>
-                <c:pt idx="238" c:formatCode="yyyy/m/d">
-                  <c:v>45644</c:v>
-                </c:pt>
-                <c:pt idx="239" c:formatCode="yyyy/m/d">
-                  <c:v>45645</c:v>
-                </c:pt>
-                <c:pt idx="240" c:formatCode="yyyy/m/d">
-                  <c:v>45646</c:v>
-                </c:pt>
-                <c:pt idx="241" c:formatCode="yyyy/m/d">
-                  <c:v>45649</c:v>
-                </c:pt>
-                <c:pt idx="242" c:formatCode="yyyy/m/d">
-                  <c:v>45650</c:v>
-                </c:pt>
-                <c:pt idx="243" c:formatCode="yyyy/m/d">
-                  <c:v>45651</c:v>
-                </c:pt>
-                <c:pt idx="244" c:formatCode="yyyy/m/d">
-                  <c:v>45652</c:v>
-                </c:pt>
-                <c:pt idx="245" c:formatCode="yyyy/m/d">
-                  <c:v>45653</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>涨跌停数量!$C$2:$C$247</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="246"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1368</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="868857955"/>
-        <c:axId val="770414264"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="868857955"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="770414264"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="770414264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1500"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="90200"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="868857955"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="50"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -8280,6 +6377,15 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>78.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>84.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9170,6 +7276,15 @@
                 <c:pt idx="28">
                   <c:v>4106</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>4583</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4399</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3687</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10043,6 +8158,15 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10318,6 +8442,2010 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>涨跌停数量!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>涨停数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>涨跌停数量!$A$2:$A$247</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="246"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                  <c:v>45314</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                  <c:v>45317</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                  <c:v>45321</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                  <c:v>45324</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                  <c:v>45327</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                  <c:v>45328</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                  <c:v>45329</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                  <c:v>45341</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                  <c:v>45342</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                  <c:v>45343</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                  <c:v>45345</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="yyyy/m/d">
+                  <c:v>45348</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="yyyy/m/d">
+                  <c:v>45349</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="yyyy/m/d">
+                  <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="yyyy/m/d">
+                  <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="yyyy/m/d">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="yyyy/m/d">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="yyyy/m/d">
+                  <c:v>45356</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="yyyy/m/d">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="yyyy/m/d">
+                  <c:v>45358</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="yyyy/m/d">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="yyyy/m/d">
+                  <c:v>45362</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="yyyy/m/d">
+                  <c:v>45363</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="yyyy/m/d">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="yyyy/m/d">
+                  <c:v>45365</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="yyyy/m/d">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="yyyy/m/d">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="yyyy/m/d">
+                  <c:v>45370</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="yyyy/m/d">
+                  <c:v>45371</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="yyyy/m/d">
+                  <c:v>45372</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="yyyy/m/d">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="yyyy/m/d">
+                  <c:v>45376</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="yyyy/m/d">
+                  <c:v>45377</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="yyyy/m/d">
+                  <c:v>45378</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="yyyy/m/d">
+                  <c:v>45379</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="yyyy/m/d">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="yyyy/m/d">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="yyyy/m/d">
+                  <c:v>45384</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="yyyy/m/d">
+                  <c:v>45385</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="yyyy/m/d">
+                  <c:v>45386</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="yyyy/m/d">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="yyyy/m/d">
+                  <c:v>45390</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="yyyy/m/d">
+                  <c:v>45391</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="yyyy/m/d">
+                  <c:v>45392</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="yyyy/m/d">
+                  <c:v>45393</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="yyyy/m/d">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="yyyy/m/d">
+                  <c:v>45397</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="yyyy/m/d">
+                  <c:v>45398</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="yyyy/m/d">
+                  <c:v>45399</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="yyyy/m/d">
+                  <c:v>45400</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="yyyy/m/d">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="yyyy/m/d">
+                  <c:v>45404</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="yyyy/m/d">
+                  <c:v>45405</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="yyyy/m/d">
+                  <c:v>45406</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="yyyy/m/d">
+                  <c:v>45407</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="yyyy/m/d">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="yyyy/m/d">
+                  <c:v>45411</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="yyyy/m/d">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="yyyy/m/d">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="yyyy/m/d">
+                  <c:v>45414</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="yyyy/m/d">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="yyyy/m/d">
+                  <c:v>45418</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="yyyy/m/d">
+                  <c:v>45419</c:v>
+                </c:pt>
+                <c:pt idx="83" c:formatCode="yyyy/m/d">
+                  <c:v>45420</c:v>
+                </c:pt>
+                <c:pt idx="84" c:formatCode="yyyy/m/d">
+                  <c:v>45421</c:v>
+                </c:pt>
+                <c:pt idx="85" c:formatCode="yyyy/m/d">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="yyyy/m/d">
+                  <c:v>45425</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="yyyy/m/d">
+                  <c:v>45426</c:v>
+                </c:pt>
+                <c:pt idx="88" c:formatCode="yyyy/m/d">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="89" c:formatCode="yyyy/m/d">
+                  <c:v>45428</c:v>
+                </c:pt>
+                <c:pt idx="90" c:formatCode="yyyy/m/d">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="91" c:formatCode="yyyy/m/d">
+                  <c:v>45432</c:v>
+                </c:pt>
+                <c:pt idx="92" c:formatCode="yyyy/m/d">
+                  <c:v>45433</c:v>
+                </c:pt>
+                <c:pt idx="93" c:formatCode="yyyy/m/d">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="94" c:formatCode="yyyy/m/d">
+                  <c:v>45435</c:v>
+                </c:pt>
+                <c:pt idx="95" c:formatCode="yyyy/m/d">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="96" c:formatCode="yyyy/m/d">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="97" c:formatCode="yyyy/m/d">
+                  <c:v>45440</c:v>
+                </c:pt>
+                <c:pt idx="98" c:formatCode="yyyy/m/d">
+                  <c:v>45441</c:v>
+                </c:pt>
+                <c:pt idx="99" c:formatCode="yyyy/m/d">
+                  <c:v>45442</c:v>
+                </c:pt>
+                <c:pt idx="100" c:formatCode="yyyy/m/d">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="101" c:formatCode="yyyy/m/d">
+                  <c:v>45446</c:v>
+                </c:pt>
+                <c:pt idx="102" c:formatCode="yyyy/m/d">
+                  <c:v>45447</c:v>
+                </c:pt>
+                <c:pt idx="103" c:formatCode="yyyy/m/d">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="104" c:formatCode="yyyy/m/d">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="105" c:formatCode="yyyy/m/d">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="106" c:formatCode="yyyy/m/d">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="107" c:formatCode="yyyy/m/d">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="108" c:formatCode="yyyy/m/d">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="109" c:formatCode="yyyy/m/d">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="110" c:formatCode="yyyy/m/d">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="111" c:formatCode="yyyy/m/d">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="112" c:formatCode="yyyy/m/d">
+                  <c:v>45461</c:v>
+                </c:pt>
+                <c:pt idx="113" c:formatCode="yyyy/m/d">
+                  <c:v>45462</c:v>
+                </c:pt>
+                <c:pt idx="114" c:formatCode="yyyy/m/d">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="115" c:formatCode="yyyy/m/d">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="116" c:formatCode="yyyy/m/d">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="117" c:formatCode="yyyy/m/d">
+                  <c:v>45468</c:v>
+                </c:pt>
+                <c:pt idx="118" c:formatCode="yyyy/m/d">
+                  <c:v>45469</c:v>
+                </c:pt>
+                <c:pt idx="119" c:formatCode="yyyy/m/d">
+                  <c:v>45470</c:v>
+                </c:pt>
+                <c:pt idx="120" c:formatCode="yyyy/m/d">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="121" c:formatCode="yyyy/m/d">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="122" c:formatCode="yyyy/m/d">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="123" c:formatCode="yyyy/m/d">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="124" c:formatCode="yyyy/m/d">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="125" c:formatCode="yyyy/m/d">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="126" c:formatCode="yyyy/m/d">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="127" c:formatCode="yyyy/m/d">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="128" c:formatCode="yyyy/m/d">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="129" c:formatCode="yyyy/m/d">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="130" c:formatCode="yyyy/m/d">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="131" c:formatCode="yyyy/m/d">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="132" c:formatCode="yyyy/m/d">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="133" c:formatCode="yyyy/m/d">
+                  <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="134" c:formatCode="yyyy/m/d">
+                  <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="135" c:formatCode="yyyy/m/d">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="136" c:formatCode="yyyy/m/d">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="137" c:formatCode="yyyy/m/d">
+                  <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="138" c:formatCode="yyyy/m/d">
+                  <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="139" c:formatCode="yyyy/m/d">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="140" c:formatCode="yyyy/m/d">
+                  <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="141" c:formatCode="yyyy/m/d">
+                  <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="142" c:formatCode="yyyy/m/d">
+                  <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="143" c:formatCode="yyyy/m/d">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="144" c:formatCode="yyyy/m/d">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="145" c:formatCode="yyyy/m/d">
+                  <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="146" c:formatCode="yyyy/m/d">
+                  <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="147" c:formatCode="yyyy/m/d">
+                  <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="148" c:formatCode="yyyy/m/d">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="149" c:formatCode="yyyy/m/d">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="150" c:formatCode="yyyy/m/d">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="151" c:formatCode="yyyy/m/d">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="152" c:formatCode="yyyy/m/d">
+                  <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="153" c:formatCode="yyyy/m/d">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="154" c:formatCode="yyyy/m/d">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="155" c:formatCode="yyyy/m/d">
+                  <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="156" c:formatCode="yyyy/m/d">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="157" c:formatCode="yyyy/m/d">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="158" c:formatCode="yyyy/m/d">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="159" c:formatCode="yyyy/m/d">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="160" c:formatCode="yyyy/m/d">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="161" c:formatCode="yyyy/m/d">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="162" c:formatCode="yyyy/m/d">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="163" c:formatCode="yyyy/m/d">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="164" c:formatCode="yyyy/m/d">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="165" c:formatCode="yyyy/m/d">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="166" c:formatCode="yyyy/m/d">
+                  <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="167" c:formatCode="yyyy/m/d">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="168" c:formatCode="yyyy/m/d">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="169" c:formatCode="yyyy/m/d">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="170" c:formatCode="yyyy/m/d">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="171" c:formatCode="yyyy/m/d">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="172" c:formatCode="yyyy/m/d">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="173" c:formatCode="yyyy/m/d">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="174" c:formatCode="yyyy/m/d">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="175" c:formatCode="yyyy/m/d">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="176" c:formatCode="yyyy/m/d">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="177" c:formatCode="yyyy/m/d">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="178" c:formatCode="yyyy/m/d">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="179" c:formatCode="yyyy/m/d">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="180" c:formatCode="yyyy/m/d">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="181" c:formatCode="yyyy/m/d">
+                  <c:v>45558</c:v>
+                </c:pt>
+                <c:pt idx="182" c:formatCode="yyyy/m/d">
+                  <c:v>45559</c:v>
+                </c:pt>
+                <c:pt idx="183" c:formatCode="yyyy/m/d">
+                  <c:v>45560</c:v>
+                </c:pt>
+                <c:pt idx="184" c:formatCode="yyyy/m/d">
+                  <c:v>45561</c:v>
+                </c:pt>
+                <c:pt idx="185" c:formatCode="yyyy/m/d">
+                  <c:v>45562</c:v>
+                </c:pt>
+                <c:pt idx="186" c:formatCode="yyyy/m/d">
+                  <c:v>45572</c:v>
+                </c:pt>
+                <c:pt idx="187" c:formatCode="yyyy/m/d">
+                  <c:v>45573</c:v>
+                </c:pt>
+                <c:pt idx="188" c:formatCode="yyyy/m/d">
+                  <c:v>45574</c:v>
+                </c:pt>
+                <c:pt idx="189" c:formatCode="yyyy/m/d">
+                  <c:v>45575</c:v>
+                </c:pt>
+                <c:pt idx="190" c:formatCode="yyyy/m/d">
+                  <c:v>45576</c:v>
+                </c:pt>
+                <c:pt idx="191" c:formatCode="yyyy/m/d">
+                  <c:v>45579</c:v>
+                </c:pt>
+                <c:pt idx="192" c:formatCode="yyyy/m/d">
+                  <c:v>45580</c:v>
+                </c:pt>
+                <c:pt idx="193" c:formatCode="yyyy/m/d">
+                  <c:v>45581</c:v>
+                </c:pt>
+                <c:pt idx="194" c:formatCode="yyyy/m/d">
+                  <c:v>45582</c:v>
+                </c:pt>
+                <c:pt idx="195" c:formatCode="yyyy/m/d">
+                  <c:v>45583</c:v>
+                </c:pt>
+                <c:pt idx="196" c:formatCode="yyyy/m/d">
+                  <c:v>45586</c:v>
+                </c:pt>
+                <c:pt idx="197" c:formatCode="yyyy/m/d">
+                  <c:v>45587</c:v>
+                </c:pt>
+                <c:pt idx="198" c:formatCode="yyyy/m/d">
+                  <c:v>45588</c:v>
+                </c:pt>
+                <c:pt idx="199" c:formatCode="yyyy/m/d">
+                  <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="200" c:formatCode="yyyy/m/d">
+                  <c:v>45590</c:v>
+                </c:pt>
+                <c:pt idx="201" c:formatCode="yyyy/m/d">
+                  <c:v>45593</c:v>
+                </c:pt>
+                <c:pt idx="202" c:formatCode="yyyy/m/d">
+                  <c:v>45594</c:v>
+                </c:pt>
+                <c:pt idx="203" c:formatCode="yyyy/m/d">
+                  <c:v>45595</c:v>
+                </c:pt>
+                <c:pt idx="204" c:formatCode="yyyy/m/d">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="205" c:formatCode="yyyy/m/d">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="206" c:formatCode="yyyy/m/d">
+                  <c:v>45600</c:v>
+                </c:pt>
+                <c:pt idx="207" c:formatCode="yyyy/m/d">
+                  <c:v>45601</c:v>
+                </c:pt>
+                <c:pt idx="208" c:formatCode="yyyy/m/d">
+                  <c:v>45602</c:v>
+                </c:pt>
+                <c:pt idx="209" c:formatCode="yyyy/m/d">
+                  <c:v>45603</c:v>
+                </c:pt>
+                <c:pt idx="210" c:formatCode="yyyy/m/d">
+                  <c:v>45604</c:v>
+                </c:pt>
+                <c:pt idx="211" c:formatCode="yyyy/m/d">
+                  <c:v>45607</c:v>
+                </c:pt>
+                <c:pt idx="212" c:formatCode="yyyy/m/d">
+                  <c:v>45608</c:v>
+                </c:pt>
+                <c:pt idx="213" c:formatCode="yyyy/m/d">
+                  <c:v>45609</c:v>
+                </c:pt>
+                <c:pt idx="214" c:formatCode="yyyy/m/d">
+                  <c:v>45610</c:v>
+                </c:pt>
+                <c:pt idx="215" c:formatCode="yyyy/m/d">
+                  <c:v>45611</c:v>
+                </c:pt>
+                <c:pt idx="216" c:formatCode="yyyy/m/d">
+                  <c:v>45614</c:v>
+                </c:pt>
+                <c:pt idx="217" c:formatCode="yyyy/m/d">
+                  <c:v>45615</c:v>
+                </c:pt>
+                <c:pt idx="218" c:formatCode="yyyy/m/d">
+                  <c:v>45616</c:v>
+                </c:pt>
+                <c:pt idx="219" c:formatCode="yyyy/m/d">
+                  <c:v>45617</c:v>
+                </c:pt>
+                <c:pt idx="220" c:formatCode="yyyy/m/d">
+                  <c:v>45618</c:v>
+                </c:pt>
+                <c:pt idx="221" c:formatCode="yyyy/m/d">
+                  <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="222" c:formatCode="yyyy/m/d">
+                  <c:v>45622</c:v>
+                </c:pt>
+                <c:pt idx="223" c:formatCode="yyyy/m/d">
+                  <c:v>45623</c:v>
+                </c:pt>
+                <c:pt idx="224" c:formatCode="yyyy/m/d">
+                  <c:v>45624</c:v>
+                </c:pt>
+                <c:pt idx="225" c:formatCode="yyyy/m/d">
+                  <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="226" c:formatCode="yyyy/m/d">
+                  <c:v>45628</c:v>
+                </c:pt>
+                <c:pt idx="227" c:formatCode="yyyy/m/d">
+                  <c:v>45629</c:v>
+                </c:pt>
+                <c:pt idx="228" c:formatCode="yyyy/m/d">
+                  <c:v>45630</c:v>
+                </c:pt>
+                <c:pt idx="229" c:formatCode="yyyy/m/d">
+                  <c:v>45631</c:v>
+                </c:pt>
+                <c:pt idx="230" c:formatCode="yyyy/m/d">
+                  <c:v>45632</c:v>
+                </c:pt>
+                <c:pt idx="231" c:formatCode="yyyy/m/d">
+                  <c:v>45635</c:v>
+                </c:pt>
+                <c:pt idx="232" c:formatCode="yyyy/m/d">
+                  <c:v>45636</c:v>
+                </c:pt>
+                <c:pt idx="233" c:formatCode="yyyy/m/d">
+                  <c:v>45637</c:v>
+                </c:pt>
+                <c:pt idx="234" c:formatCode="yyyy/m/d">
+                  <c:v>45638</c:v>
+                </c:pt>
+                <c:pt idx="235" c:formatCode="yyyy/m/d">
+                  <c:v>45639</c:v>
+                </c:pt>
+                <c:pt idx="236" c:formatCode="yyyy/m/d">
+                  <c:v>45642</c:v>
+                </c:pt>
+                <c:pt idx="237" c:formatCode="yyyy/m/d">
+                  <c:v>45643</c:v>
+                </c:pt>
+                <c:pt idx="238" c:formatCode="yyyy/m/d">
+                  <c:v>45644</c:v>
+                </c:pt>
+                <c:pt idx="239" c:formatCode="yyyy/m/d">
+                  <c:v>45645</c:v>
+                </c:pt>
+                <c:pt idx="240" c:formatCode="yyyy/m/d">
+                  <c:v>45646</c:v>
+                </c:pt>
+                <c:pt idx="241" c:formatCode="yyyy/m/d">
+                  <c:v>45649</c:v>
+                </c:pt>
+                <c:pt idx="242" c:formatCode="yyyy/m/d">
+                  <c:v>45650</c:v>
+                </c:pt>
+                <c:pt idx="243" c:formatCode="yyyy/m/d">
+                  <c:v>45651</c:v>
+                </c:pt>
+                <c:pt idx="244" c:formatCode="yyyy/m/d">
+                  <c:v>45652</c:v>
+                </c:pt>
+                <c:pt idx="245" c:formatCode="yyyy/m/d">
+                  <c:v>45653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>涨跌停数量!$B$2:$B$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="246"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>涨跌停数量!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>跌停数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>涨跌停数量!$A$2:$A$247</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="246"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                  <c:v>45314</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                  <c:v>45317</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                  <c:v>45321</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                  <c:v>45324</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                  <c:v>45327</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                  <c:v>45328</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                  <c:v>45329</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                  <c:v>45341</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                  <c:v>45342</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                  <c:v>45343</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                  <c:v>45345</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="yyyy/m/d">
+                  <c:v>45348</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="yyyy/m/d">
+                  <c:v>45349</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="yyyy/m/d">
+                  <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="yyyy/m/d">
+                  <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="yyyy/m/d">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="yyyy/m/d">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="yyyy/m/d">
+                  <c:v>45356</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="yyyy/m/d">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="yyyy/m/d">
+                  <c:v>45358</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="yyyy/m/d">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="yyyy/m/d">
+                  <c:v>45362</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="yyyy/m/d">
+                  <c:v>45363</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="yyyy/m/d">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="yyyy/m/d">
+                  <c:v>45365</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="yyyy/m/d">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="yyyy/m/d">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="yyyy/m/d">
+                  <c:v>45370</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="yyyy/m/d">
+                  <c:v>45371</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="yyyy/m/d">
+                  <c:v>45372</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="yyyy/m/d">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="yyyy/m/d">
+                  <c:v>45376</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="yyyy/m/d">
+                  <c:v>45377</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="yyyy/m/d">
+                  <c:v>45378</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="yyyy/m/d">
+                  <c:v>45379</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="yyyy/m/d">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="yyyy/m/d">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="yyyy/m/d">
+                  <c:v>45384</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="yyyy/m/d">
+                  <c:v>45385</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="yyyy/m/d">
+                  <c:v>45386</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="yyyy/m/d">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="yyyy/m/d">
+                  <c:v>45390</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="yyyy/m/d">
+                  <c:v>45391</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="yyyy/m/d">
+                  <c:v>45392</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="yyyy/m/d">
+                  <c:v>45393</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="yyyy/m/d">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="yyyy/m/d">
+                  <c:v>45397</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="yyyy/m/d">
+                  <c:v>45398</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="yyyy/m/d">
+                  <c:v>45399</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="yyyy/m/d">
+                  <c:v>45400</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="yyyy/m/d">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="yyyy/m/d">
+                  <c:v>45404</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="yyyy/m/d">
+                  <c:v>45405</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="yyyy/m/d">
+                  <c:v>45406</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="yyyy/m/d">
+                  <c:v>45407</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="yyyy/m/d">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="yyyy/m/d">
+                  <c:v>45411</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="yyyy/m/d">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="yyyy/m/d">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="yyyy/m/d">
+                  <c:v>45414</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="yyyy/m/d">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="yyyy/m/d">
+                  <c:v>45418</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="yyyy/m/d">
+                  <c:v>45419</c:v>
+                </c:pt>
+                <c:pt idx="83" c:formatCode="yyyy/m/d">
+                  <c:v>45420</c:v>
+                </c:pt>
+                <c:pt idx="84" c:formatCode="yyyy/m/d">
+                  <c:v>45421</c:v>
+                </c:pt>
+                <c:pt idx="85" c:formatCode="yyyy/m/d">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="yyyy/m/d">
+                  <c:v>45425</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="yyyy/m/d">
+                  <c:v>45426</c:v>
+                </c:pt>
+                <c:pt idx="88" c:formatCode="yyyy/m/d">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="89" c:formatCode="yyyy/m/d">
+                  <c:v>45428</c:v>
+                </c:pt>
+                <c:pt idx="90" c:formatCode="yyyy/m/d">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="91" c:formatCode="yyyy/m/d">
+                  <c:v>45432</c:v>
+                </c:pt>
+                <c:pt idx="92" c:formatCode="yyyy/m/d">
+                  <c:v>45433</c:v>
+                </c:pt>
+                <c:pt idx="93" c:formatCode="yyyy/m/d">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="94" c:formatCode="yyyy/m/d">
+                  <c:v>45435</c:v>
+                </c:pt>
+                <c:pt idx="95" c:formatCode="yyyy/m/d">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="96" c:formatCode="yyyy/m/d">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="97" c:formatCode="yyyy/m/d">
+                  <c:v>45440</c:v>
+                </c:pt>
+                <c:pt idx="98" c:formatCode="yyyy/m/d">
+                  <c:v>45441</c:v>
+                </c:pt>
+                <c:pt idx="99" c:formatCode="yyyy/m/d">
+                  <c:v>45442</c:v>
+                </c:pt>
+                <c:pt idx="100" c:formatCode="yyyy/m/d">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="101" c:formatCode="yyyy/m/d">
+                  <c:v>45446</c:v>
+                </c:pt>
+                <c:pt idx="102" c:formatCode="yyyy/m/d">
+                  <c:v>45447</c:v>
+                </c:pt>
+                <c:pt idx="103" c:formatCode="yyyy/m/d">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="104" c:formatCode="yyyy/m/d">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="105" c:formatCode="yyyy/m/d">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="106" c:formatCode="yyyy/m/d">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="107" c:formatCode="yyyy/m/d">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="108" c:formatCode="yyyy/m/d">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="109" c:formatCode="yyyy/m/d">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="110" c:formatCode="yyyy/m/d">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="111" c:formatCode="yyyy/m/d">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="112" c:formatCode="yyyy/m/d">
+                  <c:v>45461</c:v>
+                </c:pt>
+                <c:pt idx="113" c:formatCode="yyyy/m/d">
+                  <c:v>45462</c:v>
+                </c:pt>
+                <c:pt idx="114" c:formatCode="yyyy/m/d">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="115" c:formatCode="yyyy/m/d">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="116" c:formatCode="yyyy/m/d">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="117" c:formatCode="yyyy/m/d">
+                  <c:v>45468</c:v>
+                </c:pt>
+                <c:pt idx="118" c:formatCode="yyyy/m/d">
+                  <c:v>45469</c:v>
+                </c:pt>
+                <c:pt idx="119" c:formatCode="yyyy/m/d">
+                  <c:v>45470</c:v>
+                </c:pt>
+                <c:pt idx="120" c:formatCode="yyyy/m/d">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="121" c:formatCode="yyyy/m/d">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="122" c:formatCode="yyyy/m/d">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="123" c:formatCode="yyyy/m/d">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="124" c:formatCode="yyyy/m/d">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="125" c:formatCode="yyyy/m/d">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="126" c:formatCode="yyyy/m/d">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="127" c:formatCode="yyyy/m/d">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="128" c:formatCode="yyyy/m/d">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="129" c:formatCode="yyyy/m/d">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="130" c:formatCode="yyyy/m/d">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="131" c:formatCode="yyyy/m/d">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="132" c:formatCode="yyyy/m/d">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="133" c:formatCode="yyyy/m/d">
+                  <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="134" c:formatCode="yyyy/m/d">
+                  <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="135" c:formatCode="yyyy/m/d">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="136" c:formatCode="yyyy/m/d">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="137" c:formatCode="yyyy/m/d">
+                  <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="138" c:formatCode="yyyy/m/d">
+                  <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="139" c:formatCode="yyyy/m/d">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="140" c:formatCode="yyyy/m/d">
+                  <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="141" c:formatCode="yyyy/m/d">
+                  <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="142" c:formatCode="yyyy/m/d">
+                  <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="143" c:formatCode="yyyy/m/d">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="144" c:formatCode="yyyy/m/d">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="145" c:formatCode="yyyy/m/d">
+                  <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="146" c:formatCode="yyyy/m/d">
+                  <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="147" c:formatCode="yyyy/m/d">
+                  <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="148" c:formatCode="yyyy/m/d">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="149" c:formatCode="yyyy/m/d">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="150" c:formatCode="yyyy/m/d">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="151" c:formatCode="yyyy/m/d">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="152" c:formatCode="yyyy/m/d">
+                  <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="153" c:formatCode="yyyy/m/d">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="154" c:formatCode="yyyy/m/d">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="155" c:formatCode="yyyy/m/d">
+                  <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="156" c:formatCode="yyyy/m/d">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="157" c:formatCode="yyyy/m/d">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="158" c:formatCode="yyyy/m/d">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="159" c:formatCode="yyyy/m/d">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="160" c:formatCode="yyyy/m/d">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="161" c:formatCode="yyyy/m/d">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="162" c:formatCode="yyyy/m/d">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="163" c:formatCode="yyyy/m/d">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="164" c:formatCode="yyyy/m/d">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="165" c:formatCode="yyyy/m/d">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="166" c:formatCode="yyyy/m/d">
+                  <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="167" c:formatCode="yyyy/m/d">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="168" c:formatCode="yyyy/m/d">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="169" c:formatCode="yyyy/m/d">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="170" c:formatCode="yyyy/m/d">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="171" c:formatCode="yyyy/m/d">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="172" c:formatCode="yyyy/m/d">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="173" c:formatCode="yyyy/m/d">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="174" c:formatCode="yyyy/m/d">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="175" c:formatCode="yyyy/m/d">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="176" c:formatCode="yyyy/m/d">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="177" c:formatCode="yyyy/m/d">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="178" c:formatCode="yyyy/m/d">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="179" c:formatCode="yyyy/m/d">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="180" c:formatCode="yyyy/m/d">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="181" c:formatCode="yyyy/m/d">
+                  <c:v>45558</c:v>
+                </c:pt>
+                <c:pt idx="182" c:formatCode="yyyy/m/d">
+                  <c:v>45559</c:v>
+                </c:pt>
+                <c:pt idx="183" c:formatCode="yyyy/m/d">
+                  <c:v>45560</c:v>
+                </c:pt>
+                <c:pt idx="184" c:formatCode="yyyy/m/d">
+                  <c:v>45561</c:v>
+                </c:pt>
+                <c:pt idx="185" c:formatCode="yyyy/m/d">
+                  <c:v>45562</c:v>
+                </c:pt>
+                <c:pt idx="186" c:formatCode="yyyy/m/d">
+                  <c:v>45572</c:v>
+                </c:pt>
+                <c:pt idx="187" c:formatCode="yyyy/m/d">
+                  <c:v>45573</c:v>
+                </c:pt>
+                <c:pt idx="188" c:formatCode="yyyy/m/d">
+                  <c:v>45574</c:v>
+                </c:pt>
+                <c:pt idx="189" c:formatCode="yyyy/m/d">
+                  <c:v>45575</c:v>
+                </c:pt>
+                <c:pt idx="190" c:formatCode="yyyy/m/d">
+                  <c:v>45576</c:v>
+                </c:pt>
+                <c:pt idx="191" c:formatCode="yyyy/m/d">
+                  <c:v>45579</c:v>
+                </c:pt>
+                <c:pt idx="192" c:formatCode="yyyy/m/d">
+                  <c:v>45580</c:v>
+                </c:pt>
+                <c:pt idx="193" c:formatCode="yyyy/m/d">
+                  <c:v>45581</c:v>
+                </c:pt>
+                <c:pt idx="194" c:formatCode="yyyy/m/d">
+                  <c:v>45582</c:v>
+                </c:pt>
+                <c:pt idx="195" c:formatCode="yyyy/m/d">
+                  <c:v>45583</c:v>
+                </c:pt>
+                <c:pt idx="196" c:formatCode="yyyy/m/d">
+                  <c:v>45586</c:v>
+                </c:pt>
+                <c:pt idx="197" c:formatCode="yyyy/m/d">
+                  <c:v>45587</c:v>
+                </c:pt>
+                <c:pt idx="198" c:formatCode="yyyy/m/d">
+                  <c:v>45588</c:v>
+                </c:pt>
+                <c:pt idx="199" c:formatCode="yyyy/m/d">
+                  <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="200" c:formatCode="yyyy/m/d">
+                  <c:v>45590</c:v>
+                </c:pt>
+                <c:pt idx="201" c:formatCode="yyyy/m/d">
+                  <c:v>45593</c:v>
+                </c:pt>
+                <c:pt idx="202" c:formatCode="yyyy/m/d">
+                  <c:v>45594</c:v>
+                </c:pt>
+                <c:pt idx="203" c:formatCode="yyyy/m/d">
+                  <c:v>45595</c:v>
+                </c:pt>
+                <c:pt idx="204" c:formatCode="yyyy/m/d">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="205" c:formatCode="yyyy/m/d">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="206" c:formatCode="yyyy/m/d">
+                  <c:v>45600</c:v>
+                </c:pt>
+                <c:pt idx="207" c:formatCode="yyyy/m/d">
+                  <c:v>45601</c:v>
+                </c:pt>
+                <c:pt idx="208" c:formatCode="yyyy/m/d">
+                  <c:v>45602</c:v>
+                </c:pt>
+                <c:pt idx="209" c:formatCode="yyyy/m/d">
+                  <c:v>45603</c:v>
+                </c:pt>
+                <c:pt idx="210" c:formatCode="yyyy/m/d">
+                  <c:v>45604</c:v>
+                </c:pt>
+                <c:pt idx="211" c:formatCode="yyyy/m/d">
+                  <c:v>45607</c:v>
+                </c:pt>
+                <c:pt idx="212" c:formatCode="yyyy/m/d">
+                  <c:v>45608</c:v>
+                </c:pt>
+                <c:pt idx="213" c:formatCode="yyyy/m/d">
+                  <c:v>45609</c:v>
+                </c:pt>
+                <c:pt idx="214" c:formatCode="yyyy/m/d">
+                  <c:v>45610</c:v>
+                </c:pt>
+                <c:pt idx="215" c:formatCode="yyyy/m/d">
+                  <c:v>45611</c:v>
+                </c:pt>
+                <c:pt idx="216" c:formatCode="yyyy/m/d">
+                  <c:v>45614</c:v>
+                </c:pt>
+                <c:pt idx="217" c:formatCode="yyyy/m/d">
+                  <c:v>45615</c:v>
+                </c:pt>
+                <c:pt idx="218" c:formatCode="yyyy/m/d">
+                  <c:v>45616</c:v>
+                </c:pt>
+                <c:pt idx="219" c:formatCode="yyyy/m/d">
+                  <c:v>45617</c:v>
+                </c:pt>
+                <c:pt idx="220" c:formatCode="yyyy/m/d">
+                  <c:v>45618</c:v>
+                </c:pt>
+                <c:pt idx="221" c:formatCode="yyyy/m/d">
+                  <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="222" c:formatCode="yyyy/m/d">
+                  <c:v>45622</c:v>
+                </c:pt>
+                <c:pt idx="223" c:formatCode="yyyy/m/d">
+                  <c:v>45623</c:v>
+                </c:pt>
+                <c:pt idx="224" c:formatCode="yyyy/m/d">
+                  <c:v>45624</c:v>
+                </c:pt>
+                <c:pt idx="225" c:formatCode="yyyy/m/d">
+                  <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="226" c:formatCode="yyyy/m/d">
+                  <c:v>45628</c:v>
+                </c:pt>
+                <c:pt idx="227" c:formatCode="yyyy/m/d">
+                  <c:v>45629</c:v>
+                </c:pt>
+                <c:pt idx="228" c:formatCode="yyyy/m/d">
+                  <c:v>45630</c:v>
+                </c:pt>
+                <c:pt idx="229" c:formatCode="yyyy/m/d">
+                  <c:v>45631</c:v>
+                </c:pt>
+                <c:pt idx="230" c:formatCode="yyyy/m/d">
+                  <c:v>45632</c:v>
+                </c:pt>
+                <c:pt idx="231" c:formatCode="yyyy/m/d">
+                  <c:v>45635</c:v>
+                </c:pt>
+                <c:pt idx="232" c:formatCode="yyyy/m/d">
+                  <c:v>45636</c:v>
+                </c:pt>
+                <c:pt idx="233" c:formatCode="yyyy/m/d">
+                  <c:v>45637</c:v>
+                </c:pt>
+                <c:pt idx="234" c:formatCode="yyyy/m/d">
+                  <c:v>45638</c:v>
+                </c:pt>
+                <c:pt idx="235" c:formatCode="yyyy/m/d">
+                  <c:v>45639</c:v>
+                </c:pt>
+                <c:pt idx="236" c:formatCode="yyyy/m/d">
+                  <c:v>45642</c:v>
+                </c:pt>
+                <c:pt idx="237" c:formatCode="yyyy/m/d">
+                  <c:v>45643</c:v>
+                </c:pt>
+                <c:pt idx="238" c:formatCode="yyyy/m/d">
+                  <c:v>45644</c:v>
+                </c:pt>
+                <c:pt idx="239" c:formatCode="yyyy/m/d">
+                  <c:v>45645</c:v>
+                </c:pt>
+                <c:pt idx="240" c:formatCode="yyyy/m/d">
+                  <c:v>45646</c:v>
+                </c:pt>
+                <c:pt idx="241" c:formatCode="yyyy/m/d">
+                  <c:v>45649</c:v>
+                </c:pt>
+                <c:pt idx="242" c:formatCode="yyyy/m/d">
+                  <c:v>45650</c:v>
+                </c:pt>
+                <c:pt idx="243" c:formatCode="yyyy/m/d">
+                  <c:v>45651</c:v>
+                </c:pt>
+                <c:pt idx="244" c:formatCode="yyyy/m/d">
+                  <c:v>45652</c:v>
+                </c:pt>
+                <c:pt idx="245" c:formatCode="yyyy/m/d">
+                  <c:v>45653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>涨跌停数量!$C$2:$C$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="246"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="868857955"/>
+        <c:axId val="770414264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="868857955"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="770414264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="770414264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="868857955"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -11194,6 +11322,15 @@
                 <c:pt idx="21">
                   <c:v>1622</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>13239</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7823.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12041,6 +12178,15 @@
                 <c:pt idx="21">
                   <c:v>249910</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>251325.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>264415.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>267386.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12872,6 +13018,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>251325.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>264415.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>267386.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>259454.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14058,6 +14213,15 @@
                 <c:pt idx="26">
                   <c:v>4397</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-967</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1206</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14935,6 +15099,15 @@
                 <c:pt idx="26">
                   <c:v>120255</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>124652</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>124925</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>121958</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15796,6 +15969,15 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>124652</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>124925</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>121958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19527,6 +19709,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>576580</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>52705</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4305300" y="187325"/>
+        <a:ext cx="76700380" cy="4837430"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -19546,41 +19763,6 @@
       <xdr:xfrm>
         <a:off x="2847975" y="187325"/>
         <a:ext cx="71347330" cy="5114290"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>117</xdr:col>
-      <xdr:colOff>576580</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>52705</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="4305300" y="187325"/>
-        <a:ext cx="76700380" cy="4837430"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19614,7 +19796,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7820660" y="520700"/>
+        <a:off x="7849235" y="520700"/>
         <a:ext cx="71958200" cy="7990205"/>
       </xdr:xfrm>
       <a:graphic>
@@ -19633,13 +19815,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19685</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>64135</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>110</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -19649,8 +19831,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3705860" y="235585"/>
-        <a:ext cx="71995030" cy="4704715"/>
+        <a:off x="4352925" y="198120"/>
+        <a:ext cx="68700650" cy="4742180"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19916,7 +20098,7 @@
   <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:C30"/>
+      <selection activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -20236,10 +20418,10 @@
       <c r="A29" s="2">
         <v>45342</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="1">
         <v>2922</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="1">
         <v>7894</v>
       </c>
     </row>
@@ -20247,26 +20429,44 @@
       <c r="A30" s="2">
         <v>45343</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="1">
         <v>2951</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="1">
         <v>9803</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>45344</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="1">
+        <v>2988</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>45345</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="1">
+        <v>3004</v>
+      </c>
+      <c r="C32" s="1">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>45348</v>
+      </c>
+      <c r="B33" s="13">
+        <v>2977</v>
+      </c>
+      <c r="C33" s="13">
+        <v>9891</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -21381,8 +21581,8 @@
   <sheetPr/>
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:G30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -21494,7 +21694,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33">
+      <c r="A7" s="31">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -21509,7 +21709,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="33">
+      <c r="A8" s="31">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -21598,18 +21798,18 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="14" s="32" customFormat="1" spans="1:7">
-      <c r="A14" s="34">
+    <row r="14" s="30" customFormat="1" spans="1:7">
+      <c r="A14" s="32">
         <v>45313</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="33">
         <v>-499</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33">
         <v>10.7</v>
       </c>
     </row>
@@ -21680,36 +21880,36 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" s="32" customFormat="1" spans="1:7">
-      <c r="A20" s="34">
+    <row r="20" s="30" customFormat="1" spans="1:7">
+      <c r="A20" s="32">
         <v>45321</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="33">
         <v>-306.4</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35">
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33">
         <v>17.4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="36">
+      <c r="A21" s="34">
         <v>45322</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="35">
         <v>-329</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35">
         <v>37</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="36"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
@@ -21816,14 +22016,14 @@
       <c r="A29" s="2">
         <v>45342</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="1">
         <v>-40.9</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
         <v>-1.2</v>
       </c>
     </row>
@@ -21831,38 +22031,92 @@
       <c r="A30" s="2">
         <v>45343</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="1">
         <v>90.2</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="1">
         <v>142.2</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="1">
         <v>-52</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="1">
         <v>-132.6</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="1">
         <v>42.4</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>45344</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="1">
+        <v>-6.2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42.2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-49.4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-12.6</v>
+      </c>
+      <c r="F31" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="G31" s="1">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>45345</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="1">
+        <v>-36.2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>18.9</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-55</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-15.3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>45348</v>
+      </c>
+      <c r="B33" s="13">
+        <v>-193</v>
+      </c>
+      <c r="C33" s="13">
+        <v>-76.5</v>
+      </c>
+      <c r="D33" s="13">
+        <v>-116.6</v>
+      </c>
+      <c r="E33" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="F33" s="13">
+        <v>185.5</v>
+      </c>
+      <c r="G33" s="13">
+        <v>-13.1</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -22975,10 +23229,1563 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D247"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1876</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3236</v>
+      </c>
+      <c r="D2" s="1">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B3" s="1">
+        <v>506</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4759</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B4" s="1">
+        <v>388</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4896</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3449</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1679</v>
+      </c>
+      <c r="D5" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1312</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3818</v>
+      </c>
+      <c r="D6" s="1">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4469</v>
+      </c>
+      <c r="C7" s="1">
+        <v>760</v>
+      </c>
+      <c r="D7" s="1">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1401</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3753</v>
+      </c>
+      <c r="D8" s="1">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1991</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3115</v>
+      </c>
+      <c r="D9" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1632</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3520</v>
+      </c>
+      <c r="D10" s="1">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B11" s="1">
+        <v>280</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5035</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1670</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3539</v>
+      </c>
+      <c r="D12" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1044</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4176</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B14" s="1">
+        <v>147</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5184</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:4">
+      <c r="A15" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2977</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2199</v>
+      </c>
+      <c r="D15" s="1">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:4">
+      <c r="A16" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4016</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1237</v>
+      </c>
+      <c r="D16" s="1">
+        <v>76.4</v>
+      </c>
+    </row>
+    <row r="17" s="10" customFormat="1" spans="1:4">
+      <c r="A17" s="28">
+        <v>45316</v>
+      </c>
+      <c r="B17" s="24">
+        <v>4885</v>
+      </c>
+      <c r="C17" s="24">
+        <v>427</v>
+      </c>
+      <c r="D17" s="24">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:4">
+      <c r="A18" s="2">
+        <v>45317</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2144</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3032</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:4">
+      <c r="A19" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B19" s="1">
+        <v>486</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4822</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B20" s="1">
+        <v>313</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5007</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B21" s="1">
+        <v>489</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4815</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1104</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4163</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:4">
+      <c r="A23" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B23" s="1">
+        <v>389</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4926</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B24" s="1">
+        <v>427</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4898</v>
+      </c>
+      <c r="D24" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="28">
+        <v>45328</v>
+      </c>
+      <c r="B25" s="24">
+        <v>3829</v>
+      </c>
+      <c r="C25" s="24">
+        <v>1465</v>
+      </c>
+      <c r="D25" s="24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2210</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3089</v>
+      </c>
+      <c r="D26" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:4">
+      <c r="A27" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4803</v>
+      </c>
+      <c r="C27" s="1">
+        <v>508</v>
+      </c>
+      <c r="D27" s="1">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4258</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1037</v>
+      </c>
+      <c r="D28" s="1">
+        <v>80.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3578</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1569</v>
+      </c>
+      <c r="D29" s="1">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4106</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1109</v>
+      </c>
+      <c r="D30" s="1">
+        <v>78.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4583</v>
+      </c>
+      <c r="C31" s="1">
+        <v>613</v>
+      </c>
+      <c r="D31" s="1">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4399</v>
+      </c>
+      <c r="C32" s="1">
+        <v>825</v>
+      </c>
+      <c r="D32" s="1">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B33" s="13">
+        <v>3687</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1513</v>
+      </c>
+      <c r="D33" s="13">
+        <v>70.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2">
+        <v>45349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2">
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2">
+        <v>45358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2">
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2">
+        <v>45362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2">
+        <v>45363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2">
+        <v>45364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2">
+        <v>45365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2">
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2">
+        <v>45379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2">
+        <v>45380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2">
+        <v>45387</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2">
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2">
+        <v>45408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2">
+        <v>45411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2">
+        <v>45415</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2">
+        <v>45421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2">
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2">
+        <v>45447</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2">
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2">
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2">
+        <v>45460</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2">
+        <v>45461</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="2">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="2">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="2">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="2">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="2">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="2">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="2">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="2">
+        <v>45484</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="2">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="2">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="2">
+        <v>45489</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2">
+        <v>45491</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="2">
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="2">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2">
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="2">
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="2">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="2">
+        <v>45502</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="2">
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="2">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="2">
+        <v>45506</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="2">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="2">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="2">
+        <v>45511</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="2">
+        <v>45512</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="2">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="2">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="2">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="2">
+        <v>45518</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="2">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="2">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="2">
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="2">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="2">
+        <v>45525</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="2">
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="2">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="2">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="2">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="2">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="2">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="2">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="2">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="2">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="2">
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="2">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="2">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="2">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="2">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="2">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="2">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="2">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="2">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="2">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="2">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="2">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="2">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="2">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="2">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="2">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="2">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="2">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="2">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="2">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="2">
+        <v>45574</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="2">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="2">
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="2">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="2">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="2">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2">
+        <v>45583</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="2">
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="2">
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="2">
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="2">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="2">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="2">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="2">
+        <v>45595</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="2">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="2">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="2">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="2">
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="2">
+        <v>45602</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="2">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="2">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="2">
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="2">
+        <v>45608</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="2">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="2">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="2">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="2">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="2">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="2">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="2">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="2">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="2">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="2">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="2">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="2">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="2">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="2">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="2">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="2">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="2">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="2">
+        <v>45632</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="2">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="2">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="2">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="2">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="2">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="2">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="2">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="2">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="2">
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="2">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="2">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="2">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="2">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="2">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="2">
+        <v>45653</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:C30"/>
+      <selection activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -22991,10 +24798,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -23298,10 +25105,10 @@
       <c r="A29" s="2">
         <v>45342</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="1">
         <v>155</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -23309,1552 +25116,44 @@
       <c r="A30" s="2">
         <v>45343</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="1">
         <v>155</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>45344</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="1">
+        <v>96</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>45345</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="1">
+        <v>141</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>45348</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2">
-        <v>45349</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2">
-        <v>45350</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2">
-        <v>45356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2">
-        <v>45357</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2">
-        <v>45358</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="2">
-        <v>45359</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2">
-        <v>45362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="2">
-        <v>45364</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="2">
-        <v>45365</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="2">
-        <v>45366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="2">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="2">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="2">
-        <v>45371</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="2">
-        <v>45372</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="2">
-        <v>45373</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="2">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="2">
-        <v>45377</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="2">
-        <v>45378</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="2">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="2">
-        <v>45380</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="2">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="2">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="2">
-        <v>45385</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="2">
-        <v>45386</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="2">
-        <v>45387</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="2">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="2">
-        <v>45391</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="2">
-        <v>45392</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="2">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="2">
-        <v>45394</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="2">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="2">
-        <v>45398</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="2">
-        <v>45399</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="2">
-        <v>45400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="2">
-        <v>45401</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="2">
-        <v>45404</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="2">
-        <v>45405</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="2">
-        <v>45406</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="2">
-        <v>45407</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="2">
-        <v>45408</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="2">
-        <v>45411</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="2">
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="2">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="2">
-        <v>45414</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="2">
-        <v>45415</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="2">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="2">
-        <v>45419</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="2">
-        <v>45420</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="2">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="2">
-        <v>45422</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="2">
-        <v>45425</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="2">
-        <v>45426</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="2">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="2">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="2">
-        <v>45429</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="2">
-        <v>45432</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="2">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="2">
-        <v>45434</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="2">
-        <v>45435</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="2">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="2">
-        <v>45439</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="2">
-        <v>45440</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="2">
-        <v>45441</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="2">
-        <v>45442</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="2">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="2">
-        <v>45446</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="2">
-        <v>45447</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="2">
-        <v>45448</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="2">
-        <v>45449</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="2">
-        <v>45450</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="2">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="2">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="2">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="2">
-        <v>45456</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="2">
-        <v>45457</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="2">
-        <v>45460</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="2">
-        <v>45461</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="2">
-        <v>45462</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="2">
-        <v>45463</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="2">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="2">
-        <v>45467</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="2">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="2">
-        <v>45469</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="2">
-        <v>45470</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="2">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="2">
-        <v>45475</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="2">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="2">
-        <v>45477</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="2">
-        <v>45478</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="2">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="2">
-        <v>45482</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="2">
-        <v>45483</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="2">
-        <v>45484</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="2">
-        <v>45485</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="2">
-        <v>45488</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="2">
-        <v>45489</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="2">
-        <v>45490</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="2">
-        <v>45491</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="2">
-        <v>45492</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="2">
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="2">
-        <v>45496</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="2">
-        <v>45497</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="2">
-        <v>45498</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="2">
-        <v>45502</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="2">
-        <v>45503</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="2">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="2">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="2">
-        <v>45506</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="2">
-        <v>45509</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="2">
-        <v>45510</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="2">
-        <v>45511</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="2">
-        <v>45512</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="2">
-        <v>45513</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="2">
-        <v>45516</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="2">
-        <v>45517</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="2">
-        <v>45518</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="2">
-        <v>45519</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="2">
-        <v>45520</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="2">
-        <v>45523</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="2">
-        <v>45524</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="2">
-        <v>45525</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="2">
-        <v>45526</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="2">
-        <v>45527</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="2">
-        <v>45530</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="2">
-        <v>45531</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="2">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="2">
-        <v>45533</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="2">
-        <v>45534</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="2">
-        <v>45537</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="2">
-        <v>45538</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="2">
-        <v>45539</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="2">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="2">
-        <v>45541</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="2">
-        <v>45544</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="2">
-        <v>45545</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="2">
-        <v>45546</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="2">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="2">
-        <v>45548</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="2">
-        <v>45551</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="2">
-        <v>45552</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="2">
-        <v>45553</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="2">
-        <v>45554</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="2">
-        <v>45555</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="2">
-        <v>45558</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="2">
-        <v>45559</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="2">
-        <v>45560</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="2">
-        <v>45561</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="2">
-        <v>45562</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="2">
-        <v>45572</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="2">
-        <v>45573</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="2">
-        <v>45574</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="2">
-        <v>45575</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="2">
-        <v>45576</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="2">
-        <v>45579</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="2">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="2">
-        <v>45581</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="2">
-        <v>45582</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="2">
-        <v>45583</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="2">
-        <v>45586</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="2">
-        <v>45587</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="2">
-        <v>45588</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="2">
-        <v>45589</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="2">
-        <v>45590</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="2">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="2">
-        <v>45594</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="2">
-        <v>45595</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="2">
-        <v>45596</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="2">
-        <v>45600</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="2">
-        <v>45601</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="2">
-        <v>45602</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="2">
-        <v>45603</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="2">
-        <v>45604</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="2">
-        <v>45607</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="2">
-        <v>45608</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="2">
-        <v>45609</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="2">
-        <v>45610</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="2">
-        <v>45611</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="2">
-        <v>45615</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="2">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="2">
-        <v>45617</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="2">
-        <v>45618</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="2">
-        <v>45621</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="2">
-        <v>45622</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="2">
-        <v>45623</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="2">
-        <v>45624</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" s="2">
-        <v>45625</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="2">
-        <v>45628</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="2">
-        <v>45629</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="2">
-        <v>45630</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="2">
-        <v>45631</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="2">
-        <v>45632</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="2">
-        <v>45635</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="2">
-        <v>45636</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="2">
-        <v>45637</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="2">
-        <v>45638</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="2">
-        <v>45639</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="2">
-        <v>45642</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" s="2">
-        <v>45643</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="2">
-        <v>45644</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="2">
-        <v>45645</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="2">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="2">
-        <v>45649</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="2">
-        <v>45650</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="2">
-        <v>45651</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="2">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="2">
-        <v>45653</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D247"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="11.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>45295</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1876</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3236</v>
-      </c>
-      <c r="D2" s="1">
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
-        <v>45296</v>
-      </c>
-      <c r="B3" s="1">
-        <v>506</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4759</v>
-      </c>
-      <c r="D3" s="1">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
-        <v>45299</v>
-      </c>
-      <c r="B4" s="1">
-        <v>388</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4896</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
-        <v>45300</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3449</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1679</v>
-      </c>
-      <c r="D5" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
-        <v>45301</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1312</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3818</v>
-      </c>
-      <c r="D6" s="1">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
-        <v>45302</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4469</v>
-      </c>
-      <c r="C7" s="1">
-        <v>760</v>
-      </c>
-      <c r="D7" s="1">
-        <v>85.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
-        <v>45303</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1401</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3753</v>
-      </c>
-      <c r="D8" s="1">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
-        <v>45306</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1991</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3115</v>
-      </c>
-      <c r="D9" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
-        <v>45307</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1632</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3520</v>
-      </c>
-      <c r="D10" s="1">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
-        <v>45308</v>
-      </c>
-      <c r="B11" s="1">
-        <v>280</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5035</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
-        <v>45309</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1670</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3539</v>
-      </c>
-      <c r="D12" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
-        <v>45310</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1044</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4176</v>
-      </c>
-      <c r="D13" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>45313</v>
-      </c>
-      <c r="B14" s="1">
-        <v>147</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5184</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:4">
-      <c r="A15" s="2">
-        <v>45314</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2977</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2199</v>
-      </c>
-      <c r="D15" s="1">
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:4">
-      <c r="A16" s="2">
-        <v>45315</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4016</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1237</v>
-      </c>
-      <c r="D16" s="1">
-        <v>76.4</v>
-      </c>
-    </row>
-    <row r="17" s="29" customFormat="1" spans="1:4">
-      <c r="A17" s="30">
-        <v>45316</v>
-      </c>
-      <c r="B17" s="29">
-        <v>4885</v>
-      </c>
-      <c r="C17" s="29">
-        <v>427</v>
-      </c>
-      <c r="D17" s="29">
-        <v>91.9</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="2">
-        <v>45317</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2144</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3032</v>
-      </c>
-      <c r="D18" s="1">
-        <v>41.4</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:4">
-      <c r="A19" s="2">
-        <v>45320</v>
-      </c>
-      <c r="B19" s="1">
-        <v>486</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4822</v>
-      </c>
-      <c r="D19" s="1">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
-        <v>45321</v>
-      </c>
-      <c r="B20" s="1">
-        <v>313</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5007</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
-        <v>45322</v>
-      </c>
-      <c r="B21" s="1">
-        <v>489</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4815</v>
-      </c>
-      <c r="D21" s="1">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
-        <v>45323</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1104</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4163</v>
-      </c>
-      <c r="D22" s="1">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:4">
-      <c r="A23" s="2">
-        <v>45324</v>
-      </c>
-      <c r="B23" s="1">
-        <v>389</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4926</v>
-      </c>
-      <c r="D23" s="1">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
-        <v>45327</v>
-      </c>
-      <c r="B24" s="1">
-        <v>427</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4898</v>
-      </c>
-      <c r="D24" s="31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="30">
-        <v>45328</v>
-      </c>
-      <c r="B25" s="29">
-        <v>3829</v>
-      </c>
-      <c r="C25" s="29">
-        <v>1465</v>
-      </c>
-      <c r="D25" s="29">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
-        <v>45329</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2210</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3089</v>
-      </c>
-      <c r="D26" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:4">
-      <c r="A27" s="2">
-        <v>45330</v>
-      </c>
-      <c r="B27" s="1">
-        <v>4803</v>
-      </c>
-      <c r="C27" s="1">
-        <v>508</v>
-      </c>
-      <c r="D27" s="1">
-        <v>90.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
-        <v>45341</v>
-      </c>
-      <c r="B28" s="1">
-        <v>4258</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1037</v>
-      </c>
-      <c r="D28" s="1">
-        <v>80.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
-        <v>45342</v>
-      </c>
-      <c r="B29" s="15">
-        <v>3578</v>
-      </c>
-      <c r="C29" s="15">
-        <v>1569</v>
-      </c>
-      <c r="D29" s="15">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
-        <v>45343</v>
-      </c>
-      <c r="B30" s="15">
-        <v>4106</v>
-      </c>
-      <c r="C30" s="15">
-        <v>1109</v>
-      </c>
-      <c r="D30" s="15">
-        <v>78.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2">
-        <v>45344</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2">
-        <v>45345</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2">
-        <v>45348</v>
+      <c r="B33" s="13">
+        <v>124</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -25940,7 +26239,7 @@
   <dimension ref="A1:G240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -25951,6 +26250,7 @@
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -25997,7 +26297,7 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
@@ -26005,16 +26305,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>45308</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <v>186745</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>179605</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>-7140</v>
       </c>
       <c r="E4" s="1"/>
@@ -26026,7 +26326,7 @@
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
@@ -26041,7 +26341,7 @@
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
@@ -26049,20 +26349,20 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="16" customFormat="1" spans="1:5">
-      <c r="A7" s="21">
+    <row r="7" s="8" customFormat="1" spans="1:5">
+      <c r="A7" s="17">
         <v>45313</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="11">
         <v>172869</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="18">
         <v>159060</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="11">
         <v>-13809</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
       <c r="A8" s="2">
@@ -26071,13 +26371,13 @@
       <c r="B8" s="1">
         <v>159060</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>160802</v>
       </c>
       <c r="D8" s="1">
         <v>1742</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="2">
@@ -26086,13 +26386,13 @@
       <c r="B9" s="1">
         <v>160802</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>166590</v>
       </c>
       <c r="D9" s="1">
         <v>5788</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="2">
@@ -26101,13 +26401,13 @@
       <c r="B10" s="1">
         <v>166590</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>327640</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>11050</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="2">
@@ -26116,57 +26416,57 @@
       <c r="B11" s="1">
         <v>327640</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>380028</v>
       </c>
       <c r="D11" s="1">
         <v>2388</v>
       </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" s="17" customFormat="1" spans="1:4">
-      <c r="A12" s="21">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="1:4">
+      <c r="A12" s="17">
         <v>45320</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="11">
         <v>380028</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="18">
         <v>366741</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="18">
         <v>-13287</v>
       </c>
     </row>
-    <row r="13" s="16" customFormat="1" spans="1:5">
-      <c r="A13" s="21">
+    <row r="13" s="8" customFormat="1" spans="1:5">
+      <c r="A13" s="17">
         <v>45321</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="11">
         <v>366741</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="18">
         <v>349327</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="18">
         <v>-17414</v>
       </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" s="16" customFormat="1" spans="1:5">
-      <c r="A14" s="21">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" s="8" customFormat="1" spans="1:5">
+      <c r="A14" s="17">
         <v>45322</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="11">
         <v>349327</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="18">
         <v>330423</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="18">
         <v>-18904</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="2">
@@ -26175,43 +26475,43 @@
       <c r="B15" s="1">
         <v>330423</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>326596</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>-3746</v>
       </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" s="16" customFormat="1" spans="1:5">
-      <c r="A16" s="24">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" s="8" customFormat="1" spans="1:5">
+      <c r="A16" s="19">
         <v>45324</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="20">
         <v>330423</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="21">
         <v>297670</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="21">
         <v>-36618</v>
       </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" s="16" customFormat="1" spans="1:5">
-      <c r="A17" s="24">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" s="8" customFormat="1" spans="1:5">
+      <c r="A17" s="19">
         <v>45327</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="20">
         <v>297670</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="21">
         <v>244693</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="21">
         <v>-52977</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="2">
@@ -26226,7 +26526,7 @@
       <c r="D18" s="1">
         <v>11207.5</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="1">
         <v>403062.61</v>
       </c>
@@ -26287,10 +26587,10 @@
       <c r="E21" s="1">
         <v>275095</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>483454</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="22">
         <v>241972</v>
       </c>
     </row>
@@ -26298,22 +26598,22 @@
       <c r="A22" s="2">
         <v>45342</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="1">
         <v>248776</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="1">
         <v>249910</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="1">
         <v>1377.5</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="1">
         <v>483454</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="1">
         <v>478986</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="22">
         <v>237504</v>
       </c>
     </row>
@@ -26321,39 +26621,92 @@
       <c r="A23" s="2">
         <v>45343</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="1">
         <v>249910</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="1">
         <v>251325.6</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="1">
         <v>1622</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="1">
         <v>478986</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="1">
         <v>345067</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="22">
         <v>103586</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:1">
+    <row r="24" customFormat="1" spans="1:7">
       <c r="A24" s="2">
         <v>45344</v>
       </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:4">
+      <c r="B24" s="1">
+        <v>251325.6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>264415.9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>13239</v>
+      </c>
+      <c r="E24" s="1">
+        <v>345067</v>
+      </c>
+      <c r="F24" s="1">
+        <v>435058</v>
+      </c>
+      <c r="G24" s="23">
+        <v>402225.8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:7">
       <c r="A25" s="2">
         <v>45345</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" customFormat="1" spans="1:1">
-      <c r="A26" s="2">
+      <c r="B25" s="1">
+        <v>264415.9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>267386.1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3272</v>
+      </c>
+      <c r="E25" s="1">
+        <v>402225.8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>267386.1</v>
+      </c>
+      <c r="G25" s="24">
+        <v>39939</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:7">
+      <c r="A26" s="25">
         <v>45348</v>
+      </c>
+      <c r="B26" s="26">
+        <v>267386.1</v>
+      </c>
+      <c r="C26" s="26">
+        <v>259454.3</v>
+      </c>
+      <c r="D26" s="26">
+        <v>-7823.2</v>
+      </c>
+      <c r="E26" s="13">
+        <v>39939</v>
+      </c>
+      <c r="F26" s="13">
+        <v>496539</v>
+      </c>
+      <c r="G26" s="27">
+        <v>493404.8</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:1">
@@ -27438,8 +27791,8 @@
   <sheetPr/>
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -27578,17 +27931,17 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:4">
-      <c r="A10" s="12">
+    <row r="10" s="8" customFormat="1" spans="1:4">
+      <c r="A10" s="9">
         <v>45309</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>148686</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>137065</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>-11621</v>
       </c>
     </row>
@@ -27616,7 +27969,7 @@
       <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>13503</v>
       </c>
     </row>
@@ -27658,7 +28011,7 @@
       <c r="C15" s="1">
         <v>137236</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>-3976</v>
       </c>
     </row>
@@ -27672,7 +28025,7 @@
       <c r="C16" s="1">
         <v>139014</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>1778</v>
       </c>
     </row>
@@ -27826,13 +28179,13 @@
       <c r="A27" s="2">
         <v>45342</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="1">
         <v>130786</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="1">
         <v>120255</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="11">
         <v>-10231</v>
       </c>
     </row>
@@ -27840,29 +28193,59 @@
       <c r="A28" s="2">
         <v>45343</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="1">
         <v>120255</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="1">
         <v>124652</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="1">
         <v>4397</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:1">
+    <row r="29" customFormat="1" spans="1:4">
       <c r="A29" s="2">
         <v>45344</v>
       </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:1">
+      <c r="B29" s="1">
+        <v>124652</v>
+      </c>
+      <c r="C29" s="1">
+        <v>124925</v>
+      </c>
+      <c r="D29" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:5">
       <c r="A30" s="2">
         <v>45345</v>
       </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:1">
+      <c r="B30" s="1">
+        <v>124925</v>
+      </c>
+      <c r="C30" s="1">
+        <v>121958</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-967</v>
+      </c>
+      <c r="E30">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:4">
       <c r="A31" s="2">
         <v>45348</v>
+      </c>
+      <c r="B31" s="13">
+        <v>121958</v>
+      </c>
+      <c r="C31" s="13">
+        <v>120752</v>
+      </c>
+      <c r="D31" s="13">
+        <v>-1206</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:1">
@@ -28945,9 +29328,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -29079,14 +29462,25 @@
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="1:3">
-      <c r="A14" s="8">
+      <c r="A14" s="2">
         <v>45343</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="15" ht="84" customHeight="1" spans="1:3">
+      <c r="A15" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -29108,7 +29502,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -29124,16 +29518,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -29141,16 +29535,16 @@
         <v>45316</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -29158,13 +29552,13 @@
         <v>45316</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1">
         <v>50000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -29173,16 +29567,16 @@
         <v>45317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <v>50000</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -29190,13 +29584,13 @@
         <v>45329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1">
         <v>40000</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="6"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>日期</t>
   </si>
@@ -251,6 +251,15 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>昨日市场下跌，结束了指数8连阳的反弹。指数从3008跌到了最低 2967，但是看A50的形态，1H MACD 绿柱很多，有走红柱的倾向；觉得反弹可能还会持续到3月份，所以尾盘满仓了。</t>
+  </si>
+  <si>
+    <t>今天市场上涨比达到了94.7%，市场处于狂热状态 ----- 对于狂热的市场，应该不会一下子冷却下来，最起码会按照惯性保持热度一段时间(跟自然界的木炭燃烧，或是开水沸腾一个道理)。如果市场的上涨动力消失了，那么按照惯性上涨的那1天也是安全的出场机会。
+今天主力资金流入140亿，大户资金流入156亿，北向流入122亿，资金热度前所未有。
+散户净流出36亿，有点反常。
+尾盘满仓，仔细观察明天上午的市场情绪。</t>
   </si>
   <si>
     <t>资金出入方向</t>
@@ -963,7 +972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,6 +995,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -2277,6 +2292,9 @@
                 <c:pt idx="31">
                   <c:v>9891</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>9900</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3174,6 +3192,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2977</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3015.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4382,6 +4403,9 @@
                 <c:pt idx="31">
                   <c:v>-193</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>140.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5261,6 +5285,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-13.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>122.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6387,6 +6414,9 @@
                 <c:pt idx="31">
                   <c:v>70.9</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>94.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7285,6 +7315,9 @@
                 <c:pt idx="31">
                   <c:v>3687</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>5031</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8167,6 +8200,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1513</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9369,6 +9405,9 @@
                 <c:pt idx="31">
                   <c:v>124</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>115</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10248,6 +10287,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11331,6 +11373,9 @@
                 <c:pt idx="24">
                   <c:v>-7823.2</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>16215.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12187,6 +12232,9 @@
                 <c:pt idx="24">
                   <c:v>267386.1</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>259454.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13027,6 +13075,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>259454.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>275197.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14222,6 +14273,9 @@
                 <c:pt idx="29">
                   <c:v>-1206</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>6528</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15108,6 +15162,9 @@
                 <c:pt idx="29">
                   <c:v>121958</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>120752</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15978,6 +16035,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>120752</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>127280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20097,8 +20157,8 @@
   <sheetPr/>
   <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:C33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -20462,16 +20522,22 @@
       <c r="A33" s="2">
         <v>45348</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="1">
         <v>2977</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="1">
         <v>9891</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>45349</v>
+      </c>
+      <c r="B34" s="15">
+        <v>3015.5</v>
+      </c>
+      <c r="C34" s="15">
+        <v>9900</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -21581,8 +21647,8 @@
   <sheetPr/>
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:G33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -21694,7 +21760,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="31">
+      <c r="A7" s="33">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -21709,7 +21775,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="31">
+      <c r="A8" s="33">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -21798,18 +21864,18 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="14" s="30" customFormat="1" spans="1:7">
-      <c r="A14" s="32">
+    <row r="14" s="32" customFormat="1" spans="1:7">
+      <c r="A14" s="34">
         <v>45313</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="35">
         <v>-499</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35">
         <v>10.7</v>
       </c>
     </row>
@@ -21880,36 +21946,36 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" s="30" customFormat="1" spans="1:7">
-      <c r="A20" s="32">
+    <row r="20" s="32" customFormat="1" spans="1:7">
+      <c r="A20" s="34">
         <v>45321</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="35">
         <v>-306.4</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35">
         <v>17.4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="34">
+      <c r="A21" s="36">
         <v>45322</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="37">
         <v>-329</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35">
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37">
         <v>37</v>
       </c>
-      <c r="H21" s="36"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
@@ -22100,28 +22166,46 @@
       <c r="A33" s="2">
         <v>45348</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="1">
         <v>-193</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="1">
         <v>-76.5</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="1">
         <v>-116.6</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="1">
         <v>7.6</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="1">
         <v>185.5</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="1">
         <v>-13.1</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>45349</v>
+      </c>
+      <c r="B34" s="15">
+        <v>140.5</v>
+      </c>
+      <c r="C34" s="15">
+        <v>156</v>
+      </c>
+      <c r="D34" s="15">
+        <v>-15.4</v>
+      </c>
+      <c r="E34" s="15">
+        <v>-104.1</v>
+      </c>
+      <c r="F34" s="15">
+        <v>-36.4</v>
+      </c>
+      <c r="G34" s="15">
+        <v>122.5</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -23232,7 +23316,7 @@
   <dimension ref="A1:D247"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:D33"/>
+      <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -23464,17 +23548,17 @@
         <v>76.4</v>
       </c>
     </row>
-    <row r="17" s="10" customFormat="1" spans="1:4">
-      <c r="A17" s="28">
+    <row r="17" s="12" customFormat="1" spans="1:4">
+      <c r="A17" s="30">
         <v>45316</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="26">
         <v>4885</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="26">
         <v>427</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="26">
         <v>91.9</v>
       </c>
     </row>
@@ -23572,21 +23656,21 @@
       <c r="C24" s="1">
         <v>4898</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="28">
+      <c r="A25" s="30">
         <v>45328</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="26">
         <v>3829</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="26">
         <v>1465</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="26">
         <v>75</v>
       </c>
     </row>
@@ -23692,19 +23776,28 @@
       <c r="A33" s="2">
         <v>45348</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="1">
         <v>3687</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="1">
         <v>1513</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="1">
         <v>70.9</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
         <v>45349</v>
+      </c>
+      <c r="B34" s="15">
+        <v>5031</v>
+      </c>
+      <c r="C34" s="15">
+        <v>277</v>
+      </c>
+      <c r="D34" s="15">
+        <v>94.8</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -24785,7 +24878,7 @@
   <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:C33"/>
+      <selection activeCell="A34" sqref="A34:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -25149,16 +25242,22 @@
       <c r="A33" s="2">
         <v>45348</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="1">
         <v>124</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>45349</v>
+      </c>
+      <c r="B34" s="15">
+        <v>115</v>
+      </c>
+      <c r="C34" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -26238,8 +26337,8 @@
   <sheetPr/>
   <dimension ref="A1:G240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -26297,7 +26396,7 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="14">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
@@ -26305,16 +26404,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="14">
+      <c r="A4" s="16">
         <v>45308</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="17">
         <v>186745</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="18">
         <v>179605</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="17">
         <v>-7140</v>
       </c>
       <c r="E4" s="1"/>
@@ -26326,7 +26425,7 @@
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="14">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
@@ -26341,7 +26440,7 @@
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="14">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
@@ -26349,20 +26448,20 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:5">
-      <c r="A7" s="17">
+    <row r="7" s="10" customFormat="1" spans="1:5">
+      <c r="A7" s="19">
         <v>45313</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="13">
         <v>172869</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="20">
         <v>159060</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>-13809</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
       <c r="A8" s="2">
@@ -26371,13 +26470,13 @@
       <c r="B8" s="1">
         <v>159060</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="14">
         <v>160802</v>
       </c>
       <c r="D8" s="1">
         <v>1742</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="2">
@@ -26386,13 +26485,13 @@
       <c r="B9" s="1">
         <v>160802</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="14">
         <v>166590</v>
       </c>
       <c r="D9" s="1">
         <v>5788</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="2">
@@ -26401,13 +26500,13 @@
       <c r="B10" s="1">
         <v>166590</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="14">
         <v>327640</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="14">
         <v>11050</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="2">
@@ -26416,57 +26515,57 @@
       <c r="B11" s="1">
         <v>327640</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="14">
         <v>380028</v>
       </c>
       <c r="D11" s="1">
         <v>2388</v>
       </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="1:4">
-      <c r="A12" s="17">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" s="12" customFormat="1" spans="1:4">
+      <c r="A12" s="19">
         <v>45320</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="13">
         <v>380028</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="20">
         <v>366741</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="20">
         <v>-13287</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="1" spans="1:5">
-      <c r="A13" s="17">
+    <row r="13" s="10" customFormat="1" spans="1:5">
+      <c r="A13" s="19">
         <v>45321</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="13">
         <v>366741</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="20">
         <v>349327</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="20">
         <v>-17414</v>
       </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" s="8" customFormat="1" spans="1:5">
-      <c r="A14" s="17">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" s="10" customFormat="1" spans="1:5">
+      <c r="A14" s="19">
         <v>45322</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="13">
         <v>349327</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="20">
         <v>330423</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="20">
         <v>-18904</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="2">
@@ -26475,43 +26574,43 @@
       <c r="B15" s="1">
         <v>330423</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="14">
         <v>326596</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="14">
         <v>-3746</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" s="8" customFormat="1" spans="1:5">
-      <c r="A16" s="19">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="1:5">
+      <c r="A16" s="21">
         <v>45324</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="22">
         <v>330423</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="23">
         <v>297670</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="23">
         <v>-36618</v>
       </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" s="8" customFormat="1" spans="1:5">
-      <c r="A17" s="19">
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" s="10" customFormat="1" spans="1:5">
+      <c r="A17" s="21">
         <v>45327</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="22">
         <v>297670</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="23">
         <v>244693</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="23">
         <v>-52977</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="2">
@@ -26526,7 +26625,7 @@
       <c r="D18" s="1">
         <v>11207.5</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1">
         <v>403062.61</v>
       </c>
@@ -26587,10 +26686,10 @@
       <c r="E21" s="1">
         <v>275095</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="14">
         <v>483454</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="24">
         <v>241972</v>
       </c>
     </row>
@@ -26613,7 +26712,7 @@
       <c r="F22" s="1">
         <v>478986</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="24">
         <v>237504</v>
       </c>
     </row>
@@ -26636,7 +26735,7 @@
       <c r="F23" s="1">
         <v>345067</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="24">
         <v>103586</v>
       </c>
     </row>
@@ -26659,7 +26758,7 @@
       <c r="F24" s="1">
         <v>435058</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="25">
         <v>402225.8</v>
       </c>
     </row>
@@ -26682,36 +26781,54 @@
       <c r="F25" s="1">
         <v>267386.1</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="26">
         <v>39939</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:7">
-      <c r="A26" s="25">
+      <c r="A26" s="27">
         <v>45348</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="28">
         <v>267386.1</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="28">
         <v>259454.3</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="28">
         <v>-7823.2</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="1">
         <v>39939</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="1">
         <v>496539</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="25">
         <v>493404.8</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:1">
+    <row r="27" customFormat="1" spans="1:7">
       <c r="A27" s="2">
         <v>45349</v>
+      </c>
+      <c r="B27" s="15">
+        <v>259454.3</v>
+      </c>
+      <c r="C27" s="15">
+        <v>275197.6</v>
+      </c>
+      <c r="D27" s="15">
+        <v>16215.9</v>
+      </c>
+      <c r="E27" s="15">
+        <v>493404.8</v>
+      </c>
+      <c r="F27" s="15">
+        <v>499050.3</v>
+      </c>
+      <c r="G27" s="29">
+        <v>413020.7</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:1">
@@ -27792,7 +27909,7 @@
   <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D31"/>
+      <selection activeCell="B32" sqref="B32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -27931,17 +28048,17 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:4">
-      <c r="A10" s="9">
+    <row r="10" s="10" customFormat="1" spans="1:4">
+      <c r="A10" s="11">
         <v>45309</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="12">
         <v>148686</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="12">
         <v>137065</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="13">
         <v>-11621</v>
       </c>
     </row>
@@ -27969,7 +28086,7 @@
       <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="14">
         <v>13503</v>
       </c>
     </row>
@@ -28011,7 +28128,7 @@
       <c r="C15" s="1">
         <v>137236</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="14">
         <v>-3976</v>
       </c>
     </row>
@@ -28025,7 +28142,7 @@
       <c r="C16" s="1">
         <v>139014</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="14">
         <v>1778</v>
       </c>
     </row>
@@ -28185,7 +28302,7 @@
       <c r="C27" s="1">
         <v>120255</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="13">
         <v>-10231</v>
       </c>
     </row>
@@ -28238,19 +28355,28 @@
       <c r="A31" s="2">
         <v>45348</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="1">
         <v>121958</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="1">
         <v>120752</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="1">
         <v>-1206</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:1">
+    <row r="32" customFormat="1" spans="1:4">
       <c r="A32" s="2">
         <v>45349</v>
+      </c>
+      <c r="B32" s="15">
+        <v>120752</v>
+      </c>
+      <c r="C32" s="15">
+        <v>127280</v>
+      </c>
+      <c r="D32" s="15">
+        <v>6528</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:1">
@@ -29328,10 +29454,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -29378,7 +29504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="24" customHeight="1" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
@@ -29481,6 +29607,17 @@
       </c>
       <c r="C15" s="7" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="16" ht="93" customHeight="1" spans="1:3">
+      <c r="A16" s="8">
+        <v>45349</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -29501,7 +29638,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -29518,16 +29655,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -29535,16 +29672,16 @@
         <v>45316</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1">
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -29552,13 +29689,13 @@
         <v>45316</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1">
         <v>50000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -29567,16 +29704,16 @@
         <v>45317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>50000</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -29584,13 +29721,13 @@
         <v>45329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1">
         <v>40000</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="7"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>日期</t>
   </si>
@@ -262,6 +262,35 @@
 尾盘满仓，仔细观察明天上午的市场情绪。</t>
   </si>
   <si>
+    <t>市场情绪很热烈，要仔细观察市场的情绪变化。
+今天是股指期权的交割日，很有可能会出现大幅震荡的情况。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">昨天收盘的判断是对的，昨天市场情绪已经沸腾，早上如果没有快速冲高就应该立即离场的。
+早盘A50 指数快速下跌，其实应该对这个信号有反应的。对于盘面的感觉，还很愚钝，不敏感。
+1H 又出现了顶背离信号，要仔细观察，看看行情是不是告一段落了。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A股的国家队就像国民党，而空头主力就像共党游击队 ---- 国家队力量强，但是灵活性差，是干不过游击队的。</t>
+    </r>
+  </si>
+  <si>
     <t>资金出入方向</t>
   </si>
   <si>
@@ -489,6 +518,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -508,12 +543,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,11 +1026,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1021,19 +1047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1045,22 +1059,34 @@
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1070,9 +1096,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2295,6 +2318,9 @@
                 <c:pt idx="32">
                   <c:v>9900</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>13600</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3195,6 +3221,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3015.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4406,6 +4435,9 @@
                 <c:pt idx="32">
                   <c:v>140.5</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>-737.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5288,6 +5320,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5359,8 +5394,8 @@
         <c:axId val="692341428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="550"/>
-          <c:min val="-550"/>
+          <c:max val="450"/>
+          <c:min val="-750"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6417,6 +6452,9 @@
                 <c:pt idx="32">
                   <c:v>94.8</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7318,6 +7356,9 @@
                 <c:pt idx="32">
                   <c:v>5031</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>270</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8203,6 +8244,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9408,6 +9452,9 @@
                 <c:pt idx="32">
                   <c:v>115</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10290,6 +10337,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11376,6 +11426,9 @@
                 <c:pt idx="25">
                   <c:v>16215.9</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>-27515.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12235,6 +12288,9 @@
                 <c:pt idx="25">
                   <c:v>259454.3</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>275197.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13078,6 +13134,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>275197.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>247357.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14276,6 +14335,9 @@
                 <c:pt idx="30">
                   <c:v>6528</c:v>
                 </c:pt>
+                <c:pt idx="31" c:formatCode="#,##0">
+                  <c:v>-16933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15165,6 +15227,9 @@
                 <c:pt idx="30">
                   <c:v>120752</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>127280</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16038,6 +16103,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>127280</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>110347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19839,8 +19907,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
@@ -19856,8 +19924,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7849235" y="520700"/>
-        <a:ext cx="71958200" cy="7990205"/>
+        <a:off x="8877935" y="520700"/>
+        <a:ext cx="70929500" cy="7990205"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20158,7 +20226,7 @@
   <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="A35" sqref="A35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -20533,16 +20601,22 @@
       <c r="A34" s="2">
         <v>45349</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="1">
         <v>3015.5</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="1">
         <v>9900</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>45350</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2957</v>
+      </c>
+      <c r="C35" s="1">
+        <v>13600</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -21647,8 +21721,8 @@
   <sheetPr/>
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -21760,7 +21834,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33">
+      <c r="A7" s="8">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -21775,7 +21849,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="33">
+      <c r="A8" s="8">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -21864,18 +21938,18 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="14" s="32" customFormat="1" spans="1:7">
-      <c r="A14" s="34">
+    <row r="14" s="31" customFormat="1" spans="1:7">
+      <c r="A14" s="32">
         <v>45313</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="33">
         <v>-499</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33">
         <v>10.7</v>
       </c>
     </row>
@@ -21946,36 +22020,36 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" s="32" customFormat="1" spans="1:7">
-      <c r="A20" s="34">
+    <row r="20" s="31" customFormat="1" spans="1:7">
+      <c r="A20" s="32">
         <v>45321</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="33">
         <v>-306.4</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35">
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33">
         <v>17.4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="36">
+      <c r="A21" s="34">
         <v>45322</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="35">
         <v>-329</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35">
         <v>37</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="36"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
@@ -22189,28 +22263,46 @@
       <c r="A34" s="2">
         <v>45349</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="1">
         <v>140.5</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="1">
         <v>156</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="1">
         <v>-15.4</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="1">
         <v>-104.1</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="1">
         <v>-36.4</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="1">
         <v>122.5</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>45350</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-737.3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-276.1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-461.2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>16.9</v>
+      </c>
+      <c r="F35" s="1">
+        <v>720.4</v>
+      </c>
+      <c r="G35" s="1">
+        <v>13.4</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -23315,8 +23407,8 @@
   <sheetPr/>
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D34"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -23548,8 +23640,8 @@
         <v>76.4</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1" spans="1:4">
-      <c r="A17" s="30">
+    <row r="17" s="11" customFormat="1" spans="1:4">
+      <c r="A17" s="29">
         <v>45316</v>
       </c>
       <c r="B17" s="26">
@@ -23656,12 +23748,12 @@
       <c r="C24" s="1">
         <v>4898</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="30">
+      <c r="A25" s="29">
         <v>45328</v>
       </c>
       <c r="B25" s="26">
@@ -23790,19 +23882,28 @@
       <c r="A34" s="2">
         <v>45349</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="1">
         <v>5031</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="1">
         <v>277</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="1">
         <v>94.8</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:4">
       <c r="A35" s="2">
         <v>45350</v>
+      </c>
+      <c r="B35" s="1">
+        <v>270</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5057</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5.1</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -24878,7 +24979,7 @@
   <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:C34"/>
+      <selection activeCell="A35" sqref="A35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -25253,16 +25354,22 @@
       <c r="A34" s="2">
         <v>45349</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="1">
         <v>115</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>45350</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -26337,8 +26444,8 @@
   <sheetPr/>
   <dimension ref="A1:G240"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -26396,7 +26503,7 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
@@ -26425,7 +26532,7 @@
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
@@ -26440,7 +26547,7 @@
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
@@ -26448,20 +26555,20 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="10" customFormat="1" spans="1:5">
+    <row r="7" s="9" customFormat="1" spans="1:5">
       <c r="A7" s="19">
         <v>45313</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>172869</v>
       </c>
       <c r="C7" s="20">
         <v>159060</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>-13809</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
       <c r="A8" s="2">
@@ -26470,13 +26577,13 @@
       <c r="B8" s="1">
         <v>159060</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>160802</v>
       </c>
       <c r="D8" s="1">
         <v>1742</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="2">
@@ -26485,13 +26592,13 @@
       <c r="B9" s="1">
         <v>160802</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>166590</v>
       </c>
       <c r="D9" s="1">
         <v>5788</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="2">
@@ -26500,13 +26607,13 @@
       <c r="B10" s="1">
         <v>166590</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>327640</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>11050</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="2">
@@ -26515,19 +26622,19 @@
       <c r="B11" s="1">
         <v>327640</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>380028</v>
       </c>
       <c r="D11" s="1">
         <v>2388</v>
       </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" s="12" customFormat="1" spans="1:4">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" s="11" customFormat="1" spans="1:4">
       <c r="A12" s="19">
         <v>45320</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>380028</v>
       </c>
       <c r="C12" s="20">
@@ -26537,11 +26644,11 @@
         <v>-13287</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="1" spans="1:5">
+    <row r="13" s="9" customFormat="1" spans="1:5">
       <c r="A13" s="19">
         <v>45321</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>366741</v>
       </c>
       <c r="C13" s="20">
@@ -26550,13 +26657,13 @@
       <c r="D13" s="20">
         <v>-17414</v>
       </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" s="10" customFormat="1" spans="1:5">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" s="9" customFormat="1" spans="1:5">
       <c r="A14" s="19">
         <v>45322</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>349327</v>
       </c>
       <c r="C14" s="20">
@@ -26565,7 +26672,7 @@
       <c r="D14" s="20">
         <v>-18904</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="2">
@@ -26574,15 +26681,15 @@
       <c r="B15" s="1">
         <v>330423</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>326596</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>-3746</v>
       </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" s="10" customFormat="1" spans="1:5">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" s="9" customFormat="1" spans="1:5">
       <c r="A16" s="21">
         <v>45324</v>
       </c>
@@ -26595,9 +26702,9 @@
       <c r="D16" s="23">
         <v>-36618</v>
       </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" s="10" customFormat="1" spans="1:5">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" s="9" customFormat="1" spans="1:5">
       <c r="A17" s="21">
         <v>45327</v>
       </c>
@@ -26610,7 +26717,7 @@
       <c r="D17" s="23">
         <v>-52977</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="2">
@@ -26625,22 +26732,22 @@
       <c r="D18" s="1">
         <v>11207.5</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="1">
         <v>403062.61</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:6">
-      <c r="A19" s="2">
+      <c r="A19" s="21">
         <v>45329</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="22">
         <v>218441</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="22">
         <v>231227</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="22">
         <v>-27154</v>
       </c>
       <c r="E19" s="1">
@@ -26686,7 +26793,7 @@
       <c r="E21" s="1">
         <v>275095</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>483454</v>
       </c>
       <c r="G21" s="24">
@@ -26812,28 +26919,46 @@
       <c r="A27" s="2">
         <v>45349</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="1">
         <v>259454.3</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="1">
         <v>275197.6</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="1">
         <v>16215.9</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="1">
         <v>493404.8</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="1">
         <v>499050.3</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="25">
         <v>413020.7</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:1">
-      <c r="A28" s="2">
+    <row r="28" customFormat="1" spans="1:7">
+      <c r="A28" s="21">
         <v>45350</v>
+      </c>
+      <c r="B28" s="22">
+        <v>275197.6</v>
+      </c>
+      <c r="C28" s="22">
+        <v>247357.1</v>
+      </c>
+      <c r="D28" s="22">
+        <v>-27515.7</v>
+      </c>
+      <c r="E28" s="1">
+        <v>413020.7</v>
+      </c>
+      <c r="F28" s="1">
+        <v>247357</v>
+      </c>
+      <c r="G28" s="24">
+        <v>122372</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:1">
@@ -27909,7 +28034,7 @@
   <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:D32"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -28048,17 +28173,17 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="10" s="10" customFormat="1" spans="1:4">
-      <c r="A10" s="11">
+    <row r="10" s="9" customFormat="1" spans="1:4">
+      <c r="A10" s="10">
         <v>45309</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>148686</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>137065</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>-11621</v>
       </c>
     </row>
@@ -28086,7 +28211,7 @@
       <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>13503</v>
       </c>
     </row>
@@ -28128,7 +28253,7 @@
       <c r="C15" s="1">
         <v>137236</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>-3976</v>
       </c>
     </row>
@@ -28142,7 +28267,7 @@
       <c r="C16" s="1">
         <v>139014</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>1778</v>
       </c>
     </row>
@@ -28302,7 +28427,7 @@
       <c r="C27" s="1">
         <v>120255</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <v>-10231</v>
       </c>
     </row>
@@ -28369,19 +28494,28 @@
       <c r="A32" s="2">
         <v>45349</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="1">
         <v>120752</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="1">
         <v>127280</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="1">
         <v>6528</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:1">
+    <row r="33" customFormat="1" spans="1:4">
       <c r="A33" s="2">
         <v>45350</v>
+      </c>
+      <c r="B33" s="14">
+        <v>127280</v>
+      </c>
+      <c r="C33" s="14">
+        <v>110347</v>
+      </c>
+      <c r="D33" s="15">
+        <v>-16933</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:1">
@@ -29454,10 +29588,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -29610,14 +29744,25 @@
       </c>
     </row>
     <row r="16" ht="93" customHeight="1" spans="1:3">
-      <c r="A16" s="8">
+      <c r="A16" s="2">
         <v>45349</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="17" ht="92" customHeight="1" spans="1:3">
+      <c r="A17" s="8">
+        <v>46811</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -29638,7 +29783,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -29655,16 +29800,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -29672,16 +29817,16 @@
         <v>45316</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1">
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -29689,13 +29834,13 @@
         <v>45316</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1">
         <v>50000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -29704,16 +29849,16 @@
         <v>45317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1">
         <v>50000</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -29721,13 +29866,13 @@
         <v>45329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
         <v>40000</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="4"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>日期</t>
   </si>
@@ -291,6 +291,68 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">昨天巨量下跌，今天有可能延续下跌。
+考虑到截止目前为止，反弹的时间不够长，下周一开始两会，有维稳行情，因此指数可能调整2-3天(瞎猜的)；今天周四，让下跌的情绪再宣泄一天，明天下午尾盘看看能不能找到合适的入场时间。
+如果周五下午仍然不能止跌，那么就下周再考虑了。
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">对昨天亏损的继续反思，其实有好几个明暗不一的信号都给出了风险提示，但是我选择了忽略，最终造成了较大损失。
+信号①：前天尾盘满仓的，那天市场温度达到了94.8，这是市场情绪的沸腾状态。 我在尾盘接近满仓的，当时心里想的是在第二天上午冲高卖出。第二天，也就是昨天，上午确实冲高了，我的当日盈利达到了8K+，可是我没有卖出，觉得涨幅太小了(才3个点，持有的是创业板，300002看起来不像顶部)，然后10：30市场突然快速下跌。
+信号②：我的期货交易，在1703做多玻璃15手，按说市场上涨情绪比较热烈的话，我的多单应该是一开盘就大幅拉升的，结果却是低开，且下跌10几个点后就震荡了。--- 这其实说明市场情绪没有那么热烈，我预想中的大A冲高可能并不会有，有也是力度有限。
+信号③：A50 指数9：00开盘，开盘的前半小时出现了迅速大幅下跌的形态，虽然被快速拉起，但是随后也就是震荡，并没有在大A开盘后依着昨日的热烈情绪快速大幅拉升。 --- 我对这个不一致只是在心里不爽了一下，没有仔细体会。
+信号④：大A的1H MACD 出现了背离，1H Trix 也出现了背离(顶部徘徊很久后向下交叉，价格却向上走了一段时间)。 ---- 这种顶部徘徊很久后向下交叉的信号是确定性很强的信号。
+信号⑤：突然放巨量。观察持有的300002，提示会放出巨量。当有巨量出现而价格没有极度兴奋的拉升时，这是危险的。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>收盘：市场全面上涨，主力资金，北向资金大幅流入，市场温度达到了98。 尾盘重仓了，想搏一把明天上午大A延续惯性，再来一波上冲。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>潜在危险：市场刚从冰点转换成了沸腾，持续性不一定好，要仔细观察明天9:30 到10:00 之间的市场情绪状态，如果没有延续特别狂热的状态，那么10：30 之前一定清仓。</t>
+    </r>
+  </si>
+  <si>
+    <t>今天早上的疑虑：①昨天市场温度达到98度，今天早盘要特别小心，不能被乐观冲昏头脑 ②期货市场，偏多头氛围，但是跟股市热度匹配不是很好 ③A50 ，目前看没有快速上涨，而是在震荡，甚至出现了跟前天一样的5MIN，15MIN 大阴线（极其危险的信号）</t>
+  </si>
+  <si>
+    <t>14：30买入，第二天10：30 卖出策略依旧有效。
+市场在13：30之前一直在震荡，后看到没有要下跌的迹象，再次重仓。
+买入了悦心健康(看到游资赵老哥的推荐)；买入了中文在线(Sora 龙头)。
+下周一是两会，应该会有指数维稳。</t>
+  </si>
+  <si>
     <t>资金出入方向</t>
   </si>
   <si>
@@ -337,10 +399,17 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -491,7 +560,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -512,6 +580,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -519,12 +593,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,16 +939,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,119 +954,122 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,11 +1094,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1038,31 +1109,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1083,11 +1154,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1096,6 +1170,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2321,6 +2398,12 @@
                 <c:pt idx="33">
                   <c:v>13600</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10600</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3224,6 +3307,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2957</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3015.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4438,6 +4527,12 @@
                 <c:pt idx="33">
                   <c:v>-737.3</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>202.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-29.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5323,6 +5418,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-53.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6455,6 +6556,12 @@
                 <c:pt idx="33">
                   <c:v>5.1</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7359,6 +7466,12 @@
                 <c:pt idx="33">
                   <c:v>270</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>5225</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3522</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8247,6 +8360,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>5057</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9455,6 +9574,12 @@
                 <c:pt idx="33">
                   <c:v>34</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10340,6 +10465,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11429,6 +11560,12 @@
                 <c:pt idx="26">
                   <c:v>-27515.7</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>5086</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4735.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11443,11 +11580,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="163009573"/>
-        <c:axId val="141713727"/>
+        <c:axId val="662483205"/>
+        <c:axId val="900932139"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -11464,17 +11602,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -12291,10 +12427,15 @@
                 <c:pt idx="26">
                   <c:v>275197.6</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>247357.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>252306.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -12311,17 +12452,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -13138,10 +13277,15 @@
                 <c:pt idx="26">
                   <c:v>247357.1</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>252306.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>246729.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13151,13 +13295,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="339188832"/>
-        <c:axId val="727592237"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="339188832"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="299202528"/>
+        <c:axId val="108239611"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="662483205"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13198,19 +13342,16 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727592237"/>
+        <c:crossAx val="900932139"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="727592237"/>
+        <c:axId val="900932139"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="400000"/>
-          <c:min val="100000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -13257,14 +13398,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339188832"/>
+        <c:crossAx val="662483205"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10000"/>
-        <c:minorUnit val="2000"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="163009573"/>
+        <c:axId val="299202528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13292,18 +13431,16 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141713727"/>
+        <c:crossAx val="108239611"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="141713727"/>
+        <c:axId val="108239611"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="55000"/>
-          <c:min val="-55000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -13337,10 +13474,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163009573"/>
+        <c:crossAx val="299202528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -13469,6 +13605,2842 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>A账户!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>盈亏</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>A账户!$A$2:$A$240</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="239"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45314</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45317</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45321</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                  <c:v>45324</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                  <c:v>45327</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                  <c:v>45328</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                  <c:v>45329</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                  <c:v>45341</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                  <c:v>45342</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                  <c:v>45343</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                  <c:v>45345</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                  <c:v>45348</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                  <c:v>45349</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                  <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                  <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                  <c:v>45356</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="yyyy/m/d">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="yyyy/m/d">
+                  <c:v>45358</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="yyyy/m/d">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="yyyy/m/d">
+                  <c:v>45362</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="yyyy/m/d">
+                  <c:v>45363</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="yyyy/m/d">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="yyyy/m/d">
+                  <c:v>45365</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="yyyy/m/d">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="yyyy/m/d">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="yyyy/m/d">
+                  <c:v>45370</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="yyyy/m/d">
+                  <c:v>45371</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="yyyy/m/d">
+                  <c:v>45372</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="yyyy/m/d">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="yyyy/m/d">
+                  <c:v>45376</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="yyyy/m/d">
+                  <c:v>45377</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="yyyy/m/d">
+                  <c:v>45378</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="yyyy/m/d">
+                  <c:v>45379</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="yyyy/m/d">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="yyyy/m/d">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="yyyy/m/d">
+                  <c:v>45384</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="yyyy/m/d">
+                  <c:v>45385</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="yyyy/m/d">
+                  <c:v>45386</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="yyyy/m/d">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="yyyy/m/d">
+                  <c:v>45390</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="yyyy/m/d">
+                  <c:v>45391</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="yyyy/m/d">
+                  <c:v>45392</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="yyyy/m/d">
+                  <c:v>45393</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="yyyy/m/d">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="yyyy/m/d">
+                  <c:v>45397</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="yyyy/m/d">
+                  <c:v>45398</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="yyyy/m/d">
+                  <c:v>45399</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="yyyy/m/d">
+                  <c:v>45400</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="yyyy/m/d">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="yyyy/m/d">
+                  <c:v>45404</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="yyyy/m/d">
+                  <c:v>45405</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="yyyy/m/d">
+                  <c:v>45406</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="yyyy/m/d">
+                  <c:v>45407</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="yyyy/m/d">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="yyyy/m/d">
+                  <c:v>45411</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="yyyy/m/d">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="yyyy/m/d">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="yyyy/m/d">
+                  <c:v>45414</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="yyyy/m/d">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="yyyy/m/d">
+                  <c:v>45418</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="yyyy/m/d">
+                  <c:v>45419</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="yyyy/m/d">
+                  <c:v>45420</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="yyyy/m/d">
+                  <c:v>45421</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="yyyy/m/d">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="yyyy/m/d">
+                  <c:v>45425</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="yyyy/m/d">
+                  <c:v>45426</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="yyyy/m/d">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="yyyy/m/d">
+                  <c:v>45428</c:v>
+                </c:pt>
+                <c:pt idx="83" c:formatCode="yyyy/m/d">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="84" c:formatCode="yyyy/m/d">
+                  <c:v>45432</c:v>
+                </c:pt>
+                <c:pt idx="85" c:formatCode="yyyy/m/d">
+                  <c:v>45433</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="yyyy/m/d">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="yyyy/m/d">
+                  <c:v>45435</c:v>
+                </c:pt>
+                <c:pt idx="88" c:formatCode="yyyy/m/d">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="89" c:formatCode="yyyy/m/d">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="90" c:formatCode="yyyy/m/d">
+                  <c:v>45440</c:v>
+                </c:pt>
+                <c:pt idx="91" c:formatCode="yyyy/m/d">
+                  <c:v>45441</c:v>
+                </c:pt>
+                <c:pt idx="92" c:formatCode="yyyy/m/d">
+                  <c:v>45442</c:v>
+                </c:pt>
+                <c:pt idx="93" c:formatCode="yyyy/m/d">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="94" c:formatCode="yyyy/m/d">
+                  <c:v>45446</c:v>
+                </c:pt>
+                <c:pt idx="95" c:formatCode="yyyy/m/d">
+                  <c:v>45447</c:v>
+                </c:pt>
+                <c:pt idx="96" c:formatCode="yyyy/m/d">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="97" c:formatCode="yyyy/m/d">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="98" c:formatCode="yyyy/m/d">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="99" c:formatCode="yyyy/m/d">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="100" c:formatCode="yyyy/m/d">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="101" c:formatCode="yyyy/m/d">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="102" c:formatCode="yyyy/m/d">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="103" c:formatCode="yyyy/m/d">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="104" c:formatCode="yyyy/m/d">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="105" c:formatCode="yyyy/m/d">
+                  <c:v>45461</c:v>
+                </c:pt>
+                <c:pt idx="106" c:formatCode="yyyy/m/d">
+                  <c:v>45462</c:v>
+                </c:pt>
+                <c:pt idx="107" c:formatCode="yyyy/m/d">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="108" c:formatCode="yyyy/m/d">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="109" c:formatCode="yyyy/m/d">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="110" c:formatCode="yyyy/m/d">
+                  <c:v>45468</c:v>
+                </c:pt>
+                <c:pt idx="111" c:formatCode="yyyy/m/d">
+                  <c:v>45469</c:v>
+                </c:pt>
+                <c:pt idx="112" c:formatCode="yyyy/m/d">
+                  <c:v>45470</c:v>
+                </c:pt>
+                <c:pt idx="113" c:formatCode="yyyy/m/d">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="114" c:formatCode="yyyy/m/d">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="115" c:formatCode="yyyy/m/d">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="116" c:formatCode="yyyy/m/d">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="117" c:formatCode="yyyy/m/d">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="118" c:formatCode="yyyy/m/d">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="119" c:formatCode="yyyy/m/d">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="120" c:formatCode="yyyy/m/d">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="121" c:formatCode="yyyy/m/d">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="122" c:formatCode="yyyy/m/d">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="123" c:formatCode="yyyy/m/d">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="124" c:formatCode="yyyy/m/d">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="125" c:formatCode="yyyy/m/d">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="126" c:formatCode="yyyy/m/d">
+                  <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="127" c:formatCode="yyyy/m/d">
+                  <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="128" c:formatCode="yyyy/m/d">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="129" c:formatCode="yyyy/m/d">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="130" c:formatCode="yyyy/m/d">
+                  <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="131" c:formatCode="yyyy/m/d">
+                  <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="132" c:formatCode="yyyy/m/d">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="133" c:formatCode="yyyy/m/d">
+                  <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="134" c:formatCode="yyyy/m/d">
+                  <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="135" c:formatCode="yyyy/m/d">
+                  <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="136" c:formatCode="yyyy/m/d">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="137" c:formatCode="yyyy/m/d">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="138" c:formatCode="yyyy/m/d">
+                  <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="139" c:formatCode="yyyy/m/d">
+                  <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="140" c:formatCode="yyyy/m/d">
+                  <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="141" c:formatCode="yyyy/m/d">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="142" c:formatCode="yyyy/m/d">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="143" c:formatCode="yyyy/m/d">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="144" c:formatCode="yyyy/m/d">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="145" c:formatCode="yyyy/m/d">
+                  <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="146" c:formatCode="yyyy/m/d">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="147" c:formatCode="yyyy/m/d">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="148" c:formatCode="yyyy/m/d">
+                  <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="149" c:formatCode="yyyy/m/d">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="150" c:formatCode="yyyy/m/d">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="151" c:formatCode="yyyy/m/d">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="152" c:formatCode="yyyy/m/d">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="153" c:formatCode="yyyy/m/d">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="154" c:formatCode="yyyy/m/d">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="155" c:formatCode="yyyy/m/d">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="156" c:formatCode="yyyy/m/d">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="157" c:formatCode="yyyy/m/d">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="158" c:formatCode="yyyy/m/d">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="159" c:formatCode="yyyy/m/d">
+                  <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="160" c:formatCode="yyyy/m/d">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="161" c:formatCode="yyyy/m/d">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="162" c:formatCode="yyyy/m/d">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="163" c:formatCode="yyyy/m/d">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="164" c:formatCode="yyyy/m/d">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="165" c:formatCode="yyyy/m/d">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="166" c:formatCode="yyyy/m/d">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="167" c:formatCode="yyyy/m/d">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="168" c:formatCode="yyyy/m/d">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="169" c:formatCode="yyyy/m/d">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="170" c:formatCode="yyyy/m/d">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="171" c:formatCode="yyyy/m/d">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="172" c:formatCode="yyyy/m/d">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="173" c:formatCode="yyyy/m/d">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="174" c:formatCode="yyyy/m/d">
+                  <c:v>45558</c:v>
+                </c:pt>
+                <c:pt idx="175" c:formatCode="yyyy/m/d">
+                  <c:v>45559</c:v>
+                </c:pt>
+                <c:pt idx="176" c:formatCode="yyyy/m/d">
+                  <c:v>45560</c:v>
+                </c:pt>
+                <c:pt idx="177" c:formatCode="yyyy/m/d">
+                  <c:v>45561</c:v>
+                </c:pt>
+                <c:pt idx="178" c:formatCode="yyyy/m/d">
+                  <c:v>45562</c:v>
+                </c:pt>
+                <c:pt idx="179" c:formatCode="yyyy/m/d">
+                  <c:v>45572</c:v>
+                </c:pt>
+                <c:pt idx="180" c:formatCode="yyyy/m/d">
+                  <c:v>45573</c:v>
+                </c:pt>
+                <c:pt idx="181" c:formatCode="yyyy/m/d">
+                  <c:v>45574</c:v>
+                </c:pt>
+                <c:pt idx="182" c:formatCode="yyyy/m/d">
+                  <c:v>45575</c:v>
+                </c:pt>
+                <c:pt idx="183" c:formatCode="yyyy/m/d">
+                  <c:v>45576</c:v>
+                </c:pt>
+                <c:pt idx="184" c:formatCode="yyyy/m/d">
+                  <c:v>45579</c:v>
+                </c:pt>
+                <c:pt idx="185" c:formatCode="yyyy/m/d">
+                  <c:v>45580</c:v>
+                </c:pt>
+                <c:pt idx="186" c:formatCode="yyyy/m/d">
+                  <c:v>45581</c:v>
+                </c:pt>
+                <c:pt idx="187" c:formatCode="yyyy/m/d">
+                  <c:v>45582</c:v>
+                </c:pt>
+                <c:pt idx="188" c:formatCode="yyyy/m/d">
+                  <c:v>45583</c:v>
+                </c:pt>
+                <c:pt idx="189" c:formatCode="yyyy/m/d">
+                  <c:v>45586</c:v>
+                </c:pt>
+                <c:pt idx="190" c:formatCode="yyyy/m/d">
+                  <c:v>45587</c:v>
+                </c:pt>
+                <c:pt idx="191" c:formatCode="yyyy/m/d">
+                  <c:v>45588</c:v>
+                </c:pt>
+                <c:pt idx="192" c:formatCode="yyyy/m/d">
+                  <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="193" c:formatCode="yyyy/m/d">
+                  <c:v>45590</c:v>
+                </c:pt>
+                <c:pt idx="194" c:formatCode="yyyy/m/d">
+                  <c:v>45593</c:v>
+                </c:pt>
+                <c:pt idx="195" c:formatCode="yyyy/m/d">
+                  <c:v>45594</c:v>
+                </c:pt>
+                <c:pt idx="196" c:formatCode="yyyy/m/d">
+                  <c:v>45595</c:v>
+                </c:pt>
+                <c:pt idx="197" c:formatCode="yyyy/m/d">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="198" c:formatCode="yyyy/m/d">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="199" c:formatCode="yyyy/m/d">
+                  <c:v>45600</c:v>
+                </c:pt>
+                <c:pt idx="200" c:formatCode="yyyy/m/d">
+                  <c:v>45601</c:v>
+                </c:pt>
+                <c:pt idx="201" c:formatCode="yyyy/m/d">
+                  <c:v>45602</c:v>
+                </c:pt>
+                <c:pt idx="202" c:formatCode="yyyy/m/d">
+                  <c:v>45603</c:v>
+                </c:pt>
+                <c:pt idx="203" c:formatCode="yyyy/m/d">
+                  <c:v>45604</c:v>
+                </c:pt>
+                <c:pt idx="204" c:formatCode="yyyy/m/d">
+                  <c:v>45607</c:v>
+                </c:pt>
+                <c:pt idx="205" c:formatCode="yyyy/m/d">
+                  <c:v>45608</c:v>
+                </c:pt>
+                <c:pt idx="206" c:formatCode="yyyy/m/d">
+                  <c:v>45609</c:v>
+                </c:pt>
+                <c:pt idx="207" c:formatCode="yyyy/m/d">
+                  <c:v>45610</c:v>
+                </c:pt>
+                <c:pt idx="208" c:formatCode="yyyy/m/d">
+                  <c:v>45611</c:v>
+                </c:pt>
+                <c:pt idx="209" c:formatCode="yyyy/m/d">
+                  <c:v>45614</c:v>
+                </c:pt>
+                <c:pt idx="210" c:formatCode="yyyy/m/d">
+                  <c:v>45615</c:v>
+                </c:pt>
+                <c:pt idx="211" c:formatCode="yyyy/m/d">
+                  <c:v>45616</c:v>
+                </c:pt>
+                <c:pt idx="212" c:formatCode="yyyy/m/d">
+                  <c:v>45617</c:v>
+                </c:pt>
+                <c:pt idx="213" c:formatCode="yyyy/m/d">
+                  <c:v>45618</c:v>
+                </c:pt>
+                <c:pt idx="214" c:formatCode="yyyy/m/d">
+                  <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="215" c:formatCode="yyyy/m/d">
+                  <c:v>45622</c:v>
+                </c:pt>
+                <c:pt idx="216" c:formatCode="yyyy/m/d">
+                  <c:v>45623</c:v>
+                </c:pt>
+                <c:pt idx="217" c:formatCode="yyyy/m/d">
+                  <c:v>45624</c:v>
+                </c:pt>
+                <c:pt idx="218" c:formatCode="yyyy/m/d">
+                  <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="219" c:formatCode="yyyy/m/d">
+                  <c:v>45628</c:v>
+                </c:pt>
+                <c:pt idx="220" c:formatCode="yyyy/m/d">
+                  <c:v>45629</c:v>
+                </c:pt>
+                <c:pt idx="221" c:formatCode="yyyy/m/d">
+                  <c:v>45630</c:v>
+                </c:pt>
+                <c:pt idx="222" c:formatCode="yyyy/m/d">
+                  <c:v>45631</c:v>
+                </c:pt>
+                <c:pt idx="223" c:formatCode="yyyy/m/d">
+                  <c:v>45632</c:v>
+                </c:pt>
+                <c:pt idx="224" c:formatCode="yyyy/m/d">
+                  <c:v>45635</c:v>
+                </c:pt>
+                <c:pt idx="225" c:formatCode="yyyy/m/d">
+                  <c:v>45636</c:v>
+                </c:pt>
+                <c:pt idx="226" c:formatCode="yyyy/m/d">
+                  <c:v>45637</c:v>
+                </c:pt>
+                <c:pt idx="227" c:formatCode="yyyy/m/d">
+                  <c:v>45638</c:v>
+                </c:pt>
+                <c:pt idx="228" c:formatCode="yyyy/m/d">
+                  <c:v>45639</c:v>
+                </c:pt>
+                <c:pt idx="229" c:formatCode="yyyy/m/d">
+                  <c:v>45642</c:v>
+                </c:pt>
+                <c:pt idx="230" c:formatCode="yyyy/m/d">
+                  <c:v>45643</c:v>
+                </c:pt>
+                <c:pt idx="231" c:formatCode="yyyy/m/d">
+                  <c:v>45644</c:v>
+                </c:pt>
+                <c:pt idx="232" c:formatCode="yyyy/m/d">
+                  <c:v>45645</c:v>
+                </c:pt>
+                <c:pt idx="233" c:formatCode="yyyy/m/d">
+                  <c:v>45646</c:v>
+                </c:pt>
+                <c:pt idx="234" c:formatCode="yyyy/m/d">
+                  <c:v>45649</c:v>
+                </c:pt>
+                <c:pt idx="235" c:formatCode="yyyy/m/d">
+                  <c:v>45650</c:v>
+                </c:pt>
+                <c:pt idx="236" c:formatCode="yyyy/m/d">
+                  <c:v>45651</c:v>
+                </c:pt>
+                <c:pt idx="237" c:formatCode="yyyy/m/d">
+                  <c:v>45652</c:v>
+                </c:pt>
+                <c:pt idx="238" c:formatCode="yyyy/m/d">
+                  <c:v>45653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>A账户!$D$2:$D$240</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="239"/>
+                <c:pt idx="0">
+                  <c:v>-1748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-13809</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5788</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="#,##0">
+                  <c:v>11050</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2388</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="#,##0">
+                  <c:v>-13287</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="#,##0">
+                  <c:v>-17414</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="#,##0">
+                  <c:v>-18904</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="#,##0">
+                  <c:v>-3746</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="#,##0">
+                  <c:v>-36618</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="#,##0">
+                  <c:v>-52977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11207.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-27154</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1377.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1622</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13239</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7823.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16215.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-27515.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5086</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4735.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="355132087"/>
+        <c:axId val="344708845"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>A账户!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日收盘净值资产</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>A账户!$A$2:$A$240</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="239"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45314</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45317</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45321</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                  <c:v>45324</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                  <c:v>45327</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                  <c:v>45328</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                  <c:v>45329</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                  <c:v>45341</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                  <c:v>45342</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                  <c:v>45343</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                  <c:v>45345</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                  <c:v>45348</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                  <c:v>45349</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                  <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                  <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                  <c:v>45356</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="yyyy/m/d">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="yyyy/m/d">
+                  <c:v>45358</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="yyyy/m/d">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="yyyy/m/d">
+                  <c:v>45362</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="yyyy/m/d">
+                  <c:v>45363</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="yyyy/m/d">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="yyyy/m/d">
+                  <c:v>45365</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="yyyy/m/d">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="yyyy/m/d">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="yyyy/m/d">
+                  <c:v>45370</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="yyyy/m/d">
+                  <c:v>45371</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="yyyy/m/d">
+                  <c:v>45372</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="yyyy/m/d">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="yyyy/m/d">
+                  <c:v>45376</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="yyyy/m/d">
+                  <c:v>45377</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="yyyy/m/d">
+                  <c:v>45378</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="yyyy/m/d">
+                  <c:v>45379</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="yyyy/m/d">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="yyyy/m/d">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="yyyy/m/d">
+                  <c:v>45384</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="yyyy/m/d">
+                  <c:v>45385</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="yyyy/m/d">
+                  <c:v>45386</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="yyyy/m/d">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="yyyy/m/d">
+                  <c:v>45390</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="yyyy/m/d">
+                  <c:v>45391</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="yyyy/m/d">
+                  <c:v>45392</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="yyyy/m/d">
+                  <c:v>45393</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="yyyy/m/d">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="yyyy/m/d">
+                  <c:v>45397</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="yyyy/m/d">
+                  <c:v>45398</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="yyyy/m/d">
+                  <c:v>45399</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="yyyy/m/d">
+                  <c:v>45400</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="yyyy/m/d">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="yyyy/m/d">
+                  <c:v>45404</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="yyyy/m/d">
+                  <c:v>45405</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="yyyy/m/d">
+                  <c:v>45406</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="yyyy/m/d">
+                  <c:v>45407</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="yyyy/m/d">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="yyyy/m/d">
+                  <c:v>45411</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="yyyy/m/d">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="yyyy/m/d">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="yyyy/m/d">
+                  <c:v>45414</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="yyyy/m/d">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="yyyy/m/d">
+                  <c:v>45418</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="yyyy/m/d">
+                  <c:v>45419</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="yyyy/m/d">
+                  <c:v>45420</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="yyyy/m/d">
+                  <c:v>45421</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="yyyy/m/d">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="yyyy/m/d">
+                  <c:v>45425</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="yyyy/m/d">
+                  <c:v>45426</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="yyyy/m/d">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="yyyy/m/d">
+                  <c:v>45428</c:v>
+                </c:pt>
+                <c:pt idx="83" c:formatCode="yyyy/m/d">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="84" c:formatCode="yyyy/m/d">
+                  <c:v>45432</c:v>
+                </c:pt>
+                <c:pt idx="85" c:formatCode="yyyy/m/d">
+                  <c:v>45433</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="yyyy/m/d">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="yyyy/m/d">
+                  <c:v>45435</c:v>
+                </c:pt>
+                <c:pt idx="88" c:formatCode="yyyy/m/d">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="89" c:formatCode="yyyy/m/d">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="90" c:formatCode="yyyy/m/d">
+                  <c:v>45440</c:v>
+                </c:pt>
+                <c:pt idx="91" c:formatCode="yyyy/m/d">
+                  <c:v>45441</c:v>
+                </c:pt>
+                <c:pt idx="92" c:formatCode="yyyy/m/d">
+                  <c:v>45442</c:v>
+                </c:pt>
+                <c:pt idx="93" c:formatCode="yyyy/m/d">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="94" c:formatCode="yyyy/m/d">
+                  <c:v>45446</c:v>
+                </c:pt>
+                <c:pt idx="95" c:formatCode="yyyy/m/d">
+                  <c:v>45447</c:v>
+                </c:pt>
+                <c:pt idx="96" c:formatCode="yyyy/m/d">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="97" c:formatCode="yyyy/m/d">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="98" c:formatCode="yyyy/m/d">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="99" c:formatCode="yyyy/m/d">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="100" c:formatCode="yyyy/m/d">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="101" c:formatCode="yyyy/m/d">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="102" c:formatCode="yyyy/m/d">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="103" c:formatCode="yyyy/m/d">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="104" c:formatCode="yyyy/m/d">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="105" c:formatCode="yyyy/m/d">
+                  <c:v>45461</c:v>
+                </c:pt>
+                <c:pt idx="106" c:formatCode="yyyy/m/d">
+                  <c:v>45462</c:v>
+                </c:pt>
+                <c:pt idx="107" c:formatCode="yyyy/m/d">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="108" c:formatCode="yyyy/m/d">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="109" c:formatCode="yyyy/m/d">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="110" c:formatCode="yyyy/m/d">
+                  <c:v>45468</c:v>
+                </c:pt>
+                <c:pt idx="111" c:formatCode="yyyy/m/d">
+                  <c:v>45469</c:v>
+                </c:pt>
+                <c:pt idx="112" c:formatCode="yyyy/m/d">
+                  <c:v>45470</c:v>
+                </c:pt>
+                <c:pt idx="113" c:formatCode="yyyy/m/d">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="114" c:formatCode="yyyy/m/d">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="115" c:formatCode="yyyy/m/d">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="116" c:formatCode="yyyy/m/d">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="117" c:formatCode="yyyy/m/d">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="118" c:formatCode="yyyy/m/d">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="119" c:formatCode="yyyy/m/d">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="120" c:formatCode="yyyy/m/d">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="121" c:formatCode="yyyy/m/d">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="122" c:formatCode="yyyy/m/d">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="123" c:formatCode="yyyy/m/d">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="124" c:formatCode="yyyy/m/d">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="125" c:formatCode="yyyy/m/d">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="126" c:formatCode="yyyy/m/d">
+                  <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="127" c:formatCode="yyyy/m/d">
+                  <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="128" c:formatCode="yyyy/m/d">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="129" c:formatCode="yyyy/m/d">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="130" c:formatCode="yyyy/m/d">
+                  <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="131" c:formatCode="yyyy/m/d">
+                  <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="132" c:formatCode="yyyy/m/d">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="133" c:formatCode="yyyy/m/d">
+                  <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="134" c:formatCode="yyyy/m/d">
+                  <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="135" c:formatCode="yyyy/m/d">
+                  <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="136" c:formatCode="yyyy/m/d">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="137" c:formatCode="yyyy/m/d">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="138" c:formatCode="yyyy/m/d">
+                  <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="139" c:formatCode="yyyy/m/d">
+                  <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="140" c:formatCode="yyyy/m/d">
+                  <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="141" c:formatCode="yyyy/m/d">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="142" c:formatCode="yyyy/m/d">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="143" c:formatCode="yyyy/m/d">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="144" c:formatCode="yyyy/m/d">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="145" c:formatCode="yyyy/m/d">
+                  <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="146" c:formatCode="yyyy/m/d">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="147" c:formatCode="yyyy/m/d">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="148" c:formatCode="yyyy/m/d">
+                  <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="149" c:formatCode="yyyy/m/d">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="150" c:formatCode="yyyy/m/d">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="151" c:formatCode="yyyy/m/d">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="152" c:formatCode="yyyy/m/d">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="153" c:formatCode="yyyy/m/d">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="154" c:formatCode="yyyy/m/d">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="155" c:formatCode="yyyy/m/d">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="156" c:formatCode="yyyy/m/d">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="157" c:formatCode="yyyy/m/d">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="158" c:formatCode="yyyy/m/d">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="159" c:formatCode="yyyy/m/d">
+                  <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="160" c:formatCode="yyyy/m/d">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="161" c:formatCode="yyyy/m/d">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="162" c:formatCode="yyyy/m/d">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="163" c:formatCode="yyyy/m/d">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="164" c:formatCode="yyyy/m/d">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="165" c:formatCode="yyyy/m/d">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="166" c:formatCode="yyyy/m/d">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="167" c:formatCode="yyyy/m/d">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="168" c:formatCode="yyyy/m/d">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="169" c:formatCode="yyyy/m/d">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="170" c:formatCode="yyyy/m/d">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="171" c:formatCode="yyyy/m/d">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="172" c:formatCode="yyyy/m/d">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="173" c:formatCode="yyyy/m/d">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="174" c:formatCode="yyyy/m/d">
+                  <c:v>45558</c:v>
+                </c:pt>
+                <c:pt idx="175" c:formatCode="yyyy/m/d">
+                  <c:v>45559</c:v>
+                </c:pt>
+                <c:pt idx="176" c:formatCode="yyyy/m/d">
+                  <c:v>45560</c:v>
+                </c:pt>
+                <c:pt idx="177" c:formatCode="yyyy/m/d">
+                  <c:v>45561</c:v>
+                </c:pt>
+                <c:pt idx="178" c:formatCode="yyyy/m/d">
+                  <c:v>45562</c:v>
+                </c:pt>
+                <c:pt idx="179" c:formatCode="yyyy/m/d">
+                  <c:v>45572</c:v>
+                </c:pt>
+                <c:pt idx="180" c:formatCode="yyyy/m/d">
+                  <c:v>45573</c:v>
+                </c:pt>
+                <c:pt idx="181" c:formatCode="yyyy/m/d">
+                  <c:v>45574</c:v>
+                </c:pt>
+                <c:pt idx="182" c:formatCode="yyyy/m/d">
+                  <c:v>45575</c:v>
+                </c:pt>
+                <c:pt idx="183" c:formatCode="yyyy/m/d">
+                  <c:v>45576</c:v>
+                </c:pt>
+                <c:pt idx="184" c:formatCode="yyyy/m/d">
+                  <c:v>45579</c:v>
+                </c:pt>
+                <c:pt idx="185" c:formatCode="yyyy/m/d">
+                  <c:v>45580</c:v>
+                </c:pt>
+                <c:pt idx="186" c:formatCode="yyyy/m/d">
+                  <c:v>45581</c:v>
+                </c:pt>
+                <c:pt idx="187" c:formatCode="yyyy/m/d">
+                  <c:v>45582</c:v>
+                </c:pt>
+                <c:pt idx="188" c:formatCode="yyyy/m/d">
+                  <c:v>45583</c:v>
+                </c:pt>
+                <c:pt idx="189" c:formatCode="yyyy/m/d">
+                  <c:v>45586</c:v>
+                </c:pt>
+                <c:pt idx="190" c:formatCode="yyyy/m/d">
+                  <c:v>45587</c:v>
+                </c:pt>
+                <c:pt idx="191" c:formatCode="yyyy/m/d">
+                  <c:v>45588</c:v>
+                </c:pt>
+                <c:pt idx="192" c:formatCode="yyyy/m/d">
+                  <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="193" c:formatCode="yyyy/m/d">
+                  <c:v>45590</c:v>
+                </c:pt>
+                <c:pt idx="194" c:formatCode="yyyy/m/d">
+                  <c:v>45593</c:v>
+                </c:pt>
+                <c:pt idx="195" c:formatCode="yyyy/m/d">
+                  <c:v>45594</c:v>
+                </c:pt>
+                <c:pt idx="196" c:formatCode="yyyy/m/d">
+                  <c:v>45595</c:v>
+                </c:pt>
+                <c:pt idx="197" c:formatCode="yyyy/m/d">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="198" c:formatCode="yyyy/m/d">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="199" c:formatCode="yyyy/m/d">
+                  <c:v>45600</c:v>
+                </c:pt>
+                <c:pt idx="200" c:formatCode="yyyy/m/d">
+                  <c:v>45601</c:v>
+                </c:pt>
+                <c:pt idx="201" c:formatCode="yyyy/m/d">
+                  <c:v>45602</c:v>
+                </c:pt>
+                <c:pt idx="202" c:formatCode="yyyy/m/d">
+                  <c:v>45603</c:v>
+                </c:pt>
+                <c:pt idx="203" c:formatCode="yyyy/m/d">
+                  <c:v>45604</c:v>
+                </c:pt>
+                <c:pt idx="204" c:formatCode="yyyy/m/d">
+                  <c:v>45607</c:v>
+                </c:pt>
+                <c:pt idx="205" c:formatCode="yyyy/m/d">
+                  <c:v>45608</c:v>
+                </c:pt>
+                <c:pt idx="206" c:formatCode="yyyy/m/d">
+                  <c:v>45609</c:v>
+                </c:pt>
+                <c:pt idx="207" c:formatCode="yyyy/m/d">
+                  <c:v>45610</c:v>
+                </c:pt>
+                <c:pt idx="208" c:formatCode="yyyy/m/d">
+                  <c:v>45611</c:v>
+                </c:pt>
+                <c:pt idx="209" c:formatCode="yyyy/m/d">
+                  <c:v>45614</c:v>
+                </c:pt>
+                <c:pt idx="210" c:formatCode="yyyy/m/d">
+                  <c:v>45615</c:v>
+                </c:pt>
+                <c:pt idx="211" c:formatCode="yyyy/m/d">
+                  <c:v>45616</c:v>
+                </c:pt>
+                <c:pt idx="212" c:formatCode="yyyy/m/d">
+                  <c:v>45617</c:v>
+                </c:pt>
+                <c:pt idx="213" c:formatCode="yyyy/m/d">
+                  <c:v>45618</c:v>
+                </c:pt>
+                <c:pt idx="214" c:formatCode="yyyy/m/d">
+                  <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="215" c:formatCode="yyyy/m/d">
+                  <c:v>45622</c:v>
+                </c:pt>
+                <c:pt idx="216" c:formatCode="yyyy/m/d">
+                  <c:v>45623</c:v>
+                </c:pt>
+                <c:pt idx="217" c:formatCode="yyyy/m/d">
+                  <c:v>45624</c:v>
+                </c:pt>
+                <c:pt idx="218" c:formatCode="yyyy/m/d">
+                  <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="219" c:formatCode="yyyy/m/d">
+                  <c:v>45628</c:v>
+                </c:pt>
+                <c:pt idx="220" c:formatCode="yyyy/m/d">
+                  <c:v>45629</c:v>
+                </c:pt>
+                <c:pt idx="221" c:formatCode="yyyy/m/d">
+                  <c:v>45630</c:v>
+                </c:pt>
+                <c:pt idx="222" c:formatCode="yyyy/m/d">
+                  <c:v>45631</c:v>
+                </c:pt>
+                <c:pt idx="223" c:formatCode="yyyy/m/d">
+                  <c:v>45632</c:v>
+                </c:pt>
+                <c:pt idx="224" c:formatCode="yyyy/m/d">
+                  <c:v>45635</c:v>
+                </c:pt>
+                <c:pt idx="225" c:formatCode="yyyy/m/d">
+                  <c:v>45636</c:v>
+                </c:pt>
+                <c:pt idx="226" c:formatCode="yyyy/m/d">
+                  <c:v>45637</c:v>
+                </c:pt>
+                <c:pt idx="227" c:formatCode="yyyy/m/d">
+                  <c:v>45638</c:v>
+                </c:pt>
+                <c:pt idx="228" c:formatCode="yyyy/m/d">
+                  <c:v>45639</c:v>
+                </c:pt>
+                <c:pt idx="229" c:formatCode="yyyy/m/d">
+                  <c:v>45642</c:v>
+                </c:pt>
+                <c:pt idx="230" c:formatCode="yyyy/m/d">
+                  <c:v>45643</c:v>
+                </c:pt>
+                <c:pt idx="231" c:formatCode="yyyy/m/d">
+                  <c:v>45644</c:v>
+                </c:pt>
+                <c:pt idx="232" c:formatCode="yyyy/m/d">
+                  <c:v>45645</c:v>
+                </c:pt>
+                <c:pt idx="233" c:formatCode="yyyy/m/d">
+                  <c:v>45646</c:v>
+                </c:pt>
+                <c:pt idx="234" c:formatCode="yyyy/m/d">
+                  <c:v>45649</c:v>
+                </c:pt>
+                <c:pt idx="235" c:formatCode="yyyy/m/d">
+                  <c:v>45650</c:v>
+                </c:pt>
+                <c:pt idx="236" c:formatCode="yyyy/m/d">
+                  <c:v>45651</c:v>
+                </c:pt>
+                <c:pt idx="237" c:formatCode="yyyy/m/d">
+                  <c:v>45652</c:v>
+                </c:pt>
+                <c:pt idx="238" c:formatCode="yyyy/m/d">
+                  <c:v>45653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>A账户!$C$2:$C$240</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="239"/>
+                <c:pt idx="0">
+                  <c:v>189418</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="#,##0">
+                  <c:v>186745</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="#,##0">
+                  <c:v>179605</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="#,##0">
+                  <c:v>176249</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="#,##0">
+                  <c:v>172869</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="#,##0">
+                  <c:v>159060</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="#,##0">
+                  <c:v>160802</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="#,##0">
+                  <c:v>166590</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="#,##0">
+                  <c:v>327640</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="#,##0">
+                  <c:v>380028</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="#,##0">
+                  <c:v>366741</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="#,##0">
+                  <c:v>349327</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="#,##0">
+                  <c:v>330423</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="#,##0">
+                  <c:v>326596</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="#,##0">
+                  <c:v>297670</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="#,##0">
+                  <c:v>244693</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>218427.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>231227</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>245130</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>248776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>249910</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>251325.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>264415.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>267386.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>259454.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>275197.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>247357.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>252306.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>246729.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>A账户!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总市值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>A账户!$A$2:$A$240</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="239"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45314</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45317</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45321</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                  <c:v>45324</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                  <c:v>45327</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                  <c:v>45328</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                  <c:v>45329</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                  <c:v>45341</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                  <c:v>45342</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                  <c:v>45343</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                  <c:v>45345</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                  <c:v>45348</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                  <c:v>45349</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                  <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="yyyy/m/d">
+                  <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="yyyy/m/d">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="yyyy/m/d">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="yyyy/m/d">
+                  <c:v>45356</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="yyyy/m/d">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="yyyy/m/d">
+                  <c:v>45358</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="yyyy/m/d">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="yyyy/m/d">
+                  <c:v>45362</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="yyyy/m/d">
+                  <c:v>45363</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="yyyy/m/d">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="yyyy/m/d">
+                  <c:v>45365</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="yyyy/m/d">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="yyyy/m/d">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="yyyy/m/d">
+                  <c:v>45370</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="yyyy/m/d">
+                  <c:v>45371</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="yyyy/m/d">
+                  <c:v>45372</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="yyyy/m/d">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="yyyy/m/d">
+                  <c:v>45376</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="yyyy/m/d">
+                  <c:v>45377</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="yyyy/m/d">
+                  <c:v>45378</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="yyyy/m/d">
+                  <c:v>45379</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="yyyy/m/d">
+                  <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="yyyy/m/d">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="yyyy/m/d">
+                  <c:v>45384</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="yyyy/m/d">
+                  <c:v>45385</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="yyyy/m/d">
+                  <c:v>45386</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="yyyy/m/d">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="yyyy/m/d">
+                  <c:v>45390</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="yyyy/m/d">
+                  <c:v>45391</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="yyyy/m/d">
+                  <c:v>45392</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="yyyy/m/d">
+                  <c:v>45393</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="yyyy/m/d">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="yyyy/m/d">
+                  <c:v>45397</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="yyyy/m/d">
+                  <c:v>45398</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="yyyy/m/d">
+                  <c:v>45399</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="yyyy/m/d">
+                  <c:v>45400</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="yyyy/m/d">
+                  <c:v>45401</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="yyyy/m/d">
+                  <c:v>45404</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="yyyy/m/d">
+                  <c:v>45405</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="yyyy/m/d">
+                  <c:v>45406</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="yyyy/m/d">
+                  <c:v>45407</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="yyyy/m/d">
+                  <c:v>45408</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="yyyy/m/d">
+                  <c:v>45411</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="yyyy/m/d">
+                  <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="yyyy/m/d">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="yyyy/m/d">
+                  <c:v>45414</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="yyyy/m/d">
+                  <c:v>45415</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="yyyy/m/d">
+                  <c:v>45418</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="yyyy/m/d">
+                  <c:v>45419</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="yyyy/m/d">
+                  <c:v>45420</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="yyyy/m/d">
+                  <c:v>45421</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="yyyy/m/d">
+                  <c:v>45422</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="yyyy/m/d">
+                  <c:v>45425</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="yyyy/m/d">
+                  <c:v>45426</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="yyyy/m/d">
+                  <c:v>45427</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="yyyy/m/d">
+                  <c:v>45428</c:v>
+                </c:pt>
+                <c:pt idx="83" c:formatCode="yyyy/m/d">
+                  <c:v>45429</c:v>
+                </c:pt>
+                <c:pt idx="84" c:formatCode="yyyy/m/d">
+                  <c:v>45432</c:v>
+                </c:pt>
+                <c:pt idx="85" c:formatCode="yyyy/m/d">
+                  <c:v>45433</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="yyyy/m/d">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="yyyy/m/d">
+                  <c:v>45435</c:v>
+                </c:pt>
+                <c:pt idx="88" c:formatCode="yyyy/m/d">
+                  <c:v>45436</c:v>
+                </c:pt>
+                <c:pt idx="89" c:formatCode="yyyy/m/d">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="90" c:formatCode="yyyy/m/d">
+                  <c:v>45440</c:v>
+                </c:pt>
+                <c:pt idx="91" c:formatCode="yyyy/m/d">
+                  <c:v>45441</c:v>
+                </c:pt>
+                <c:pt idx="92" c:formatCode="yyyy/m/d">
+                  <c:v>45442</c:v>
+                </c:pt>
+                <c:pt idx="93" c:formatCode="yyyy/m/d">
+                  <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="94" c:formatCode="yyyy/m/d">
+                  <c:v>45446</c:v>
+                </c:pt>
+                <c:pt idx="95" c:formatCode="yyyy/m/d">
+                  <c:v>45447</c:v>
+                </c:pt>
+                <c:pt idx="96" c:formatCode="yyyy/m/d">
+                  <c:v>45448</c:v>
+                </c:pt>
+                <c:pt idx="97" c:formatCode="yyyy/m/d">
+                  <c:v>45449</c:v>
+                </c:pt>
+                <c:pt idx="98" c:formatCode="yyyy/m/d">
+                  <c:v>45450</c:v>
+                </c:pt>
+                <c:pt idx="99" c:formatCode="yyyy/m/d">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="100" c:formatCode="yyyy/m/d">
+                  <c:v>45454</c:v>
+                </c:pt>
+                <c:pt idx="101" c:formatCode="yyyy/m/d">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="102" c:formatCode="yyyy/m/d">
+                  <c:v>45456</c:v>
+                </c:pt>
+                <c:pt idx="103" c:formatCode="yyyy/m/d">
+                  <c:v>45457</c:v>
+                </c:pt>
+                <c:pt idx="104" c:formatCode="yyyy/m/d">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="105" c:formatCode="yyyy/m/d">
+                  <c:v>45461</c:v>
+                </c:pt>
+                <c:pt idx="106" c:formatCode="yyyy/m/d">
+                  <c:v>45462</c:v>
+                </c:pt>
+                <c:pt idx="107" c:formatCode="yyyy/m/d">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="108" c:formatCode="yyyy/m/d">
+                  <c:v>45464</c:v>
+                </c:pt>
+                <c:pt idx="109" c:formatCode="yyyy/m/d">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="110" c:formatCode="yyyy/m/d">
+                  <c:v>45468</c:v>
+                </c:pt>
+                <c:pt idx="111" c:formatCode="yyyy/m/d">
+                  <c:v>45469</c:v>
+                </c:pt>
+                <c:pt idx="112" c:formatCode="yyyy/m/d">
+                  <c:v>45470</c:v>
+                </c:pt>
+                <c:pt idx="113" c:formatCode="yyyy/m/d">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="114" c:formatCode="yyyy/m/d">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="115" c:formatCode="yyyy/m/d">
+                  <c:v>45475</c:v>
+                </c:pt>
+                <c:pt idx="116" c:formatCode="yyyy/m/d">
+                  <c:v>45476</c:v>
+                </c:pt>
+                <c:pt idx="117" c:formatCode="yyyy/m/d">
+                  <c:v>45477</c:v>
+                </c:pt>
+                <c:pt idx="118" c:formatCode="yyyy/m/d">
+                  <c:v>45478</c:v>
+                </c:pt>
+                <c:pt idx="119" c:formatCode="yyyy/m/d">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="120" c:formatCode="yyyy/m/d">
+                  <c:v>45482</c:v>
+                </c:pt>
+                <c:pt idx="121" c:formatCode="yyyy/m/d">
+                  <c:v>45483</c:v>
+                </c:pt>
+                <c:pt idx="122" c:formatCode="yyyy/m/d">
+                  <c:v>45484</c:v>
+                </c:pt>
+                <c:pt idx="123" c:formatCode="yyyy/m/d">
+                  <c:v>45485</c:v>
+                </c:pt>
+                <c:pt idx="124" c:formatCode="yyyy/m/d">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="125" c:formatCode="yyyy/m/d">
+                  <c:v>45489</c:v>
+                </c:pt>
+                <c:pt idx="126" c:formatCode="yyyy/m/d">
+                  <c:v>45490</c:v>
+                </c:pt>
+                <c:pt idx="127" c:formatCode="yyyy/m/d">
+                  <c:v>45491</c:v>
+                </c:pt>
+                <c:pt idx="128" c:formatCode="yyyy/m/d">
+                  <c:v>45492</c:v>
+                </c:pt>
+                <c:pt idx="129" c:formatCode="yyyy/m/d">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="130" c:formatCode="yyyy/m/d">
+                  <c:v>45496</c:v>
+                </c:pt>
+                <c:pt idx="131" c:formatCode="yyyy/m/d">
+                  <c:v>45497</c:v>
+                </c:pt>
+                <c:pt idx="132" c:formatCode="yyyy/m/d">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="133" c:formatCode="yyyy/m/d">
+                  <c:v>45499</c:v>
+                </c:pt>
+                <c:pt idx="134" c:formatCode="yyyy/m/d">
+                  <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="135" c:formatCode="yyyy/m/d">
+                  <c:v>45503</c:v>
+                </c:pt>
+                <c:pt idx="136" c:formatCode="yyyy/m/d">
+                  <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="137" c:formatCode="yyyy/m/d">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="138" c:formatCode="yyyy/m/d">
+                  <c:v>45506</c:v>
+                </c:pt>
+                <c:pt idx="139" c:formatCode="yyyy/m/d">
+                  <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="140" c:formatCode="yyyy/m/d">
+                  <c:v>45510</c:v>
+                </c:pt>
+                <c:pt idx="141" c:formatCode="yyyy/m/d">
+                  <c:v>45511</c:v>
+                </c:pt>
+                <c:pt idx="142" c:formatCode="yyyy/m/d">
+                  <c:v>45512</c:v>
+                </c:pt>
+                <c:pt idx="143" c:formatCode="yyyy/m/d">
+                  <c:v>45513</c:v>
+                </c:pt>
+                <c:pt idx="144" c:formatCode="yyyy/m/d">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="145" c:formatCode="yyyy/m/d">
+                  <c:v>45517</c:v>
+                </c:pt>
+                <c:pt idx="146" c:formatCode="yyyy/m/d">
+                  <c:v>45518</c:v>
+                </c:pt>
+                <c:pt idx="147" c:formatCode="yyyy/m/d">
+                  <c:v>45519</c:v>
+                </c:pt>
+                <c:pt idx="148" c:formatCode="yyyy/m/d">
+                  <c:v>45520</c:v>
+                </c:pt>
+                <c:pt idx="149" c:formatCode="yyyy/m/d">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="150" c:formatCode="yyyy/m/d">
+                  <c:v>45524</c:v>
+                </c:pt>
+                <c:pt idx="151" c:formatCode="yyyy/m/d">
+                  <c:v>45525</c:v>
+                </c:pt>
+                <c:pt idx="152" c:formatCode="yyyy/m/d">
+                  <c:v>45526</c:v>
+                </c:pt>
+                <c:pt idx="153" c:formatCode="yyyy/m/d">
+                  <c:v>45527</c:v>
+                </c:pt>
+                <c:pt idx="154" c:formatCode="yyyy/m/d">
+                  <c:v>45530</c:v>
+                </c:pt>
+                <c:pt idx="155" c:formatCode="yyyy/m/d">
+                  <c:v>45531</c:v>
+                </c:pt>
+                <c:pt idx="156" c:formatCode="yyyy/m/d">
+                  <c:v>45532</c:v>
+                </c:pt>
+                <c:pt idx="157" c:formatCode="yyyy/m/d">
+                  <c:v>45533</c:v>
+                </c:pt>
+                <c:pt idx="158" c:formatCode="yyyy/m/d">
+                  <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="159" c:formatCode="yyyy/m/d">
+                  <c:v>45537</c:v>
+                </c:pt>
+                <c:pt idx="160" c:formatCode="yyyy/m/d">
+                  <c:v>45538</c:v>
+                </c:pt>
+                <c:pt idx="161" c:formatCode="yyyy/m/d">
+                  <c:v>45539</c:v>
+                </c:pt>
+                <c:pt idx="162" c:formatCode="yyyy/m/d">
+                  <c:v>45540</c:v>
+                </c:pt>
+                <c:pt idx="163" c:formatCode="yyyy/m/d">
+                  <c:v>45541</c:v>
+                </c:pt>
+                <c:pt idx="164" c:formatCode="yyyy/m/d">
+                  <c:v>45544</c:v>
+                </c:pt>
+                <c:pt idx="165" c:formatCode="yyyy/m/d">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="166" c:formatCode="yyyy/m/d">
+                  <c:v>45546</c:v>
+                </c:pt>
+                <c:pt idx="167" c:formatCode="yyyy/m/d">
+                  <c:v>45547</c:v>
+                </c:pt>
+                <c:pt idx="168" c:formatCode="yyyy/m/d">
+                  <c:v>45548</c:v>
+                </c:pt>
+                <c:pt idx="169" c:formatCode="yyyy/m/d">
+                  <c:v>45551</c:v>
+                </c:pt>
+                <c:pt idx="170" c:formatCode="yyyy/m/d">
+                  <c:v>45552</c:v>
+                </c:pt>
+                <c:pt idx="171" c:formatCode="yyyy/m/d">
+                  <c:v>45553</c:v>
+                </c:pt>
+                <c:pt idx="172" c:formatCode="yyyy/m/d">
+                  <c:v>45554</c:v>
+                </c:pt>
+                <c:pt idx="173" c:formatCode="yyyy/m/d">
+                  <c:v>45555</c:v>
+                </c:pt>
+                <c:pt idx="174" c:formatCode="yyyy/m/d">
+                  <c:v>45558</c:v>
+                </c:pt>
+                <c:pt idx="175" c:formatCode="yyyy/m/d">
+                  <c:v>45559</c:v>
+                </c:pt>
+                <c:pt idx="176" c:formatCode="yyyy/m/d">
+                  <c:v>45560</c:v>
+                </c:pt>
+                <c:pt idx="177" c:formatCode="yyyy/m/d">
+                  <c:v>45561</c:v>
+                </c:pt>
+                <c:pt idx="178" c:formatCode="yyyy/m/d">
+                  <c:v>45562</c:v>
+                </c:pt>
+                <c:pt idx="179" c:formatCode="yyyy/m/d">
+                  <c:v>45572</c:v>
+                </c:pt>
+                <c:pt idx="180" c:formatCode="yyyy/m/d">
+                  <c:v>45573</c:v>
+                </c:pt>
+                <c:pt idx="181" c:formatCode="yyyy/m/d">
+                  <c:v>45574</c:v>
+                </c:pt>
+                <c:pt idx="182" c:formatCode="yyyy/m/d">
+                  <c:v>45575</c:v>
+                </c:pt>
+                <c:pt idx="183" c:formatCode="yyyy/m/d">
+                  <c:v>45576</c:v>
+                </c:pt>
+                <c:pt idx="184" c:formatCode="yyyy/m/d">
+                  <c:v>45579</c:v>
+                </c:pt>
+                <c:pt idx="185" c:formatCode="yyyy/m/d">
+                  <c:v>45580</c:v>
+                </c:pt>
+                <c:pt idx="186" c:formatCode="yyyy/m/d">
+                  <c:v>45581</c:v>
+                </c:pt>
+                <c:pt idx="187" c:formatCode="yyyy/m/d">
+                  <c:v>45582</c:v>
+                </c:pt>
+                <c:pt idx="188" c:formatCode="yyyy/m/d">
+                  <c:v>45583</c:v>
+                </c:pt>
+                <c:pt idx="189" c:formatCode="yyyy/m/d">
+                  <c:v>45586</c:v>
+                </c:pt>
+                <c:pt idx="190" c:formatCode="yyyy/m/d">
+                  <c:v>45587</c:v>
+                </c:pt>
+                <c:pt idx="191" c:formatCode="yyyy/m/d">
+                  <c:v>45588</c:v>
+                </c:pt>
+                <c:pt idx="192" c:formatCode="yyyy/m/d">
+                  <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="193" c:formatCode="yyyy/m/d">
+                  <c:v>45590</c:v>
+                </c:pt>
+                <c:pt idx="194" c:formatCode="yyyy/m/d">
+                  <c:v>45593</c:v>
+                </c:pt>
+                <c:pt idx="195" c:formatCode="yyyy/m/d">
+                  <c:v>45594</c:v>
+                </c:pt>
+                <c:pt idx="196" c:formatCode="yyyy/m/d">
+                  <c:v>45595</c:v>
+                </c:pt>
+                <c:pt idx="197" c:formatCode="yyyy/m/d">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="198" c:formatCode="yyyy/m/d">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="199" c:formatCode="yyyy/m/d">
+                  <c:v>45600</c:v>
+                </c:pt>
+                <c:pt idx="200" c:formatCode="yyyy/m/d">
+                  <c:v>45601</c:v>
+                </c:pt>
+                <c:pt idx="201" c:formatCode="yyyy/m/d">
+                  <c:v>45602</c:v>
+                </c:pt>
+                <c:pt idx="202" c:formatCode="yyyy/m/d">
+                  <c:v>45603</c:v>
+                </c:pt>
+                <c:pt idx="203" c:formatCode="yyyy/m/d">
+                  <c:v>45604</c:v>
+                </c:pt>
+                <c:pt idx="204" c:formatCode="yyyy/m/d">
+                  <c:v>45607</c:v>
+                </c:pt>
+                <c:pt idx="205" c:formatCode="yyyy/m/d">
+                  <c:v>45608</c:v>
+                </c:pt>
+                <c:pt idx="206" c:formatCode="yyyy/m/d">
+                  <c:v>45609</c:v>
+                </c:pt>
+                <c:pt idx="207" c:formatCode="yyyy/m/d">
+                  <c:v>45610</c:v>
+                </c:pt>
+                <c:pt idx="208" c:formatCode="yyyy/m/d">
+                  <c:v>45611</c:v>
+                </c:pt>
+                <c:pt idx="209" c:formatCode="yyyy/m/d">
+                  <c:v>45614</c:v>
+                </c:pt>
+                <c:pt idx="210" c:formatCode="yyyy/m/d">
+                  <c:v>45615</c:v>
+                </c:pt>
+                <c:pt idx="211" c:formatCode="yyyy/m/d">
+                  <c:v>45616</c:v>
+                </c:pt>
+                <c:pt idx="212" c:formatCode="yyyy/m/d">
+                  <c:v>45617</c:v>
+                </c:pt>
+                <c:pt idx="213" c:formatCode="yyyy/m/d">
+                  <c:v>45618</c:v>
+                </c:pt>
+                <c:pt idx="214" c:formatCode="yyyy/m/d">
+                  <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="215" c:formatCode="yyyy/m/d">
+                  <c:v>45622</c:v>
+                </c:pt>
+                <c:pt idx="216" c:formatCode="yyyy/m/d">
+                  <c:v>45623</c:v>
+                </c:pt>
+                <c:pt idx="217" c:formatCode="yyyy/m/d">
+                  <c:v>45624</c:v>
+                </c:pt>
+                <c:pt idx="218" c:formatCode="yyyy/m/d">
+                  <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="219" c:formatCode="yyyy/m/d">
+                  <c:v>45628</c:v>
+                </c:pt>
+                <c:pt idx="220" c:formatCode="yyyy/m/d">
+                  <c:v>45629</c:v>
+                </c:pt>
+                <c:pt idx="221" c:formatCode="yyyy/m/d">
+                  <c:v>45630</c:v>
+                </c:pt>
+                <c:pt idx="222" c:formatCode="yyyy/m/d">
+                  <c:v>45631</c:v>
+                </c:pt>
+                <c:pt idx="223" c:formatCode="yyyy/m/d">
+                  <c:v>45632</c:v>
+                </c:pt>
+                <c:pt idx="224" c:formatCode="yyyy/m/d">
+                  <c:v>45635</c:v>
+                </c:pt>
+                <c:pt idx="225" c:formatCode="yyyy/m/d">
+                  <c:v>45636</c:v>
+                </c:pt>
+                <c:pt idx="226" c:formatCode="yyyy/m/d">
+                  <c:v>45637</c:v>
+                </c:pt>
+                <c:pt idx="227" c:formatCode="yyyy/m/d">
+                  <c:v>45638</c:v>
+                </c:pt>
+                <c:pt idx="228" c:formatCode="yyyy/m/d">
+                  <c:v>45639</c:v>
+                </c:pt>
+                <c:pt idx="229" c:formatCode="yyyy/m/d">
+                  <c:v>45642</c:v>
+                </c:pt>
+                <c:pt idx="230" c:formatCode="yyyy/m/d">
+                  <c:v>45643</c:v>
+                </c:pt>
+                <c:pt idx="231" c:formatCode="yyyy/m/d">
+                  <c:v>45644</c:v>
+                </c:pt>
+                <c:pt idx="232" c:formatCode="yyyy/m/d">
+                  <c:v>45645</c:v>
+                </c:pt>
+                <c:pt idx="233" c:formatCode="yyyy/m/d">
+                  <c:v>45646</c:v>
+                </c:pt>
+                <c:pt idx="234" c:formatCode="yyyy/m/d">
+                  <c:v>45649</c:v>
+                </c:pt>
+                <c:pt idx="235" c:formatCode="yyyy/m/d">
+                  <c:v>45650</c:v>
+                </c:pt>
+                <c:pt idx="236" c:formatCode="yyyy/m/d">
+                  <c:v>45651</c:v>
+                </c:pt>
+                <c:pt idx="237" c:formatCode="yyyy/m/d">
+                  <c:v>45652</c:v>
+                </c:pt>
+                <c:pt idx="238" c:formatCode="yyyy/m/d">
+                  <c:v>45653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>A账户!$G$2:$G$240</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="239"/>
+                <c:pt idx="19">
+                  <c:v>241972</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>237504</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>103586</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>402225.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39939</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>493404.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>413020.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>122372</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>328726</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>338781.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="33889051"/>
+        <c:axId val="339500317"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="33889051"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339500317"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="339500317"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33889051"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10000"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="355132087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344708845"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="344708845"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355132087"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -14337,6 +17309,12 @@
                 </c:pt>
                 <c:pt idx="31" c:formatCode="#,##0">
                   <c:v>-16933</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3050</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-7560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15230,6 +18208,12 @@
                 <c:pt idx="31">
                   <c:v>127280</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>110347</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>107297</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16106,6 +19090,12 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>110347</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>107297</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16586,6 +19576,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -19763,6 +22793,529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -19907,29 +23460,59 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1000760</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>109855</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8877935" y="520700"/>
-        <a:ext cx="70929500" cy="7990205"/>
+        <a:off x="5182235" y="36077525"/>
+        <a:ext cx="8626475" cy="4086225"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>115</xdr:col>
+      <xdr:colOff>681990</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7534910" y="358775"/>
+        <a:ext cx="74053065" cy="9209405"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20225,8 +23808,8 @@
   <sheetPr/>
   <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -20619,14 +24202,26 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>45351</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="1">
+        <v>3015.2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>45352</v>
+      </c>
+      <c r="B37" s="16">
+        <v>3027</v>
+      </c>
+      <c r="C37" s="16">
+        <v>10600</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -21721,8 +25316,8 @@
   <sheetPr/>
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:G35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -21834,7 +25429,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8">
+      <c r="A7" s="34">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -21849,7 +25444,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8">
+      <c r="A8" s="34">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -21938,18 +25533,18 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="14" s="31" customFormat="1" spans="1:7">
-      <c r="A14" s="32">
+    <row r="14" s="33" customFormat="1" spans="1:7">
+      <c r="A14" s="35">
         <v>45313</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="36">
         <v>-499</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36">
         <v>10.7</v>
       </c>
     </row>
@@ -22020,36 +25615,36 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" s="31" customFormat="1" spans="1:7">
-      <c r="A20" s="32">
+    <row r="20" s="33" customFormat="1" spans="1:7">
+      <c r="A20" s="35">
         <v>45321</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="36">
         <v>-306.4</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33">
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36">
         <v>17.4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="34">
+      <c r="A21" s="37">
         <v>45322</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="38">
         <v>-329</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38">
         <v>37</v>
       </c>
-      <c r="H21" s="36"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
@@ -22305,14 +25900,50 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>45351</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="1">
+        <v>202.4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>177.2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-106</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-106</v>
+      </c>
+      <c r="G36" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>45352</v>
+      </c>
+      <c r="B37" s="16">
+        <v>-29.6</v>
+      </c>
+      <c r="C37" s="16">
+        <v>51.1</v>
+      </c>
+      <c r="D37" s="16">
+        <v>-80.7</v>
+      </c>
+      <c r="E37" s="16">
+        <v>-39.7</v>
+      </c>
+      <c r="F37" s="16">
+        <v>69.3</v>
+      </c>
+      <c r="G37" s="16">
+        <v>-53.3</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -23407,8 +27038,8 @@
   <sheetPr/>
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -23640,17 +27271,17 @@
         <v>76.4</v>
       </c>
     </row>
-    <row r="17" s="11" customFormat="1" spans="1:4">
-      <c r="A17" s="29">
+    <row r="17" s="12" customFormat="1" spans="1:4">
+      <c r="A17" s="31">
         <v>45316</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="27">
         <v>4885</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="27">
         <v>427</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="27">
         <v>91.9</v>
       </c>
     </row>
@@ -23748,21 +27379,21 @@
       <c r="C24" s="1">
         <v>4898</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="29">
+      <c r="A25" s="31">
         <v>45328</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="27">
         <v>3829</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="27">
         <v>1465</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="27">
         <v>75</v>
       </c>
     </row>
@@ -23879,16 +27510,16 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2">
+      <c r="A34" s="31">
         <v>45349</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="27">
         <v>5031</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="27">
         <v>277</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="27">
         <v>94.8</v>
       </c>
     </row>
@@ -23906,14 +27537,32 @@
         <v>5.1</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
         <v>45351</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="1">
+        <v>5225</v>
+      </c>
+      <c r="C36" s="1">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>45352</v>
+      </c>
+      <c r="B37" s="16">
+        <v>3522</v>
+      </c>
+      <c r="C37" s="16">
+        <v>1644</v>
+      </c>
+      <c r="D37" s="16">
+        <v>68.2</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -24979,7 +28628,7 @@
   <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C35"/>
+      <selection activeCell="A37" sqref="A37:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -25372,14 +29021,26 @@
         <v>326</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>45351</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="1">
+        <v>115</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>45352</v>
+      </c>
+      <c r="B37" s="16">
+        <v>80</v>
+      </c>
+      <c r="C37" s="16">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -26444,8 +30105,8 @@
   <sheetPr/>
   <dimension ref="A1:G240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -26503,7 +30164,7 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="14">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
@@ -26511,16 +30172,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="16">
+      <c r="A4" s="18">
         <v>45308</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="10">
         <v>186745</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="19">
         <v>179605</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="10">
         <v>-7140</v>
       </c>
       <c r="E4" s="1"/>
@@ -26532,7 +30193,7 @@
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
@@ -26547,7 +30208,7 @@
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
@@ -26556,19 +30217,19 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" s="9" customFormat="1" spans="1:5">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>45313</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="13">
         <v>172869</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="21">
         <v>159060</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>-13809</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
       <c r="A8" s="2">
@@ -26577,13 +30238,13 @@
       <c r="B8" s="1">
         <v>159060</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>160802</v>
       </c>
       <c r="D8" s="1">
         <v>1742</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="2">
@@ -26592,13 +30253,13 @@
       <c r="B9" s="1">
         <v>160802</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>166590</v>
       </c>
       <c r="D9" s="1">
         <v>5788</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="2">
@@ -26607,13 +30268,13 @@
       <c r="B10" s="1">
         <v>166590</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <v>327640</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>11050</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="2">
@@ -26622,57 +30283,57 @@
       <c r="B11" s="1">
         <v>327640</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>380028</v>
       </c>
       <c r="D11" s="1">
         <v>2388</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" s="11" customFormat="1" spans="1:4">
-      <c r="A12" s="19">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" s="12" customFormat="1" spans="1:4">
+      <c r="A12" s="20">
         <v>45320</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="13">
         <v>380028</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="21">
         <v>366741</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="21">
         <v>-13287</v>
       </c>
     </row>
     <row r="13" s="9" customFormat="1" spans="1:5">
-      <c r="A13" s="19">
+      <c r="A13" s="20">
         <v>45321</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="13">
         <v>366741</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="21">
         <v>349327</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="21">
         <v>-17414</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" s="9" customFormat="1" spans="1:5">
-      <c r="A14" s="19">
+      <c r="A14" s="20">
         <v>45322</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="13">
         <v>349327</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="21">
         <v>330423</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="21">
         <v>-18904</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="2">
@@ -26681,43 +30342,43 @@
       <c r="B15" s="1">
         <v>330423</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="14">
         <v>326596</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <v>-3746</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" s="9" customFormat="1" spans="1:5">
-      <c r="A16" s="21">
+      <c r="A16" s="22">
         <v>45324</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="23">
         <v>330423</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="24">
         <v>297670</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="24">
         <v>-36618</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" s="9" customFormat="1" spans="1:5">
-      <c r="A17" s="21">
+      <c r="A17" s="22">
         <v>45327</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="23">
         <v>297670</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="24">
         <v>244693</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="24">
         <v>-52977</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="2">
@@ -26732,22 +30393,22 @@
       <c r="D18" s="1">
         <v>11207.5</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1">
         <v>403062.61</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:6">
-      <c r="A19" s="21">
+      <c r="A19" s="22">
         <v>45329</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="23">
         <v>218441</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="23">
         <v>231227</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="23">
         <v>-27154</v>
       </c>
       <c r="E19" s="1">
@@ -26793,10 +30454,10 @@
       <c r="E21" s="1">
         <v>275095</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="14">
         <v>483454</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="25">
         <v>241972</v>
       </c>
     </row>
@@ -26819,7 +30480,7 @@
       <c r="F22" s="1">
         <v>478986</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="25">
         <v>237504</v>
       </c>
     </row>
@@ -26842,7 +30503,7 @@
       <c r="F23" s="1">
         <v>345067</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="25">
         <v>103586</v>
       </c>
     </row>
@@ -26865,7 +30526,7 @@
       <c r="F24" s="1">
         <v>435058</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="26">
         <v>402225.8</v>
       </c>
     </row>
@@ -26888,21 +30549,21 @@
       <c r="F25" s="1">
         <v>267386.1</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="27">
         <v>39939</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:7">
-      <c r="A26" s="27">
+      <c r="A26" s="28">
         <v>45348</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="29">
         <v>267386.1</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="29">
         <v>259454.3</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="29">
         <v>-7823.2</v>
       </c>
       <c r="E26" s="1">
@@ -26911,7 +30572,7 @@
       <c r="F26" s="1">
         <v>496539</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="26">
         <v>493404.8</v>
       </c>
     </row>
@@ -26934,21 +30595,21 @@
       <c r="F27" s="1">
         <v>499050.3</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="26">
         <v>413020.7</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:7">
-      <c r="A28" s="21">
+      <c r="A28" s="22">
         <v>45350</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="23">
         <v>275197.6</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="23">
         <v>247357.1</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="23">
         <v>-27515.7</v>
       </c>
       <c r="E28" s="1">
@@ -26957,18 +30618,54 @@
       <c r="F28" s="1">
         <v>247357</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="25">
         <v>122372</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:1">
+    <row r="29" customFormat="1" spans="1:7">
       <c r="A29" s="2">
         <v>45351</v>
       </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:1">
+      <c r="B29" s="1">
+        <v>247357.1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>252306.7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5086</v>
+      </c>
+      <c r="E29" s="1">
+        <v>247357</v>
+      </c>
+      <c r="F29" s="1">
+        <v>415245.1</v>
+      </c>
+      <c r="G29" s="26">
+        <v>328726</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:7">
       <c r="A30" s="2">
         <v>45352</v>
+      </c>
+      <c r="B30" s="16">
+        <v>252306.7</v>
+      </c>
+      <c r="C30" s="16">
+        <v>246729.9</v>
+      </c>
+      <c r="D30" s="16">
+        <v>4735.9</v>
+      </c>
+      <c r="E30" s="16">
+        <v>415245.1</v>
+      </c>
+      <c r="F30" s="16">
+        <v>369478.75</v>
+      </c>
+      <c r="G30" s="30">
+        <v>338781.9</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:1">
@@ -28033,7 +31730,7 @@
   <sheetPr/>
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -28099,7 +31796,7 @@
       <c r="C4" s="1">
         <v>171323</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="10">
         <v>-5854</v>
       </c>
     </row>
@@ -28174,16 +31871,16 @@
       </c>
     </row>
     <row r="10" s="9" customFormat="1" spans="1:4">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>45309</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>148686</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="12">
         <v>137065</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <v>-11621</v>
       </c>
     </row>
@@ -28211,7 +31908,7 @@
       <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <v>13503</v>
       </c>
     </row>
@@ -28239,7 +31936,7 @@
       <c r="C14" s="1">
         <v>141212</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="10">
         <v>-6956</v>
       </c>
     </row>
@@ -28253,7 +31950,7 @@
       <c r="C15" s="1">
         <v>137236</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <v>-3976</v>
       </c>
     </row>
@@ -28267,7 +31964,7 @@
       <c r="C16" s="1">
         <v>139014</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="14">
         <v>1778</v>
       </c>
     </row>
@@ -28427,7 +32124,7 @@
       <c r="C27" s="1">
         <v>120255</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="13">
         <v>-10231</v>
       </c>
     </row>
@@ -28508,24 +32205,42 @@
       <c r="A33" s="2">
         <v>45350</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="1">
         <v>127280</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="1">
         <v>110347</v>
       </c>
       <c r="D33" s="15">
         <v>-16933</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:1">
+    <row r="34" customFormat="1" spans="1:4">
       <c r="A34" s="2">
         <v>45351</v>
       </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:1">
+      <c r="B34" s="1">
+        <v>110347</v>
+      </c>
+      <c r="C34" s="1">
+        <v>107297</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-3050</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:4">
       <c r="A35" s="2">
         <v>45352</v>
+      </c>
+      <c r="B35" s="16">
+        <v>107297</v>
+      </c>
+      <c r="C35" s="16">
+        <v>99737</v>
+      </c>
+      <c r="D35" s="17">
+        <v>-7560</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:1">
@@ -29588,10 +33303,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -29755,8 +33470,8 @@
       </c>
     </row>
     <row r="17" ht="92" customHeight="1" spans="1:3">
-      <c r="A17" s="8">
-        <v>46811</v>
+      <c r="A17" s="2">
+        <v>45350</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>48</v>
@@ -29764,6 +33479,73 @@
       <c r="C17" s="7" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="18" ht="283" customHeight="1" spans="1:3">
+      <c r="A18" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="72" customHeight="1" spans="1:3">
+      <c r="A19" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -29783,7 +33565,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -29800,16 +33582,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -29817,16 +33599,16 @@
         <v>45316</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1">
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -29834,13 +33616,13 @@
         <v>45316</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
         <v>50000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -29849,16 +33631,16 @@
         <v>45317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1">
         <v>50000</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -29866,13 +33648,13 @@
         <v>45329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1">
         <v>40000</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="7"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>日期</t>
   </si>
@@ -351,6 +351,13 @@
 市场在13：30之前一直在震荡，后看到没有要下跌的迹象，再次重仓。
 买入了悦心健康(看到游资赵老哥的推荐)；买入了中文在线(Sora 龙头)。
 下周一是两会，应该会有指数维稳。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上周五尾盘市场拉升，股市情绪升高，股市温度达到68。 周五尾盘重仓买入了悦心健康(看到游资赵老哥的推荐)；买入了中文在线(Sora 龙头)。
+早盘要关注：①期货市场情绪是否热烈 ②A50 的表现 ③成交量情况  ④2H Trix </t>
+  </si>
+  <si>
+    <t>大A指数今天表现：开盘下跌，个股快速下跌，一度让我觉得今天风险巨大；好在后来指数稳住了，尾盘指数更是达到了近期高点3040。今天市场温度开始下降，只有40度。 会有一定的亏钱效应出现。</t>
   </si>
   <si>
     <t>资金出入方向</t>
@@ -1069,7 +1076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,6 +1104,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1116,12 +1126,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1163,10 +1167,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
@@ -2404,6 +2414,9 @@
                 <c:pt idx="35">
                   <c:v>10600</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>10800</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3313,6 +3326,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3039.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4533,6 +4549,9 @@
                 <c:pt idx="35">
                   <c:v>-29.6</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>-269.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5424,6 +5443,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-53.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-70.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6562,6 +6584,9 @@
                 <c:pt idx="35">
                   <c:v>68.2</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>39.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7472,6 +7497,9 @@
                 <c:pt idx="35">
                   <c:v>3522</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>2083</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8366,6 +8394,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1644</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9580,6 +9611,9 @@
                 <c:pt idx="35">
                   <c:v>80</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>87</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10471,6 +10505,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11566,6 +11603,9 @@
                 <c:pt idx="28">
                   <c:v>4735.9</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>7036</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12433,6 +12473,9 @@
                 <c:pt idx="28">
                   <c:v>252306.7</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>246729.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13282,6 +13325,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>246729.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>237477.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14450,6 +14496,9 @@
                 <c:pt idx="28">
                   <c:v>4735.9</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>7036</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15318,6 +15367,9 @@
                 <c:pt idx="28">
                   <c:v>246729.9</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>237477.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16113,6 +16165,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>338781.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>226745.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17316,6 +17371,9 @@
                 <c:pt idx="33">
                   <c:v>-7560</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>5850</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18214,6 +18272,9 @@
                 <c:pt idx="33">
                   <c:v>107297</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>99737</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19096,6 +19157,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>99737</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>105587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23808,8 +23872,8 @@
   <sheetPr/>
   <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:C37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -24217,16 +24281,22 @@
       <c r="A37" s="2">
         <v>45352</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="1">
         <v>3027</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="1">
         <v>10600</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>45355</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3039.3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10800</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -25316,8 +25386,8 @@
   <sheetPr/>
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:G37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -25429,7 +25499,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="34">
+      <c r="A7" s="35">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -25444,7 +25514,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="34">
+      <c r="A8" s="35">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -25533,18 +25603,18 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="14" s="33" customFormat="1" spans="1:7">
-      <c r="A14" s="35">
+    <row r="14" s="34" customFormat="1" spans="1:7">
+      <c r="A14" s="36">
         <v>45313</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="37">
         <v>-499</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37">
         <v>10.7</v>
       </c>
     </row>
@@ -25615,36 +25685,36 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" s="33" customFormat="1" spans="1:7">
-      <c r="A20" s="35">
+    <row r="20" s="34" customFormat="1" spans="1:7">
+      <c r="A20" s="36">
         <v>45321</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="37">
         <v>-306.4</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36">
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37">
         <v>17.4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="37">
+      <c r="A21" s="38">
         <v>45322</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="39">
         <v>-329</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39">
         <v>37</v>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
@@ -25927,28 +25997,46 @@
       <c r="A37" s="2">
         <v>45352</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="1">
         <v>-29.6</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="1">
         <v>51.1</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="1">
         <v>-80.7</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="1">
         <v>-39.7</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="1">
         <v>69.3</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="1">
         <v>-53.3</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>45355</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-269.5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-107.1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-162.4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>83.8</v>
+      </c>
+      <c r="F38" s="1">
+        <v>185.7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-70.6</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -27038,8 +27126,8 @@
   <sheetPr/>
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:D37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -27271,17 +27359,17 @@
         <v>76.4</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1" spans="1:4">
+    <row r="17" s="13" customFormat="1" spans="1:4">
       <c r="A17" s="31">
         <v>45316</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>4885</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <v>427</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <v>91.9</v>
       </c>
     </row>
@@ -27387,13 +27475,13 @@
       <c r="A25" s="31">
         <v>45328</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="26">
         <v>3829</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="26">
         <v>1465</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="26">
         <v>75</v>
       </c>
     </row>
@@ -27513,13 +27601,13 @@
       <c r="A34" s="31">
         <v>45349</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="26">
         <v>5031</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="26">
         <v>277</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="26">
         <v>94.8</v>
       </c>
     </row>
@@ -27555,19 +27643,28 @@
       <c r="A37" s="2">
         <v>45352</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="1">
         <v>3522</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="1">
         <v>1644</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="1">
         <v>68.2</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2">
+    <row r="38" spans="1:4">
+      <c r="A38" s="33">
         <v>45355</v>
+      </c>
+      <c r="B38" s="24">
+        <v>2083</v>
+      </c>
+      <c r="C38" s="24">
+        <v>3170</v>
+      </c>
+      <c r="D38" s="24">
+        <v>39.7</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -28627,8 +28724,8 @@
   <sheetPr/>
   <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:C37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -29036,16 +29133,22 @@
       <c r="A37" s="2">
         <v>45352</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="1">
         <v>80</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>45355</v>
+      </c>
+      <c r="B38" s="1">
+        <v>87</v>
+      </c>
+      <c r="C38" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -30105,8 +30208,8 @@
   <sheetPr/>
   <dimension ref="A1:G240"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -30164,7 +30267,7 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
@@ -30172,16 +30275,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>45308</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>186745</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>179605</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>-7140</v>
       </c>
       <c r="E4" s="1"/>
@@ -30193,7 +30296,7 @@
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
@@ -30208,7 +30311,7 @@
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
@@ -30216,20 +30319,20 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:5">
-      <c r="A7" s="20">
+    <row r="7" s="10" customFormat="1" spans="1:5">
+      <c r="A7" s="19">
         <v>45313</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>172869</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>159060</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>-13809</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
       <c r="A8" s="2">
@@ -30238,13 +30341,13 @@
       <c r="B8" s="1">
         <v>159060</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>160802</v>
       </c>
       <c r="D8" s="1">
         <v>1742</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="2">
@@ -30253,13 +30356,13 @@
       <c r="B9" s="1">
         <v>160802</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <v>166590</v>
       </c>
       <c r="D9" s="1">
         <v>5788</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="2">
@@ -30268,13 +30371,13 @@
       <c r="B10" s="1">
         <v>166590</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>327640</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="15">
         <v>11050</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="2">
@@ -30283,57 +30386,57 @@
       <c r="B11" s="1">
         <v>327640</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="15">
         <v>380028</v>
       </c>
       <c r="D11" s="1">
         <v>2388</v>
       </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" s="12" customFormat="1" spans="1:4">
-      <c r="A12" s="20">
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" s="13" customFormat="1" spans="1:4">
+      <c r="A12" s="19">
         <v>45320</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="14">
         <v>380028</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>366741</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>-13287</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="1" spans="1:5">
-      <c r="A13" s="20">
+    <row r="13" s="10" customFormat="1" spans="1:5">
+      <c r="A13" s="19">
         <v>45321</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="14">
         <v>366741</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>349327</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>-17414</v>
       </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" s="9" customFormat="1" spans="1:5">
-      <c r="A14" s="20">
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" s="10" customFormat="1" spans="1:5">
+      <c r="A14" s="19">
         <v>45322</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="14">
         <v>349327</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>330423</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>-18904</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="2">
@@ -30342,43 +30445,43 @@
       <c r="B15" s="1">
         <v>330423</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="15">
         <v>326596</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="15">
         <v>-3746</v>
       </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" s="9" customFormat="1" spans="1:5">
-      <c r="A16" s="22">
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="1:5">
+      <c r="A16" s="21">
         <v>45324</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>330423</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>297670</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>-36618</v>
       </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" s="9" customFormat="1" spans="1:5">
-      <c r="A17" s="22">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" s="10" customFormat="1" spans="1:5">
+      <c r="A17" s="21">
         <v>45327</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>297670</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>244693</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>-52977</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="2">
@@ -30393,22 +30496,22 @@
       <c r="D18" s="1">
         <v>11207.5</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="1">
         <v>403062.61</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:6">
-      <c r="A19" s="22">
+      <c r="A19" s="21">
         <v>45329</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>218441</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>231227</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>-27154</v>
       </c>
       <c r="E19" s="1">
@@ -30454,10 +30557,10 @@
       <c r="E21" s="1">
         <v>275095</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="15">
         <v>483454</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="24">
         <v>241972</v>
       </c>
     </row>
@@ -30480,7 +30583,7 @@
       <c r="F22" s="1">
         <v>478986</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="24">
         <v>237504</v>
       </c>
     </row>
@@ -30503,7 +30606,7 @@
       <c r="F23" s="1">
         <v>345067</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="24">
         <v>103586</v>
       </c>
     </row>
@@ -30526,7 +30629,7 @@
       <c r="F24" s="1">
         <v>435058</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="25">
         <v>402225.8</v>
       </c>
     </row>
@@ -30549,21 +30652,21 @@
       <c r="F25" s="1">
         <v>267386.1</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="26">
         <v>39939</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:7">
-      <c r="A26" s="28">
+      <c r="A26" s="27">
         <v>45348</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <v>267386.1</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <v>259454.3</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="28">
         <v>-7823.2</v>
       </c>
       <c r="E26" s="1">
@@ -30572,7 +30675,7 @@
       <c r="F26" s="1">
         <v>496539</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="25">
         <v>493404.8</v>
       </c>
     </row>
@@ -30595,21 +30698,21 @@
       <c r="F27" s="1">
         <v>499050.3</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="25">
         <v>413020.7</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:7">
-      <c r="A28" s="22">
+      <c r="A28" s="21">
         <v>45350</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>275197.6</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <v>247357.1</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="22">
         <v>-27515.7</v>
       </c>
       <c r="E28" s="1">
@@ -30618,7 +30721,7 @@
       <c r="F28" s="1">
         <v>247357</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="24">
         <v>122372</v>
       </c>
     </row>
@@ -30641,7 +30744,7 @@
       <c r="F29" s="1">
         <v>415245.1</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="25">
         <v>328726</v>
       </c>
     </row>
@@ -30649,28 +30752,46 @@
       <c r="A30" s="2">
         <v>45352</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="1">
         <v>252306.7</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="1">
         <v>246729.9</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="1">
         <v>4735.9</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="1">
         <v>415245.1</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="1">
         <v>369478.75</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="29">
         <v>338781.9</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:1">
+    <row r="31" customFormat="1" spans="1:7">
       <c r="A31" s="2">
         <v>45355</v>
+      </c>
+      <c r="B31" s="1">
+        <v>246729.9</v>
+      </c>
+      <c r="C31" s="1">
+        <v>237477.3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7036</v>
+      </c>
+      <c r="E31" s="1">
+        <v>338781.9</v>
+      </c>
+      <c r="F31" s="1">
+        <v>307893.9</v>
+      </c>
+      <c r="G31" s="30">
+        <v>226745.9</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:1">
@@ -31730,8 +31851,8 @@
   <sheetPr/>
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -31796,7 +31917,7 @@
       <c r="C4" s="1">
         <v>171323</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>-5854</v>
       </c>
     </row>
@@ -31870,17 +31991,17 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:4">
-      <c r="A10" s="11">
+    <row r="10" s="10" customFormat="1" spans="1:4">
+      <c r="A10" s="12">
         <v>45309</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="13">
         <v>148686</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="13">
         <v>137065</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>-11621</v>
       </c>
     </row>
@@ -31908,7 +32029,7 @@
       <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="15">
         <v>13503</v>
       </c>
     </row>
@@ -31936,7 +32057,7 @@
       <c r="C14" s="1">
         <v>141212</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>-6956</v>
       </c>
     </row>
@@ -31950,7 +32071,7 @@
       <c r="C15" s="1">
         <v>137236</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="15">
         <v>-3976</v>
       </c>
     </row>
@@ -31964,7 +32085,7 @@
       <c r="C16" s="1">
         <v>139014</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="15">
         <v>1778</v>
       </c>
     </row>
@@ -32124,7 +32245,7 @@
       <c r="C27" s="1">
         <v>120255</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="14">
         <v>-10231</v>
       </c>
     </row>
@@ -32169,7 +32290,7 @@
       <c r="D30" s="1">
         <v>-967</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -32211,7 +32332,7 @@
       <c r="C33" s="1">
         <v>110347</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="16">
         <v>-16933</v>
       </c>
     </row>
@@ -32233,19 +32354,28 @@
       <c r="A35" s="2">
         <v>45352</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="1">
         <v>107297</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="1">
         <v>99737</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="11">
         <v>-7560</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="1:1">
+    <row r="36" customFormat="1" spans="1:4">
       <c r="A36" s="2">
         <v>45355</v>
+      </c>
+      <c r="B36" s="1">
+        <v>99737</v>
+      </c>
+      <c r="C36" s="1">
+        <v>105587</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5850</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:1">
@@ -33305,7 +33435,7 @@
   <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -33502,8 +33632,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
+    <row r="20" ht="70" customHeight="1" spans="1:3">
+      <c r="A20" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1"/>
@@ -33565,7 +33703,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -33582,16 +33720,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -33599,16 +33737,16 @@
         <v>45316</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1">
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -33616,13 +33754,13 @@
         <v>45316</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1">
         <v>50000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -33631,16 +33769,16 @@
         <v>45317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1">
         <v>50000</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -33648,13 +33786,13 @@
         <v>45329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1">
         <v>40000</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="6"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -1076,7 +1076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1104,9 +1104,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1126,6 +1123,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1170,6 +1170,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1177,6 +1180,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
@@ -2417,6 +2423,9 @@
                 <c:pt idx="36">
                   <c:v>10800</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>10700</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3329,6 +3338,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3039.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3047.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4552,6 +4564,9 @@
                 <c:pt idx="36">
                   <c:v>-269.5</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>-444.88</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5446,6 +5461,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-70.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6587,6 +6605,9 @@
                 <c:pt idx="36">
                   <c:v>39.7</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7500,6 +7521,9 @@
                 <c:pt idx="36">
                   <c:v>2083</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8397,6 +8421,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9614,6 +9641,9 @@
                 <c:pt idx="36">
                   <c:v>87</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>59</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10508,6 +10538,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10579,7 +10612,7 @@
         <c:axId val="770414264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500"/>
+          <c:max val="600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10629,7 +10662,7 @@
         <c:crossAx val="868857955"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="50"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11606,6 +11639,9 @@
                 <c:pt idx="29">
                   <c:v>7036</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6840.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12476,6 +12512,9 @@
                 <c:pt idx="29">
                   <c:v>246729.9</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>237477.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13328,6 +13367,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>237477.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>230454.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14499,6 +14541,9 @@
                 <c:pt idx="29">
                   <c:v>7036</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6840.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15370,6 +15415,9 @@
                 <c:pt idx="29">
                   <c:v>237477.3</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>230454.96</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16168,6 +16216,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>226745.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>191760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17374,6 +17425,9 @@
                 <c:pt idx="34">
                   <c:v>5850</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1585</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18275,6 +18329,9 @@
                 <c:pt idx="34">
                   <c:v>99737</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>105587</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19160,6 +19217,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>105587</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>104002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23873,7 +23933,7 @@
   <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:C38"/>
+      <selection activeCell="A39" sqref="A39:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -24299,9 +24359,15 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>45356</v>
+      </c>
+      <c r="B39" s="16">
+        <v>3047.79</v>
+      </c>
+      <c r="C39" s="16">
+        <v>10700</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -25386,8 +25452,8 @@
   <sheetPr/>
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -25499,7 +25565,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="35">
+      <c r="A7" s="37">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -25514,7 +25580,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="35">
+      <c r="A8" s="37">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -25603,18 +25669,18 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="14" s="34" customFormat="1" spans="1:7">
-      <c r="A14" s="36">
+    <row r="14" s="36" customFormat="1" spans="1:7">
+      <c r="A14" s="38">
         <v>45313</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="39">
         <v>-499</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39">
         <v>10.7</v>
       </c>
     </row>
@@ -25685,36 +25751,36 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="20" s="34" customFormat="1" spans="1:7">
-      <c r="A20" s="36">
+    <row r="20" s="36" customFormat="1" spans="1:7">
+      <c r="A20" s="38">
         <v>45321</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="39">
         <v>-306.4</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37">
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39">
         <v>17.4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="38">
+      <c r="A21" s="40">
         <v>45322</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="41">
         <v>-329</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39">
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41">
         <v>37</v>
       </c>
-      <c r="H21" s="40"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
@@ -26039,9 +26105,27 @@
         <v>-70.6</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>45356</v>
+      </c>
+      <c r="B39" s="16">
+        <v>-444.88</v>
+      </c>
+      <c r="C39" s="16">
+        <v>-210.94</v>
+      </c>
+      <c r="D39" s="16">
+        <v>-233.95</v>
+      </c>
+      <c r="E39" s="16">
+        <v>3.16</v>
+      </c>
+      <c r="F39" s="16">
+        <v>441.72</v>
+      </c>
+      <c r="G39" s="16">
+        <v>15.54</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -27126,8 +27210,8 @@
   <sheetPr/>
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -27359,8 +27443,8 @@
         <v>76.4</v>
       </c>
     </row>
-    <row r="17" s="13" customFormat="1" spans="1:4">
-      <c r="A17" s="31">
+    <row r="17" s="12" customFormat="1" spans="1:4">
+      <c r="A17" s="32">
         <v>45316</v>
       </c>
       <c r="B17" s="26">
@@ -27467,12 +27551,12 @@
       <c r="C24" s="1">
         <v>4898</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="33">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="31">
+      <c r="A25" s="32">
         <v>45328</v>
       </c>
       <c r="B25" s="26">
@@ -27598,7 +27682,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="31">
+      <c r="A34" s="32">
         <v>45349</v>
       </c>
       <c r="B34" s="26">
@@ -27654,7 +27738,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="33">
+      <c r="A38" s="34">
         <v>45355</v>
       </c>
       <c r="B38" s="24">
@@ -27667,9 +27751,18 @@
         <v>39.7</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2">
+    <row r="39" spans="1:4">
+      <c r="A39" s="19">
         <v>45356</v>
+      </c>
+      <c r="B39" s="35">
+        <v>933</v>
+      </c>
+      <c r="C39" s="35">
+        <v>4346</v>
+      </c>
+      <c r="D39" s="35">
+        <v>17.7</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -28724,8 +28817,8 @@
   <sheetPr/>
   <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -29151,9 +29244,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>45356</v>
+      </c>
+      <c r="B39" s="16">
+        <v>59</v>
+      </c>
+      <c r="C39" s="16">
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -30208,8 +30307,8 @@
   <sheetPr/>
   <dimension ref="A1:G240"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:F31"/>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -30267,7 +30366,7 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
@@ -30278,13 +30377,13 @@
       <c r="A4" s="17">
         <v>45308</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>186745</v>
       </c>
       <c r="C4" s="18">
         <v>179605</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>-7140</v>
       </c>
       <c r="E4" s="1"/>
@@ -30296,7 +30395,7 @@
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
@@ -30311,7 +30410,7 @@
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
@@ -30319,20 +30418,20 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="10" customFormat="1" spans="1:5">
+    <row r="7" s="9" customFormat="1" spans="1:5">
       <c r="A7" s="19">
         <v>45313</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>172869</v>
       </c>
       <c r="C7" s="20">
         <v>159060</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>-13809</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
       <c r="A8" s="2">
@@ -30341,13 +30440,13 @@
       <c r="B8" s="1">
         <v>159060</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>160802</v>
       </c>
       <c r="D8" s="1">
         <v>1742</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="2">
@@ -30356,13 +30455,13 @@
       <c r="B9" s="1">
         <v>160802</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>166590</v>
       </c>
       <c r="D9" s="1">
         <v>5788</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="2">
@@ -30371,13 +30470,13 @@
       <c r="B10" s="1">
         <v>166590</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>327640</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>11050</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="2">
@@ -30386,19 +30485,19 @@
       <c r="B11" s="1">
         <v>327640</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>380028</v>
       </c>
       <c r="D11" s="1">
         <v>2388</v>
       </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" s="13" customFormat="1" spans="1:4">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" s="12" customFormat="1" spans="1:4">
       <c r="A12" s="19">
         <v>45320</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>380028</v>
       </c>
       <c r="C12" s="20">
@@ -30408,11 +30507,11 @@
         <v>-13287</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="1" spans="1:5">
+    <row r="13" s="9" customFormat="1" spans="1:5">
       <c r="A13" s="19">
         <v>45321</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>366741</v>
       </c>
       <c r="C13" s="20">
@@ -30421,13 +30520,13 @@
       <c r="D13" s="20">
         <v>-17414</v>
       </c>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" s="10" customFormat="1" spans="1:5">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" s="9" customFormat="1" spans="1:5">
       <c r="A14" s="19">
         <v>45322</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>349327</v>
       </c>
       <c r="C14" s="20">
@@ -30436,7 +30535,7 @@
       <c r="D14" s="20">
         <v>-18904</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="2">
@@ -30445,15 +30544,15 @@
       <c r="B15" s="1">
         <v>330423</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>326596</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>-3746</v>
       </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" s="10" customFormat="1" spans="1:5">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" s="9" customFormat="1" spans="1:5">
       <c r="A16" s="21">
         <v>45324</v>
       </c>
@@ -30466,9 +30565,9 @@
       <c r="D16" s="23">
         <v>-36618</v>
       </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" s="10" customFormat="1" spans="1:5">
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" s="9" customFormat="1" spans="1:5">
       <c r="A17" s="21">
         <v>45327</v>
       </c>
@@ -30481,7 +30580,7 @@
       <c r="D17" s="23">
         <v>-52977</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="2">
@@ -30496,7 +30595,7 @@
       <c r="D18" s="1">
         <v>11207.5</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1">
         <v>403062.61</v>
       </c>
@@ -30557,7 +30656,7 @@
       <c r="E21" s="1">
         <v>275095</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>483454</v>
       </c>
       <c r="G21" s="24">
@@ -30794,9 +30893,27 @@
         <v>226745.9</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:1">
+    <row r="32" customFormat="1" spans="1:7">
       <c r="A32" s="2">
         <v>45356</v>
+      </c>
+      <c r="B32" s="16">
+        <v>237477.3</v>
+      </c>
+      <c r="C32" s="16">
+        <v>230454.96</v>
+      </c>
+      <c r="D32" s="16">
+        <v>-6840.9</v>
+      </c>
+      <c r="E32" s="16">
+        <v>307893.9</v>
+      </c>
+      <c r="F32" s="16">
+        <v>375490.54</v>
+      </c>
+      <c r="G32" s="31">
+        <v>191760</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:1">
@@ -31851,8 +31968,8 @@
   <sheetPr/>
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -31917,7 +32034,7 @@
       <c r="C4" s="1">
         <v>171323</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>-5854</v>
       </c>
     </row>
@@ -31991,17 +32108,17 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="10" s="10" customFormat="1" spans="1:4">
-      <c r="A10" s="12">
+    <row r="10" s="9" customFormat="1" spans="1:4">
+      <c r="A10" s="11">
         <v>45309</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>148686</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>137065</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>-11621</v>
       </c>
     </row>
@@ -32029,7 +32146,7 @@
       <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>13503</v>
       </c>
     </row>
@@ -32057,7 +32174,7 @@
       <c r="C14" s="1">
         <v>141212</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>-6956</v>
       </c>
     </row>
@@ -32071,7 +32188,7 @@
       <c r="C15" s="1">
         <v>137236</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>-3976</v>
       </c>
     </row>
@@ -32085,7 +32202,7 @@
       <c r="C16" s="1">
         <v>139014</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>1778</v>
       </c>
     </row>
@@ -32245,7 +32362,7 @@
       <c r="C27" s="1">
         <v>120255</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>-10231</v>
       </c>
     </row>
@@ -32332,7 +32449,7 @@
       <c r="C33" s="1">
         <v>110347</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="15">
         <v>-16933</v>
       </c>
     </row>
@@ -32360,7 +32477,7 @@
       <c r="C35" s="1">
         <v>99737</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <v>-7560</v>
       </c>
     </row>
@@ -32378,9 +32495,18 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="1:1">
+    <row r="37" customFormat="1" spans="1:4">
       <c r="A37" s="2">
         <v>45356</v>
+      </c>
+      <c r="B37" s="16">
+        <v>105587</v>
+      </c>
+      <c r="C37" s="16">
+        <v>104002</v>
+      </c>
+      <c r="D37" s="16">
+        <v>-1585</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:1">
@@ -33435,7 +33561,7 @@
   <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -33639,7 +33765,7 @@
       <c r="B20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="4" t="s">
         <v>55</v>
       </c>
     </row>

--- a/2024-Investment.xlsx
+++ b/2024-Investment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="5"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -1128,6 +1128,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1170,7 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1180,9 +1183,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
@@ -2426,6 +2426,9 @@
                 <c:pt idx="37">
                   <c:v>10700</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>9318</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3341,6 +3344,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3047.79</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3039.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4567,6 +4573,9 @@
                 <c:pt idx="37">
                   <c:v>-444.88</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>-115.84</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5464,6 +5473,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>15.54</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-14.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6608,6 +6620,9 @@
                 <c:pt idx="37">
                   <c:v>17.7</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>66.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7524,6 +7539,9 @@
                 <c:pt idx="37">
                   <c:v>933</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>3439</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8424,6 +8442,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4346</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1740</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9644,6 +9665,9 @@
                 <c:pt idx="37">
                   <c:v>59</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>105</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10541,6 +10565,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11642,6 +11669,9 @@
                 <c:pt idx="30">
                   <c:v>-6840.9</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>4306.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12515,6 +12545,9 @@
                 <c:pt idx="30">
                   <c:v>237477.3</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>230454.96</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13370,6 +13403,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>230454.96</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>234534.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14544,6 +14580,9 @@
                 <c:pt idx="30">
                   <c:v>-6840.9</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>4306.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15418,6 +15457,9 @@
                 <c:pt idx="30">
                   <c:v>230454.96</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>234534.85</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -16219,6 +16261,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>191760</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>413322.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17428,6 +17473,9 @@
                 <c:pt idx="35">
                   <c:v>-1585</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>-12800</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18332,6 +18380,9 @@
                 <c:pt idx="35">
                   <c:v>105587</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>104002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19220,6 +19271,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>104002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>101202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23496,7 +23550,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5715000" y="368300"/>
+        <a:off x="5895975" y="368300"/>
         <a:ext cx="71319390" cy="4352925"/>
       </xdr:xfrm>
       <a:graphic>
@@ -23933,7 +23987,7 @@
   <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C39"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -24363,16 +24417,22 @@
       <c r="A39" s="2">
         <v>45356</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="1">
         <v>3047.79</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="1">
         <v>10700</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>45357</v>
+      </c>
+      <c r="B40" s="16">
+        <v>3039.93</v>
+      </c>
+      <c r="C40" s="16">
+        <v>9318</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -25453,7 +25513,7 @@
   <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:G39"/>
+      <selection activeCell="A40" sqref="A40:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -25462,7 +25522,7 @@
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="6.125" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26109,28 +26169,46 @@
       <c r="A39" s="2">
         <v>45356</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="1">
         <v>-444.88</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="1">
         <v>-210.94</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="1">
         <v>-233.95</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="1">
         <v>3.16</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="1">
         <v>441.72</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="1">
         <v>15.54</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>45357</v>
+      </c>
+      <c r="B40" s="16">
+        <v>-115.84</v>
+      </c>
+      <c r="C40" s="16">
+        <v>-41.1</v>
+      </c>
+      <c r="D40" s="16">
+        <v>-74.77</v>
+      </c>
+      <c r="E40" s="16">
+        <v>-31.94</v>
+      </c>
+      <c r="F40" s="16">
+        <v>147.78</v>
+      </c>
+      <c r="G40" s="16">
+        <v>-14.6</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -27210,8 +27288,8 @@
   <sheetPr/>
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -27444,16 +27522,16 @@
       </c>
     </row>
     <row r="17" s="12" customFormat="1" spans="1:4">
-      <c r="A17" s="32">
+      <c r="A17" s="33">
         <v>45316</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="27">
         <v>4885</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="27">
         <v>427</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="27">
         <v>91.9</v>
       </c>
     </row>
@@ -27551,21 +27629,21 @@
       <c r="C24" s="1">
         <v>4898</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="32">
+      <c r="A25" s="33">
         <v>45328</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="27">
         <v>3829</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="27">
         <v>1465</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="27">
         <v>75</v>
       </c>
     </row>
@@ -27682,16 +27760,16 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="32">
+      <c r="A34" s="33">
         <v>45349</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="27">
         <v>5031</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="27">
         <v>277</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="27">
         <v>94.8</v>
       </c>
     </row>
@@ -27738,36 +27816,45 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="34">
+      <c r="A38" s="35">
         <v>45355</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="25">
         <v>2083</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="25">
         <v>3170</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="25">
         <v>39.7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="19">
+      <c r="A39" s="20">
         <v>45356</v>
       </c>
-      <c r="B39" s="35">
+      <c r="B39" s="13">
         <v>933</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="13">
         <v>4346</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="13">
         <v>17.7</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:4">
       <c r="A40" s="2">
         <v>45357</v>
+      </c>
+      <c r="B40" s="16">
+        <v>3439</v>
+      </c>
+      <c r="C40" s="16">
+        <v>1740</v>
+      </c>
+      <c r="D40" s="16">
+        <v>66.4</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -28817,8 +28904,8 @@
   <sheetPr/>
   <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -29248,16 +29335,22 @@
       <c r="A39" s="2">
         <v>45356</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="1">
         <v>59</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>45357</v>
+      </c>
+      <c r="B40" s="16">
+        <v>105</v>
+      </c>
+      <c r="C40" s="16">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -30307,8 +30400,8 @@
   <sheetPr/>
   <dimension ref="A1:G240"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:G32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -30374,13 +30467,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>45308</v>
       </c>
       <c r="B4" s="10">
         <v>186745</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="19">
         <v>179605</v>
       </c>
       <c r="D4" s="10">
@@ -30419,13 +30512,13 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" s="9" customFormat="1" spans="1:5">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>45313</v>
       </c>
       <c r="B7" s="13">
         <v>172869</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="21">
         <v>159060</v>
       </c>
       <c r="D7" s="13">
@@ -30494,45 +30587,45 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" s="12" customFormat="1" spans="1:4">
-      <c r="A12" s="19">
+      <c r="A12" s="20">
         <v>45320</v>
       </c>
       <c r="B12" s="13">
         <v>380028</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="21">
         <v>366741</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="21">
         <v>-13287</v>
       </c>
     </row>
     <row r="13" s="9" customFormat="1" spans="1:5">
-      <c r="A13" s="19">
+      <c r="A13" s="20">
         <v>45321</v>
       </c>
       <c r="B13" s="13">
         <v>366741</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="21">
         <v>349327</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="21">
         <v>-17414</v>
       </c>
       <c r="E13" s="12"/>
     </row>
     <row r="14" s="9" customFormat="1" spans="1:5">
-      <c r="A14" s="19">
+      <c r="A14" s="20">
         <v>45322</v>
       </c>
       <c r="B14" s="13">
         <v>349327</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="21">
         <v>330423</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="21">
         <v>-18904</v>
       </c>
       <c r="E14" s="12"/>
@@ -30553,31 +30646,31 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" s="9" customFormat="1" spans="1:5">
-      <c r="A16" s="21">
+      <c r="A16" s="22">
         <v>45324</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="23">
         <v>330423</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="24">
         <v>297670</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="24">
         <v>-36618</v>
       </c>
       <c r="E16" s="12"/>
     </row>
     <row r="17" s="9" customFormat="1" spans="1:5">
-      <c r="A17" s="21">
+      <c r="A17" s="22">
         <v>45327</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="23">
         <v>297670</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="24">
         <v>244693</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="24">
         <v>-52977</v>
       </c>
       <c r="E17" s="12"/>
@@ -30601,16 +30694,16 @@
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:6">
-      <c r="A19" s="21">
+      <c r="A19" s="22">
         <v>45329</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="23">
         <v>218441</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="23">
         <v>231227</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="23">
         <v>-27154</v>
       </c>
       <c r="E19" s="1">
@@ -30659,7 +30752,7 @@
       <c r="F21" s="14">
         <v>483454</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="25">
         <v>241972</v>
       </c>
     </row>
@@ -30682,7 +30775,7 @@
       <c r="F22" s="1">
         <v>478986</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="25">
         <v>237504</v>
       </c>
     </row>
@@ -30705,7 +30798,7 @@
       <c r="F23" s="1">
         <v>345067</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="25">
         <v>103586</v>
       </c>
     </row>
@@ -30728,7 +30821,7 @@
       <c r="F24" s="1">
         <v>435058</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="26">
         <v>402225.8</v>
       </c>
     </row>
@@ -30751,21 +30844,21 @@
       <c r="F25" s="1">
         <v>267386.1</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="27">
         <v>39939</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:7">
-      <c r="A26" s="27">
+      <c r="A26" s="28">
         <v>45348</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="29">
         <v>267386.1</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="29">
         <v>259454.3</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="29">
         <v>-7823.2</v>
       </c>
       <c r="E26" s="1">
@@ -30774,7 +30867,7 @@
       <c r="F26" s="1">
         <v>496539</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="26">
         <v>493404.8</v>
       </c>
     </row>
@@ -30797,21 +30890,21 @@
       <c r="F27" s="1">
         <v>499050.3</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="26">
         <v>413020.7</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:7">
-      <c r="A28" s="21">
+      <c r="A28" s="22">
         <v>45350</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="23">
         <v>275197.6</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="23">
         <v>247357.1</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="23">
         <v>-27515.7</v>
       </c>
       <c r="E28" s="1">
@@ -30820,7 +30913,7 @@
       <c r="F28" s="1">
         <v>247357</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="25">
         <v>122372</v>
       </c>
     </row>
@@ -30843,7 +30936,7 @@
       <c r="F29" s="1">
         <v>415245.1</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="26">
         <v>328726</v>
       </c>
     </row>
@@ -30866,7 +30959,7 @@
       <c r="F30" s="1">
         <v>369478.75</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="30">
         <v>338781.9</v>
       </c>
     </row>
@@ -30889,7 +30982,7 @@
       <c r="F31" s="1">
         <v>307893.9</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="31">
         <v>226745.9</v>
       </c>
     </row>
@@ -30897,28 +30990,46 @@
       <c r="A32" s="2">
         <v>45356</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="1">
         <v>237477.3</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="1">
         <v>230454.96</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="1">
         <v>-6840.9</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="1">
         <v>307893.9</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="1">
         <v>375490.54</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="25">
         <v>191760</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:1">
+    <row r="33" customFormat="1" spans="1:7">
       <c r="A33" s="2">
         <v>45357</v>
+      </c>
+      <c r="B33" s="16">
+        <v>230454.96</v>
+      </c>
+      <c r="C33" s="16">
+        <v>234534.85</v>
+      </c>
+      <c r="D33" s="16">
+        <v>4306.4</v>
+      </c>
+      <c r="E33" s="16">
+        <v>375490.54</v>
+      </c>
+      <c r="F33" s="16">
+        <v>415397.41</v>
+      </c>
+      <c r="G33" s="32">
+        <v>413322.4</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:1">
@@ -31968,8 +32079,8 @@
   <sheetPr/>
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:D37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -32499,19 +32610,31 @@
       <c r="A37" s="2">
         <v>45356</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="1">
         <v>105587</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="1">
         <v>104002</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="1">
         <v>-1585</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="1:1">
+    <row r="38" customFormat="1" spans="1:5">
       <c r="A38" s="2">
         <v>45357</v>
+      </c>
+      <c r="B38" s="16">
+        <v>104002</v>
+      </c>
+      <c r="C38" s="16">
+        <v>101202</v>
+      </c>
+      <c r="D38" s="17">
+        <v>-12800</v>
+      </c>
+      <c r="E38" s="16">
+        <v>-10000</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:1">
@@ -33561,8 +33684,8 @@
   <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
